--- a/data/hotels_by_city/Dallas/Dallas_shard_657.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_657.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="831">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2403 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r578303631-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109374</t>
+  </si>
+  <si>
+    <t>578303631</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>I recently completed a 10 week working stay at this property. I was put here by my company with a large group, and we had no option to choose our lodging. -The upside to this hotel is it's proximity to Love Field and Downtown. And the rooms were large, clean, and well suited to a long term business stay.-The downside is it is a bit noisy being so close to the freeway, and there's no restaurant or bar. However, they do put out a good breakfast every morning, and a few days a week they they serve up evening nosh with beer and wine. The reason I'm giving this place 5 stars is the staff. ALL of the employees working there are fantastic!  I'm a light sleeper and asked to be moved to a more quiet part of the hotel. Crystal at the front desk did her best to move me to a quiet room and even arranged to have my luggage moved for me while I was at work.One particular standout was Stephanie. We became fast friends and she was fantastic in helping me and our crew with requests, and making sure that my stay was as enjoyable as possible.I do apologize for not mentioning everyone's names here, but again ALL of the staff were friendly and accommodating. I would recommend this hotel for business travel, as the staff made all the difference.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I recently completed a 10 week working stay at this property. I was put here by my company with a large group, and we had no option to choose our lodging. -The upside to this hotel is it's proximity to Love Field and Downtown. And the rooms were large, clean, and well suited to a long term business stay.-The downside is it is a bit noisy being so close to the freeway, and there's no restaurant or bar. However, they do put out a good breakfast every morning, and a few days a week they they serve up evening nosh with beer and wine. The reason I'm giving this place 5 stars is the staff. ALL of the employees working there are fantastic!  I'm a light sleeper and asked to be moved to a more quiet part of the hotel. Crystal at the front desk did her best to move me to a quiet room and even arranged to have my luggage moved for me while I was at work.One particular standout was Stephanie. We became fast friends and she was fantastic in helping me and our crew with requests, and making sure that my stay was as enjoyable as possible.I do apologize for not mentioning everyone's names here, but again ALL of the staff were friendly and accommodating. I would recommend this hotel for business travel, as the staff made all the difference.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r564723995-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>564723995</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Old style Residence Inn - clean and comfortable</t>
+  </si>
+  <si>
+    <t>We had an early flight to Love Field and this property was fine for our needs. It is the old style where rooms are grouped in pods and separate from each other. You have to walk outside to get to the lobby. We were surprised to see the pool cleaned out and ready to go in early March. It was too cold to swim, but lovely to see outside poolside. Though the highway runs right next to the building, I did not think it was too noisy. We had to leave at 5 a.m., so we didn't get to try the breakfast. I was a little disappointed that they didn't have any kind of light to go breakfast for early travelers. I would expect that at an airport location. The coffee was not good. All in all, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had an early flight to Love Field and this property was fine for our needs. It is the old style where rooms are grouped in pods and separate from each other. You have to walk outside to get to the lobby. We were surprised to see the pool cleaned out and ready to go in early March. It was too cold to swim, but lovely to see outside poolside. Though the highway runs right next to the building, I did not think it was too noisy. We had to leave at 5 a.m., so we didn't get to try the breakfast. I was a little disappointed that they didn't have any kind of light to go breakfast for early travelers. I would expect that at an airport location. The coffee was not good. All in all, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r559797604-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>559797604</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Super, super nice place!</t>
+  </si>
+  <si>
+    <t>I think I have the correct location, it was right by the freeway, near the university. We were traveling, very tired and arrived in the city late. The staff was very cordial, rates were very affordable, and the ammenities were more than excellent! Although the location was a "red flag" it was very quiet. Grounds were beautiful. Very nice place. Thank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r551772873-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>551772873</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Decent + clean hotel, slept well</t>
+  </si>
+  <si>
+    <t>This hotel is all right for its price point - it's pretty much like every other Residence Inn I've stayed at. The continental breakfast was surprisingly good. You're able to log in to your Netflix on the TV, which is cool.We stayed January 3, and they were still playing Christmas music... yikes!Rooms all open to the outdoors. In the summer, they have more going on than winter.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r541198189-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>541198189</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Dallas DCM</t>
+  </si>
+  <si>
+    <t>My room was facing the expressway. Traffic was constant, but the room was comfortable and surprisingly quiet. The breakfast and manager reception were enjoyable. The front desk was helpful and cheerful. I checked in Oct 17th and will be here until Dec 15th, for far the experience has been very good.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r536048434-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>536048434</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>AT&amp;T Stadium tour</t>
+  </si>
+  <si>
+    <t>The room was nice and so were the staff. The continental breakfast was good. There was a dance troupe there, but still plenty of food. The negatives are that we were on the third floor and the elevator never worked. We had to carry all of our suitcases up and down plus coming and going. There was no lotion in our room and the hotel didn't have any. They had to go across to their other hotel, to get some.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Hank L, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>The room was nice and so were the staff. The continental breakfast was good. There was a dance troupe there, but still plenty of food. The negatives are that we were on the third floor and the elevator never worked. We had to carry all of our suitcases up and down plus coming and going. There was no lotion in our room and the hotel didn't have any. They had to go across to their other hotel, to get some.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r505992425-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>505992425</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Large super-clean room with all the comforts of home</t>
+  </si>
+  <si>
+    <t>Great location near Dallas Love Field.  Michelle Moore and Laneysa Lockhart go above and beyond to make you feel like close family.  Exceptional evening happy hour with a food truck and wine, beer, and soda/coffee.  Extra large room equivalent to an apartment.  Super clean facility!  Great facility for a one-night stay or an extended stay.  Pool, business center, laundry, and free WiFi.  Staff is very attentive and professional.  Personalize service throughout the stay.  Highly recommend this facility.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r503330478-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>503330478</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>great place to stay with a great staff</t>
+  </si>
+  <si>
+    <t>We stayed with you from June 19 to June 24 we had a wonderful time at your hotel,your staff was wonderful starting with Valerie at the front desk and Silas at the front desk both went out of there way to help us with all our questions. Avrelia greeted us every morning with a smile and did a great job with breakfast which was terrific, then there was Jose the maintence man who went out of his way when the TV would not work. you should be proud of your lovely hotel and the people who work for the hotel,thanks Hank and Michelle you both made Mary and I feel at home looking forward to seeing everyone in January. We looked forward every night to getting into the pool and relaxing and enjoy the other people around the pool, very convenient to the hwy if you had to go anywhere. Glenn and MaryMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We stayed with you from June 19 to June 24 we had a wonderful time at your hotel,your staff was wonderful starting with Valerie at the front desk and Silas at the front desk both went out of there way to help us with all our questions. Avrelia greeted us every morning with a smile and did a great job with breakfast which was terrific, then there was Jose the maintence man who went out of his way when the TV would not work. you should be proud of your lovely hotel and the people who work for the hotel,thanks Hank and Michelle you both made Mary and I feel at home looking forward to seeing everyone in January. We looked forward every night to getting into the pool and relaxing and enjoy the other people around the pool, very convenient to the hwy if you had to go anywhere. Glenn and MaryMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r492330663-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>492330663</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Central Location Close to Medical</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for four weeks.  It is an older extended stay hotel near the medical district.   The unit was average one bedroom, living room, kitchen and bathroom.  The appliances nice and the kitchen was stocked with everything I needed.   The staff are very friendly and helpful.  The hotel is located near the medical district and major highways which attracts homeless people.  The hotel has done a good job keeping the area safe with gated parking.  The pool was nice.  I sat by the pool while waiting for my laundry.   For a quiet room request a room far from the freeway.   There were plenty restaurants within 10 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Hank L, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for four weeks.  It is an older extended stay hotel near the medical district.   The unit was average one bedroom, living room, kitchen and bathroom.  The appliances nice and the kitchen was stocked with everything I needed.   The staff are very friendly and helpful.  The hotel is located near the medical district and major highways which attracts homeless people.  The hotel has done a good job keeping the area safe with gated parking.  The pool was nice.  I sat by the pool while waiting for my laundry.   For a quiet room request a room far from the freeway.   There were plenty restaurants within 10 minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r483623871-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>483623871</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakfast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to personally thank the lady who makes the breakfast, she is so polite and makes a very nice and fresh variety of different types of food and fresh fruit to choose from. We come back to this establishment 2-3 times a year to take my father in law to UT Southwestern and the location is perfect to avoid the traffic congestion. The rooms are comfortable and equipped with the amenities for extended stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r480349684-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>480349684</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Comfortable rooms, but they all open to the outside; noisy; not the best part of town...</t>
+  </si>
+  <si>
+    <t>Pros: Convenient if you are working or need to be in that particular area; comfortable rooms; elevators...however...Cons:* Rooms open to the outside* There are eight or so buildings and each building has a courtyard of sorts in the center with all of the rooms opening to the outside. Although there is only one entryway to each building, safety is a concern because this hotel is located in not-so-safe part of the city* If you are on the side of I-35 be prepared for noise* The TV in the bedroom was preposterously small (~17")* Breakfast was just okayI cannot recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Hank L, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Pros: Convenient if you are working or need to be in that particular area; comfortable rooms; elevators...however...Cons:* Rooms open to the outside* There are eight or so buildings and each building has a courtyard of sorts in the center with all of the rooms opening to the outside. Although there is only one entryway to each building, safety is a concern because this hotel is located in not-so-safe part of the city* If you are on the side of I-35 be prepared for noise* The TV in the bedroom was preposterously small (~17")* Breakfast was just okayI cannot recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r477479297-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>477479297</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>The location was right off 35 which made it super easy to get places. The property was up to par overall, but no safe in the rooms which made me hesitant. Overall the stay and the venue was really nice. I could not find an elevator to get to the higher floors.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Hank L, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded April 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2017</t>
+  </si>
+  <si>
+    <t>The location was right off 35 which made it super easy to get places. The property was up to par overall, but no safe in the rooms which made me hesitant. Overall the stay and the venue was really nice. I could not find an elevator to get to the higher floors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r468158243-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>468158243</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn Market Center</t>
+  </si>
+  <si>
+    <t>This hotel is located right on the highway and the traffic is so loud. We were put on the side that sits facing highway it was so loud you could hear inside the room. Didn't get much sleep between the traffic  noise and sirens!  I did request early check-in and did get that . I asked if I could switch rooms away from highway thinking early enough in the day to get that. They told me sold out hotel already at 1:45 pm.  Rooms were a mix of updates and old furniture. The hotel was not completely remodeled in 2015 as it stated. We had the oldest dishwasher in our room and old cabinets. Not a complete remodel, but some updates. Walls dirty and could use a good deep cleaning !! The TV's were tiny! The breakfast was good a nice variety! 3 hot items to choose from. Your  typical oatmeal, cereals, waffles, bagels, wheat bread, English muffins, yogurt. No muffins or doughnuts. I liked that they offered soy milk since I don't drink milk. All in all okay for a 1 night stay. You'd be sleep deprived if you stayed longer!! Pool is not heated so I doubt it gets used at all!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Michelle M, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is located right on the highway and the traffic is so loud. We were put on the side that sits facing highway it was so loud you could hear inside the room. Didn't get much sleep between the traffic  noise and sirens!  I did request early check-in and did get that . I asked if I could switch rooms away from highway thinking early enough in the day to get that. They told me sold out hotel already at 1:45 pm.  Rooms were a mix of updates and old furniture. The hotel was not completely remodeled in 2015 as it stated. We had the oldest dishwasher in our room and old cabinets. Not a complete remodel, but some updates. Walls dirty and could use a good deep cleaning !! The TV's were tiny! The breakfast was good a nice variety! 3 hot items to choose from. Your  typical oatmeal, cereals, waffles, bagels, wheat bread, English muffins, yogurt. No muffins or doughnuts. I liked that they offered soy milk since I don't drink milk. All in all okay for a 1 night stay. You'd be sleep deprived if you stayed longer!! Pool is not heated so I doubt it gets used at all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r465183597-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>465183597</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Very nice Marriott Residence</t>
+  </si>
+  <si>
+    <t>I have stayed at quite a few Residences. This one is well kept,clean and has a nice decor in the rooms. No over powering cleaners or odors. The happy hour is a little strange. Red beans and rice, French bread, cheese, taco chips and beer!!  Parking is all around the buildings making it difficult to find the suite.  All in all a decent hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r461429053-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>461429053</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Found Ants in the room</t>
+  </si>
+  <si>
+    <t>Check in was easy. Arrived in the room and after 30 minutes found ants in the kitchen and bathroom. Front desk moved us to a room next door. No mentioned of reducing the price for the one night stay. Room was located opposite a highway so did not have a good night sleep on account of truck traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Michelle M, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Check in was easy. Arrived in the room and after 30 minutes found ants in the kitchen and bathroom. Front desk moved us to a room next door. No mentioned of reducing the price for the one night stay. Room was located opposite a highway so did not have a good night sleep on account of truck traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r444918068-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>444918068</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Awesome Place!!</t>
+  </si>
+  <si>
+    <t>I had an extended stay at this hotel and it was a wonderful experience. The staff was  most helpful with ANY concerns or questions I had. The breakfast is a good start to every day, with lots of variety. They have evening events to engage their guests, which adds to the experience. A great stop if you need lodging in the Dallas area.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r442923680-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>442923680</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The Hotel is in walking distance of the Mall,  It's nice Clean and convenient.  The Rooms are nice for long stays  the Staff is really friendly. There are plenty of Restaurants in walking distance.  Freeway close, close to Airport and near-by cities</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r442887506-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>442887506</t>
+  </si>
+  <si>
+    <t>Was there for work - the room it's self was ok the location not so much</t>
+  </si>
+  <si>
+    <t>The hotel staff was friendly especially the woman who maintained the breakfast.  They were working on/painting stairs by my room outside and it smelled really bad whenever I opened my door.  I was not a fan of the location but as I said the staff was very nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r420621210-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>420621210</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Glorified Motel, Noisy Freeway</t>
+  </si>
+  <si>
+    <t>They first tried to put me in an "outside" room, but the area seemed kinda sketchy and I didn't feel safe as there wasn't much security to speak of so I requested a room inside the building.  They acted kind of snooty about it as "the inside rooms are reserved for long-term guests only" but miraculously they had ONE (handi-capped accessible) room left that I could have inside.  I took this room and it was fine, but not up to the standards of any of the other Marriott Residence Inn properties I have experienced.  This is one of my favorite hotel chains, but this particular hotel seems more in line with Super 8 or Motel 6.  If you are searching based only on price, it is a decent value compared to other Dallas-area hotels, but if you are used to the nicer versions of Marriott Residence Inn properties, you will not be satisfied with this Motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Michelle M, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>They first tried to put me in an "outside" room, but the area seemed kinda sketchy and I didn't feel safe as there wasn't much security to speak of so I requested a room inside the building.  They acted kind of snooty about it as "the inside rooms are reserved for long-term guests only" but miraculously they had ONE (handi-capped accessible) room left that I could have inside.  I took this room and it was fine, but not up to the standards of any of the other Marriott Residence Inn properties I have experienced.  This is one of my favorite hotel chains, but this particular hotel seems more in line with Super 8 or Motel 6.  If you are searching based only on price, it is a decent value compared to other Dallas-area hotels, but if you are used to the nicer versions of Marriott Residence Inn properties, you will not be satisfied with this Motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r420156765-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>420156765</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>Although conveniently located, this hotel sits aside a very busy highway, and is somewhat difficult to negotiate due to the one-way roadway that runs along the side of the highway. If you are unlucky enough to get a room near this highway, the traffic noise is at best annoying, at worse enough to keep you awake.The exterior is somewhat rundown, the pool is ok; clean but worn, and although breakfast is included it is not a bargain in any way.The food served or breakfast is sub-par; what tastes like powdered eggs, canned fruit (some fresh cantaloupe, but only one out of three days) mealy croissants, and greasy sausages. There were also cereals, cheeses (only one day) a limited assortment of yogurts, waffles and breakfast meats. This breakfast paled in comparison with other Marriott breakfasts that are included in the stay - by a long shot. Our room was clean, the space was acceptable, all of the appliances worked, the shower was good, the bed very comfortable. House keeping was swift. We had a very small issue with our door not opening easily, and that was fixed immediately. MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Although conveniently located, this hotel sits aside a very busy highway, and is somewhat difficult to negotiate due to the one-way roadway that runs along the side of the highway. If you are unlucky enough to get a room near this highway, the traffic noise is at best annoying, at worse enough to keep you awake.The exterior is somewhat rundown, the pool is ok; clean but worn, and although breakfast is included it is not a bargain in any way.The food served or breakfast is sub-par; what tastes like powdered eggs, canned fruit (some fresh cantaloupe, but only one out of three days) mealy croissants, and greasy sausages. There were also cereals, cheeses (only one day) a limited assortment of yogurts, waffles and breakfast meats. This breakfast paled in comparison with other Marriott breakfasts that are included in the stay - by a long shot. Our room was clean, the space was acceptable, all of the appliances worked, the shower was good, the bed very comfortable. House keeping was swift. We had a very small issue with our door not opening easily, and that was fixed immediately. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r418156670-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>418156670</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Great and cozy place in Dallas, TX</t>
+  </si>
+  <si>
+    <t>You can fell like home here. People very kind and warm. Good meals and comfortable suites. Parking near your building. Pool, gym and other amenities. Rooms have their own equiped kitchen with fridge,microwave, coffee maker. You can cook and save meals money.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r414979953-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>414979953</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location and very nice staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a nice hotel with multiple low rise buildings. The staff here could not be more accommodating.  Very helpful and friendly. Clean, close to DFW AND LOVE field. We went to football game in ATT stadium and its a bit of a drive but there is not much in Arlington. As we know from experience. Anyway I recommend the hotel highly </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r414371420-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>414371420</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Consistently good service</t>
+  </si>
+  <si>
+    <t>I was in the Dallas area for business and stayed at this hotel.  Checkin was easy with the new app.  I showed up and my key was waiting for me. Room was clean and nicely cooled. The next day I let the front desk know the tub was slowly draining during she wear, the staff apologized and later that night when I returned it was fixed.  While I was there, the hotel was changing out / upgrading the wireless internet .  My room was not connecting, so after an have ur of working out n the problem, they quickly moved me to another room and assisted in My  all my items.  The morning and evening food service was good, plenty and tasty. The staff was a pleasure to talk with especially the Engineer Manager.  If I am back in the area again, I will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I was in the Dallas area for business and stayed at this hotel.  Checkin was easy with the new app.  I showed up and my key was waiting for me. Room was clean and nicely cooled. The next day I let the front desk know the tub was slowly draining during she wear, the staff apologized and later that night when I returned it was fixed.  While I was there, the hotel was changing out / upgrading the wireless internet .  My room was not connecting, so after an have ur of working out n the problem, they quickly moved me to another room and assisted in My  all my items.  The morning and evening food service was good, plenty and tasty. The staff was a pleasure to talk with especially the Engineer Manager.  If I am back in the area again, I will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r413886792-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>413886792</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>It's ok</t>
+  </si>
+  <si>
+    <t>This motel is ok.  The staff are super nice and the place is relatively clean.  It's very dated though, and in a mediocre location.  I generally like places where I can get out and walk- not recommended here unless you do laps around the motel.  It's located on a one way frontage road near the interstate, so a pain to get to if coming from the wrong direction.  The room itself was clean, but dated.  I would've had a nice view of the pool area except the seal on the window was bad, so all I saw was condensation.  The remote in the living area turns on the tv in the bedroom as well, so make sure and mute that or you'll be listening to both TVs.  I don't see any good way to get by without a car here.  It wasn't terrible, but I'll probably look for a place in a bit better area next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle M, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded September 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2016</t>
+  </si>
+  <si>
+    <t>This motel is ok.  The staff are super nice and the place is relatively clean.  It's very dated though, and in a mediocre location.  I generally like places where I can get out and walk- not recommended here unless you do laps around the motel.  It's located on a one way frontage road near the interstate, so a pain to get to if coming from the wrong direction.  The room itself was clean, but dated.  I would've had a nice view of the pool area except the seal on the window was bad, so all I saw was condensation.  The remote in the living area turns on the tv in the bedroom as well, so make sure and mute that or you'll be listening to both TVs.  I don't see any good way to get by without a car here.  It wasn't terrible, but I'll probably look for a place in a bit better area next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r407597860-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>407597860</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service</t>
+  </si>
+  <si>
+    <t>I stayed at this location for two and half weeks and the staff here was great in helping with any thing that I needed.  They went over and above to ensure that all needs were met and that the group I was with had everything needed for working on the projects that we needed to accomplish.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r406403114-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>406403114</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for ten weeks and the service was amazing. The suites are very spacious and a one bed room suit can fit a family of four. The kitchen is quiet small and hard to cook because of electric stove but all in all the hotel is excellent.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r404353534-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>404353534</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed there for 10 nights after selling my house. Very comfortable suites. Very good breakfast and social evenings. It's near a big highway, however couldn't hear any noise from it. Highly recommended. Will stay there again when visiting friends jn Dallas!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r384067676-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>384067676</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe I got a bad room? </t>
+  </si>
+  <si>
+    <t>I stayed here because of the very good reviews.  But, my room was smelly of cigarette smoke (non-smoking room) and mildew/moisture. When I finally lied down to sleep, I kept getting wafts of mildewy, sour aroma.Another feature that was not readily apparent from the description or the reviews,  is that this complex is made up of numerous "apartment " buildings,  instead of being all one structure.  This makes it seem more like an apartment complex instead of a hotel. For long stays, this is probably an added feature.  Hopefully  other patrons have nicer rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michelle M, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here because of the very good reviews.  But, my room was smelly of cigarette smoke (non-smoking room) and mildew/moisture. When I finally lied down to sleep, I kept getting wafts of mildewy, sour aroma.Another feature that was not readily apparent from the description or the reviews,  is that this complex is made up of numerous "apartment " buildings,  instead of being all one structure.  This makes it seem more like an apartment complex instead of a hotel. For long stays, this is probably an added feature.  Hopefully  other patrons have nicer rooms. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r379517149-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>379517149</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Excellent service staff:  Thank you Laneysa and Ling!</t>
+  </si>
+  <si>
+    <t>I am a government employee and went for a symposium in UT Southwestern and was amazed by the excellent service of the staff at the hotel! I especially would like to acknowledge that Laneysa and Ling went above and beyond in making myself and my family feel right at home the entire time! have never met hotel staff like the two of them. Thank you both so much for everything!  I will definitely come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>I am a government employee and went for a symposium in UT Southwestern and was amazed by the excellent service of the staff at the hotel! I especially would like to acknowledge that Laneysa and Ling went above and beyond in making myself and my family feel right at home the entire time! have never met hotel staff like the two of them. Thank you both so much for everything!  I will definitely come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r373209683-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>373209683</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartment for the weekend! </t>
+  </si>
+  <si>
+    <t>This was more than we expected for the weekend!  Comfortable bed, clean and quiet room with friendly, attentive staff. Yes, it's not perfect...could be closer to places for eats and drinks, the TV in the master bedroom was ancient and small but we weren't in Dallas to watch television! Perfect location in proximity to Fair Park..will definitely stay again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r369065410-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>369065410</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Nice Experience</t>
+  </si>
+  <si>
+    <t>Staff always responsive and nice, everything was in good conditions, room was tidy and clean and ready in time. Nice activities during afternoon and breakfast is always good. It was a really confortable stay.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r368867996-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>368867996</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Flight Delay</t>
+  </si>
+  <si>
+    <t>Easily booked with my Marriott Rewards account IPhone app. Hotel the airline gave voucher for was full. Quick Uber ride from airport and smooth checkin. Rooms large, clean and comfortable. Staff was friendly and helpful.  I would suggest this hotel for business or family!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r368569740-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>368569740</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Met our needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a medical appointment at UT Southwestern. This was convenient to the doctor and easy access to restaurants. I wish the handicap Suite had a way to block the bedroom from the rest of the suite, but the handicap features were very accommodating. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r357836880-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>357836880</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Perfect for 2-week stay! Friendly Staff!</t>
+  </si>
+  <si>
+    <t>Amazing!! Friendly staff, great WARM breakfast every morning, free happy hour Monday-Wednesday, close to downtown.. It was perfect for my two week business trip!Would definitely stay again! Can't beat it!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Amazing!! Friendly staff, great WARM breakfast every morning, free happy hour Monday-Wednesday, close to downtown.. It was perfect for my two week business trip!Would definitely stay again! Can't beat it!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r356920203-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>356920203</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>One of my Dallas Favorites</t>
+  </si>
+  <si>
+    <t>Always has been and still is a great place to stay.  Tucked in by the freeway.  Hard to see coming from the airport.  Lots of free parking.  Best to have a car of your own as there is not a lot in the immediate area.  However, they have good manager evening events (Monday to Wednesday) and breakfast daily.  Also have good shuttle service to restaurants and other sites.  I have always gotten a quiet and nicely appointed room on an upstairs floor.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r356618264-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>356618264</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Great stay!!</t>
+  </si>
+  <si>
+    <t>I spent last weekend at this property. The first thing that struck me is how friendly, polite and professional everyone is. Check in was quick and I'd requested some extra towels since it was three of us and they gave me fresh towels from the dryer so I wouldn't have to call.
+The room was standard for Residence Inn but fully updated with decor and appliances. The room was clean and refreshed and the bathroom also (so I thought, more on that later). The bed was super comfortable and I also opened the sofa bed and tried it out. It was remarkably comfortable also. 
+I requested a room in the back of the property, away from 35 so I wouldn't have to deal with the noise. The rooms are all exterior doors but you must have key access to get into the parking lot. That extra level of security was appreciated. 
+Breakfast was your standard breakfast - eggs, sausage, waffles, fruit, different breads and pastries. The breakfast attendant both morning was so friendly and hospitable. 
+While getting ready Saturday morning, I found several strands of hair on the floor, in the corner by the tub. I figured with the shade of brown it was difficult to see but I figured housekeeping would have at least cleaned/mopped the floor when they refreshed the room. I came back later that day after the refresh and the hair was in the same spot....I spent last weekend at this property. The first thing that struck me is how friendly, polite and professional everyone is. Check in was quick and I'd requested some extra towels since it was three of us and they gave me fresh towels from the dryer so I wouldn't have to call.The room was standard for Residence Inn but fully updated with decor and appliances. The room was clean and refreshed and the bathroom also (so I thought, more on that later). The bed was super comfortable and I also opened the sofa bed and tried it out. It was remarkably comfortable also. I requested a room in the back of the property, away from 35 so I wouldn't have to deal with the noise. The rooms are all exterior doors but you must have key access to get into the parking lot. That extra level of security was appreciated. Breakfast was your standard breakfast - eggs, sausage, waffles, fruit, different breads and pastries. The breakfast attendant both morning was so friendly and hospitable. While getting ready Saturday morning, I found several strands of hair on the floor, in the corner by the tub. I figured with the shade of brown it was difficult to see but I figured housekeeping would have at least cleaned/mopped the floor when they refreshed the room. I came back later that day after the refresh and the hair was in the same spot. Housekeeping didn't do a good job on two occasions. Despite that, this is a great property and a good location if you need to be between downtown Dallas and NW Dallas. There are several restaurants just to the north and south of the hotel off I35.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent last weekend at this property. The first thing that struck me is how friendly, polite and professional everyone is. Check in was quick and I'd requested some extra towels since it was three of us and they gave me fresh towels from the dryer so I wouldn't have to call.
+The room was standard for Residence Inn but fully updated with decor and appliances. The room was clean and refreshed and the bathroom also (so I thought, more on that later). The bed was super comfortable and I also opened the sofa bed and tried it out. It was remarkably comfortable also. 
+I requested a room in the back of the property, away from 35 so I wouldn't have to deal with the noise. The rooms are all exterior doors but you must have key access to get into the parking lot. That extra level of security was appreciated. 
+Breakfast was your standard breakfast - eggs, sausage, waffles, fruit, different breads and pastries. The breakfast attendant both morning was so friendly and hospitable. 
+While getting ready Saturday morning, I found several strands of hair on the floor, in the corner by the tub. I figured with the shade of brown it was difficult to see but I figured housekeeping would have at least cleaned/mopped the floor when they refreshed the room. I came back later that day after the refresh and the hair was in the same spot....I spent last weekend at this property. The first thing that struck me is how friendly, polite and professional everyone is. Check in was quick and I'd requested some extra towels since it was three of us and they gave me fresh towels from the dryer so I wouldn't have to call.The room was standard for Residence Inn but fully updated with decor and appliances. The room was clean and refreshed and the bathroom also (so I thought, more on that later). The bed was super comfortable and I also opened the sofa bed and tried it out. It was remarkably comfortable also. I requested a room in the back of the property, away from 35 so I wouldn't have to deal with the noise. The rooms are all exterior doors but you must have key access to get into the parking lot. That extra level of security was appreciated. Breakfast was your standard breakfast - eggs, sausage, waffles, fruit, different breads and pastries. The breakfast attendant both morning was so friendly and hospitable. While getting ready Saturday morning, I found several strands of hair on the floor, in the corner by the tub. I figured with the shade of brown it was difficult to see but I figured housekeeping would have at least cleaned/mopped the floor when they refreshed the room. I came back later that day after the refresh and the hair was in the same spot. Housekeeping didn't do a good job on two occasions. Despite that, this is a great property and a good location if you need to be between downtown Dallas and NW Dallas. There are several restaurants just to the north and south of the hotel off I35.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r352507459-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>352507459</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheer competition </t>
+  </si>
+  <si>
+    <t>We have stayed in many different types of Marriott Hotels. This was the first time in a Residence Inn. Rooms were comfortable, clean and well stocked with toiletries. We really liked it because it had a full kitchen which was very convenient. It even had a many dishwasher.There was a fireplace which was a nice touch although we didn't use it.Check in and out was smooth. Front desk staff were extremely helpful with suggestions on restaurants, shopping, and attractions. They even printed out a map for us. Breakfast in the morning was delicious. They even had waffles shaped like the state of Texas. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Traci R, Assistant General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed in many different types of Marriott Hotels. This was the first time in a Residence Inn. Rooms were comfortable, clean and well stocked with toiletries. We really liked it because it had a full kitchen which was very convenient. It even had a many dishwasher.There was a fireplace which was a nice touch although we didn't use it.Check in and out was smooth. Front desk staff were extremely helpful with suggestions on restaurants, shopping, and attractions. They even printed out a map for us. Breakfast in the morning was delicious. They even had waffles shaped like the state of Texas. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r337007329-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>337007329</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Very positive experience</t>
+  </si>
+  <si>
+    <t>The property is well maintained and pet-friendly. The room is spacious and clean with new appliances. The staff are friendly, very accommodating and helpful. The only problem I encountered during multiple week-long stays at this hotel was noise from the highway during one stay but you can request room away from highway if you're a light sleeper. Breakfast is good and the lady in breakfast room greets you very cheerfully every morning, makes your dull work days a little better :) I think if they switch the breakfast menu around a little bit, that would be nice because I had the same food every morning for 8 days each stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>The property is well maintained and pet-friendly. The room is spacious and clean with new appliances. The staff are friendly, very accommodating and helpful. The only problem I encountered during multiple week-long stays at this hotel was noise from the highway during one stay but you can request room away from highway if you're a light sleeper. Breakfast is good and the lady in breakfast room greets you very cheerfully every morning, makes your dull work days a little better :) I think if they switch the breakfast menu around a little bit, that would be nice because I had the same food every morning for 8 days each stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r335974063-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>335974063</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Convenient location, great for pets and the whole family</t>
+  </si>
+  <si>
+    <t>We stayed here over the Thanksgiving holiday with our two dogs. I am a Marriott rewards member, and try to stay Residence Inn everytime I travel with my dogs. The room was clean and as expected with all Residence Inns. The perk to this location is that they do offer king size beds. The location of this place is convenient, but tricky to get to if you are coming from the opposite side of I35. The breakfast was good, but unfortunately they ran out 2 of the days I was there due to all of the people staying. The housekeepers only cleaned our room once when I asked her to (this might have been our fault, I'm unsure if it is serviced by request only). You can hear some traffic noise, but it wasn't overwhelming. We would definitely stay here again because of the king bed and location!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>We stayed here over the Thanksgiving holiday with our two dogs. I am a Marriott rewards member, and try to stay Residence Inn everytime I travel with my dogs. The room was clean and as expected with all Residence Inns. The perk to this location is that they do offer king size beds. The location of this place is convenient, but tricky to get to if you are coming from the opposite side of I35. The breakfast was good, but unfortunately they ran out 2 of the days I was there due to all of the people staying. The housekeepers only cleaned our room once when I asked her to (this might have been our fault, I'm unsure if it is serviced by request only). You can hear some traffic noise, but it wasn't overwhelming. We would definitely stay here again because of the king bed and location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r325531713-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>325531713</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>The friendlinest staff I have ever experienced in my years of travel. They went above and beyond every step of the way.</t>
+  </si>
+  <si>
+    <t>Great clean spacious room. Breakfast was different and wonderful every morning. The staff was the BEST. We stayed three nights and it was like leaving new friends. Will would use this location again if in the Dallas area.   THANKS to Caz, William, Tracy and Michelle for making our stay a true family friendly experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r324399166-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>324399166</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>The most positive aspect of our stay was the friendly, welcoming staff.  The manager circulated through the breakfast area each morning to greet guests, as well as ask if there were any problems to be addressed.  We had a problem with insect bites from our room stay the night before and she sent out the staff with insecticide right away.   There is standing water in close proximity to the property which is attractive to mosquitoes.  The property is also pet-friendly so we may have also been bitten by some fleas.  The bites subsided after the room was sprayed.  Although we weren't thrilled with the bites, the quick response by management was appreciated.   We were also given bonus Hilton Honors points for the inconvenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The most positive aspect of our stay was the friendly, welcoming staff.  The manager circulated through the breakfast area each morning to greet guests, as well as ask if there were any problems to be addressed.  We had a problem with insect bites from our room stay the night before and she sent out the staff with insecticide right away.   There is standing water in close proximity to the property which is attractive to mosquitoes.  The property is also pet-friendly so we may have also been bitten by some fleas.  The bites subsided after the room was sprayed.  Although we weren't thrilled with the bites, the quick response by management was appreciated.   We were also given bonus Hilton Honors points for the inconvenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r318382583-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>318382583</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>A Home Away from Home</t>
+  </si>
+  <si>
+    <t>I always choose the Residence Inn of all Marriott brands because of the convenience of a roomier accommodation, a kitchenette and a living room with a pull-out couch. But this one is tops! Everyone in the hotel are so friendly and would go out of their way to help you with your needs: from the front desk to the dining room attendants, to the guys who drive the shuttle, all the way to the cleaning people. They do it with a smile and grace that they make you feel so welcome, it is such a home away from home.  The place is pristine, clean without the nasty smell of cleaning supplies- I do not know how they do it. My room seems all brand new, the bathroom shower curtains even smell and feel like they just changed it the day I arrived. Since I am such a Marriott fan, I am hoping to have the same experience in my next travel- wherever that might be. Kudos to everyone in this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>I always choose the Residence Inn of all Marriott brands because of the convenience of a roomier accommodation, a kitchenette and a living room with a pull-out couch. But this one is tops! Everyone in the hotel are so friendly and would go out of their way to help you with your needs: from the front desk to the dining room attendants, to the guys who drive the shuttle, all the way to the cleaning people. They do it with a smile and grace that they make you feel so welcome, it is such a home away from home.  The place is pristine, clean without the nasty smell of cleaning supplies- I do not know how they do it. My room seems all brand new, the bathroom shower curtains even smell and feel like they just changed it the day I arrived. Since I am such a Marriott fan, I am hoping to have the same experience in my next travel- wherever that might be. Kudos to everyone in this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r304114905-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>304114905</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Family visit to Dallas TX</t>
+  </si>
+  <si>
+    <t>This is the typical Residence Inn, that is multi-buildings spread out. The hotel was clean and the staff was friendly and helpful. Biggest problem with this hotel is the surrounding area. This hotel is not in the best area, anything you may need (groceries, personal items, food, beverages) you should bring with you as there is not a lot in this area. You don't want to venture around this area at night. Pool was clean and well kept, breakfast was good. Breakfast staff was really the shining star for this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2015</t>
+  </si>
+  <si>
+    <t>This is the typical Residence Inn, that is multi-buildings spread out. The hotel was clean and the staff was friendly and helpful. Biggest problem with this hotel is the surrounding area. This hotel is not in the best area, anything you may need (groceries, personal items, food, beverages) you should bring with you as there is not a lot in this area. You don't want to venture around this area at night. Pool was clean and well kept, breakfast was good. Breakfast staff was really the shining star for this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r303832058-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>303832058</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Old Construction in so called Locality. Maintenance needs improvements</t>
+  </si>
+  <si>
+    <t>Just as every Residence Inn it is has all basic stuff.As soon as I got in half the utensils were missing. Had to ask them which was delivered quite late.Ants did trouble us a bit. Kitchen for a 1 Bedroom Suite was way too small.We asked for Dishwasher Liquid, answer was they don't have. Microwave bowls they don't have.We had to ask the Cleaners to refill our stocks like soap, shampoo each time, they never did it.In all other Marriotts, they give you extra so that you needn't ask them. Noise level is too High as it too near to highway and not sure there is  train station or not, but could hear loud sound of trains more than often.Only good thing is they do shuttle service to Downtown even though it is more than 5 milesMoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Just as every Residence Inn it is has all basic stuff.As soon as I got in half the utensils were missing. Had to ask them which was delivered quite late.Ants did trouble us a bit. Kitchen for a 1 Bedroom Suite was way too small.We asked for Dishwasher Liquid, answer was they don't have. Microwave bowls they don't have.We had to ask the Cleaners to refill our stocks like soap, shampoo each time, they never did it.In all other Marriotts, they give you extra so that you needn't ask them. Noise level is too High as it too near to highway and not sure there is  train station or not, but could hear loud sound of trains more than often.Only good thing is they do shuttle service to Downtown even though it is more than 5 milesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r302699220-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>302699220</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Went to visit family for a few days. Location wise it was close to the DFW Airport which was convenient. Parking lot was kind of small though. Room was great and spacious. Loved that there was a divider from the bedroom and living space and that there were 2 TV's instead of 1. Had a Jack &amp; Jill door for the bathroom which was nice. Ice machine in the freezer took awhile to produce ice, literally had to leave it on the entire stay so I had enough ice for drinks, no point in buying ice if there was an ice maker in the room. Breakfast set-up was organized and clean, breakfast attendant was sweet, kind and offered assistance with breakfast items. Front desk was helpful and loved that I was near the front desk and in the same building as breakfast. Top floor , near the elevator was convenient and loved that I didn't have any neighbors near me. A/C was on most of the time when I was in the room because TX heat is no joke. Had a huge window view of the pool area which was beautiful. Staff at the front desk were nice and friendly. In the room was a folder that was helpful if you're new to the area, things around you, how everything in the hotel works and if you needed anything front desk was always there to assist with my needs. Overall...Went to visit family for a few days. Location wise it was close to the DFW Airport which was convenient. Parking lot was kind of small though. Room was great and spacious. Loved that there was a divider from the bedroom and living space and that there were 2 TV's instead of 1. Had a Jack &amp; Jill door for the bathroom which was nice. Ice machine in the freezer took awhile to produce ice, literally had to leave it on the entire stay so I had enough ice for drinks, no point in buying ice if there was an ice maker in the room. Breakfast set-up was organized and clean, breakfast attendant was sweet, kind and offered assistance with breakfast items. Front desk was helpful and loved that I was near the front desk and in the same building as breakfast. Top floor , near the elevator was convenient and loved that I didn't have any neighbors near me. A/C was on most of the time when I was in the room because TX heat is no joke. Had a huge window view of the pool area which was beautiful. Staff at the front desk were nice and friendly. In the room was a folder that was helpful if you're new to the area, things around you, how everything in the hotel works and if you needed anything front desk was always there to assist with my needs. Overall a pleasant stay and I enjoyed every minute of it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Went to visit family for a few days. Location wise it was close to the DFW Airport which was convenient. Parking lot was kind of small though. Room was great and spacious. Loved that there was a divider from the bedroom and living space and that there were 2 TV's instead of 1. Had a Jack &amp; Jill door for the bathroom which was nice. Ice machine in the freezer took awhile to produce ice, literally had to leave it on the entire stay so I had enough ice for drinks, no point in buying ice if there was an ice maker in the room. Breakfast set-up was organized and clean, breakfast attendant was sweet, kind and offered assistance with breakfast items. Front desk was helpful and loved that I was near the front desk and in the same building as breakfast. Top floor , near the elevator was convenient and loved that I didn't have any neighbors near me. A/C was on most of the time when I was in the room because TX heat is no joke. Had a huge window view of the pool area which was beautiful. Staff at the front desk were nice and friendly. In the room was a folder that was helpful if you're new to the area, things around you, how everything in the hotel works and if you needed anything front desk was always there to assist with my needs. Overall...Went to visit family for a few days. Location wise it was close to the DFW Airport which was convenient. Parking lot was kind of small though. Room was great and spacious. Loved that there was a divider from the bedroom and living space and that there were 2 TV's instead of 1. Had a Jack &amp; Jill door for the bathroom which was nice. Ice machine in the freezer took awhile to produce ice, literally had to leave it on the entire stay so I had enough ice for drinks, no point in buying ice if there was an ice maker in the room. Breakfast set-up was organized and clean, breakfast attendant was sweet, kind and offered assistance with breakfast items. Front desk was helpful and loved that I was near the front desk and in the same building as breakfast. Top floor , near the elevator was convenient and loved that I didn't have any neighbors near me. A/C was on most of the time when I was in the room because TX heat is no joke. Had a huge window view of the pool area which was beautiful. Staff at the front desk were nice and friendly. In the room was a folder that was helpful if you're new to the area, things around you, how everything in the hotel works and if you needed anything front desk was always there to assist with my needs. Overall a pleasant stay and I enjoyed every minute of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r301636068-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>301636068</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>BEST EXPERIENCE EVER!!</t>
+  </si>
+  <si>
+    <t>I was excited to find this hotel with a full kitchen and separate living/bedroom with a pull out couch. Then, I read some not so awesome reviews right before our trip and was worried. Let me tell you...they are either out of date or bogus! This has been an over the top spectacular experience for my family. Monday-Wednesday I was surprised by a free dinner/drinks that really cut down on costs for us, as well as added a little extra flare to the stay. The breakfasts are different every day and delicious!!  BUT, none of that compares to the outstanding customer service by all the staff, ranging from bringing fresh warm towels to my littles after a chilly morning swim to running to get bandages and ointment for one of mine who scrapes his knees on the parking lot after a fall, to simply asking what else they can do for us all the time. I feel like these people are family now. My kids keep calling the hotel "home." Lol needless to say, we'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was excited to find this hotel with a full kitchen and separate living/bedroom with a pull out couch. Then, I read some not so awesome reviews right before our trip and was worried. Let me tell you...they are either out of date or bogus! This has been an over the top spectacular experience for my family. Monday-Wednesday I was surprised by a free dinner/drinks that really cut down on costs for us, as well as added a little extra flare to the stay. The breakfasts are different every day and delicious!!  BUT, none of that compares to the outstanding customer service by all the staff, ranging from bringing fresh warm towels to my littles after a chilly morning swim to running to get bandages and ointment for one of mine who scrapes his knees on the parking lot after a fall, to simply asking what else they can do for us all the time. I feel like these people are family now. My kids keep calling the hotel "home." Lol needless to say, we'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r298970864-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>298970864</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Impressive customer service</t>
+  </si>
+  <si>
+    <t>My husband was in town for a business trip and our 13-month-old twins and I tagged along to visit family.  We had requested 2 cribs in our reservation, and the staff upgraded us to a two bedroom unit to make sure we had enough room.  The set up was perfect for us.  We could put the girls down in their own room and still be up in the living area and other bedroom with the lights and TV without waking them.  The fridge and dishwasher were great for food and washing bottles and sippy cups.  I often had the girls by myself at breakfast, and a staff person would often entertain them so I could get us food.  One day I forgot to take the "do not disturb" sign off of the door.  I remembered late in the day and called to let them know.  Even though it was late, someone from housekeeping promptly cleaned our room.  The only negatives about the hotel were it was a strange part of town (which doesn't really matter if you have a car) and the wifi was spotty.  This hotel very much met our needs as a family with young kids, and I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband was in town for a business trip and our 13-month-old twins and I tagged along to visit family.  We had requested 2 cribs in our reservation, and the staff upgraded us to a two bedroom unit to make sure we had enough room.  The set up was perfect for us.  We could put the girls down in their own room and still be up in the living area and other bedroom with the lights and TV without waking them.  The fridge and dishwasher were great for food and washing bottles and sippy cups.  I often had the girls by myself at breakfast, and a staff person would often entertain them so I could get us food.  One day I forgot to take the "do not disturb" sign off of the door.  I remembered late in the day and called to let them know.  Even though it was late, someone from housekeeping promptly cleaned our room.  The only negatives about the hotel were it was a strange part of town (which doesn't really matter if you have a car) and the wifi was spotty.  This hotel very much met our needs as a family with young kids, and I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r297276844-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>297276844</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Stayed for 10 Weeks, was Sad to Leave</t>
+  </si>
+  <si>
+    <t>I was in Texas for an internship this summer, and greatly enjoyed my stay. The staff were incredibly friendly (despite there being a lot of guests present at the time of my stay, they still were able to address me by name shortly after my arrival), and were very attentive to any requests or suggestions. Air conditioning worked great, bed was comfortable, and the amenities were solid (a full fridge, standard array of pots/pans/silverware, stove, microwave, and dishwasher make cooking a breeze - there wasn't an oven, but it's not hard to work around that). 
+Lots of services like grocery store trips (or a "Fill My Fridge" service where they shop for you!) are available and very convenient. Gym is a little small, but the equipment they do have is very well kept, up-to-date, and clean. Lovely pool area with grills you can use and a half-basketball court are nice touches for evening entertainment too. 
+During my stay I ran into two issues: my ceiling leaked at one point, and I ended up with a roach in my room on one occasion. The hotel staff was VERY attentive to these issues and had the leak fixed and sprayed for insects shortly after both complaints. Also, it can be tough to get around without a car because the hotel isn't within walking distance of any real restaurants or other venues, but during the day you can sign up for a shuttle...I was in Texas for an internship this summer, and greatly enjoyed my stay. The staff were incredibly friendly (despite there being a lot of guests present at the time of my stay, they still were able to address me by name shortly after my arrival), and were very attentive to any requests or suggestions. Air conditioning worked great, bed was comfortable, and the amenities were solid (a full fridge, standard array of pots/pans/silverware, stove, microwave, and dishwasher make cooking a breeze - there wasn't an oven, but it's not hard to work around that). Lots of services like grocery store trips (or a "Fill My Fridge" service where they shop for you!) are available and very convenient. Gym is a little small, but the equipment they do have is very well kept, up-to-date, and clean. Lovely pool area with grills you can use and a half-basketball court are nice touches for evening entertainment too. During my stay I ran into two issues: my ceiling leaked at one point, and I ended up with a roach in my room on one occasion. The hotel staff was VERY attentive to these issues and had the leak fixed and sprayed for insects shortly after both complaints. Also, it can be tough to get around without a car because the hotel isn't within walking distance of any real restaurants or other venues, but during the day you can sign up for a shuttle to take you anywhere you need to go within 5 miles of the hotel - the van drivers are very friendly and are more than willing to help you figure out how to get to anywhere you need to go.Great stay overall - if I'm ever in the area and need a place to stay for an extended visit again, I know who to call.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I was in Texas for an internship this summer, and greatly enjoyed my stay. The staff were incredibly friendly (despite there being a lot of guests present at the time of my stay, they still were able to address me by name shortly after my arrival), and were very attentive to any requests or suggestions. Air conditioning worked great, bed was comfortable, and the amenities were solid (a full fridge, standard array of pots/pans/silverware, stove, microwave, and dishwasher make cooking a breeze - there wasn't an oven, but it's not hard to work around that). 
+Lots of services like grocery store trips (or a "Fill My Fridge" service where they shop for you!) are available and very convenient. Gym is a little small, but the equipment they do have is very well kept, up-to-date, and clean. Lovely pool area with grills you can use and a half-basketball court are nice touches for evening entertainment too. 
+During my stay I ran into two issues: my ceiling leaked at one point, and I ended up with a roach in my room on one occasion. The hotel staff was VERY attentive to these issues and had the leak fixed and sprayed for insects shortly after both complaints. Also, it can be tough to get around without a car because the hotel isn't within walking distance of any real restaurants or other venues, but during the day you can sign up for a shuttle...I was in Texas for an internship this summer, and greatly enjoyed my stay. The staff were incredibly friendly (despite there being a lot of guests present at the time of my stay, they still were able to address me by name shortly after my arrival), and were very attentive to any requests or suggestions. Air conditioning worked great, bed was comfortable, and the amenities were solid (a full fridge, standard array of pots/pans/silverware, stove, microwave, and dishwasher make cooking a breeze - there wasn't an oven, but it's not hard to work around that). Lots of services like grocery store trips (or a "Fill My Fridge" service where they shop for you!) are available and very convenient. Gym is a little small, but the equipment they do have is very well kept, up-to-date, and clean. Lovely pool area with grills you can use and a half-basketball court are nice touches for evening entertainment too. During my stay I ran into two issues: my ceiling leaked at one point, and I ended up with a roach in my room on one occasion. The hotel staff was VERY attentive to these issues and had the leak fixed and sprayed for insects shortly after both complaints. Also, it can be tough to get around without a car because the hotel isn't within walking distance of any real restaurants or other venues, but during the day you can sign up for a shuttle to take you anywhere you need to go within 5 miles of the hotel - the van drivers are very friendly and are more than willing to help you figure out how to get to anywhere you need to go.Great stay overall - if I'm ever in the area and need a place to stay for an extended visit again, I know who to call.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r292022900-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>292022900</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>First, the hotel is more like a motel. The rooms are extremely noisy. Thin walls and windows. Every time someone walks by or closes a door you can here it. Also, it is right next to the highway that also creates a constant noise. Second, the hotel is not close to anything. No restaurants are within walking and the hotel does not have room service. There is no bar and the only option for food is the snack bar at the front desk or delivery. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded July 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2015</t>
+  </si>
+  <si>
+    <t>First, the hotel is more like a motel. The rooms are extremely noisy. Thin walls and windows. Every time someone walks by or closes a door you can here it. Also, it is right next to the highway that also creates a constant noise. Second, the hotel is not close to anything. No restaurants are within walking and the hotel does not have room service. There is no bar and the only option for food is the snack bar at the front desk or delivery. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r283689338-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>283689338</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Would stay again ... only if not spending a lot of time in the room</t>
+  </si>
+  <si>
+    <t>My family of five stayed here for four days while our son was in a debate tournament downtown. We had a two bedroom - each with a queen bed - and a pull out sofa. First, the staff is very nice and accommodating. Second, the room itself was very clean and a good size. Third, the location is only about a 5-10 minute drive to downtown. Those are the up sides. Down sides ... one of the bathrooms is VERY small. I mean SMALL. I have seen showers in motorhomes larger. And that is the truth. The other bathroom is a good size. The area is RIGHT off the freeway. The doors open to the outside - I am thinking this was an apartment complex? The grounds are all right, not exactly becoming. That's my balanced review. Just meh.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>My family of five stayed here for four days while our son was in a debate tournament downtown. We had a two bedroom - each with a queen bed - and a pull out sofa. First, the staff is very nice and accommodating. Second, the room itself was very clean and a good size. Third, the location is only about a 5-10 minute drive to downtown. Those are the up sides. Down sides ... one of the bathrooms is VERY small. I mean SMALL. I have seen showers in motorhomes larger. And that is the truth. The other bathroom is a good size. The area is RIGHT off the freeway. The doors open to the outside - I am thinking this was an apartment complex? The grounds are all right, not exactly becoming. That's my balanced review. Just meh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r277737621-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>277737621</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Stay only after the renovations are completed</t>
+  </si>
+  <si>
+    <t>This property is being renovated and hopefully it will be a nicer place than we encountered. The rooms were on the small side and quite dark and dingy. Because of the renovations, facilities like the breakfast area and gym were quite rudimentary. The staff were all polite and helpful. You need a car to get to any dining facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>This property is being renovated and hopefully it will be a nicer place than we encountered. The rooms were on the small side and quite dark and dingy. Because of the renovations, facilities like the breakfast area and gym were quite rudimentary. The staff were all polite and helpful. You need a car to get to any dining facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r268419620-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>268419620</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Under much needed renovation</t>
+  </si>
+  <si>
+    <t>I usually really like Residence Inns, but this particular property was under renovation when we stayed there. The room had a large comfortable king bed, but our friend who slept on the pullout couch found the mattress to be rather gross. We had to call the front desk twice to have them deliver proper sheets and bedding for it because the room only had a very thin piece of fabric (twin size - that I'm assuming was supposed to be a mattress cover), thin fleeece blanket, and one small smashed pillow, without any sheets. The breakfast was better than your average hotel breakfast, but due to the renovations it was hosted in a hotel room that had all the furniture removed to make room for tables, chairs, and the buffet. This was how the makeshift fitness center and "lobby" was handled as well. 
+I'm fairly certain that after the renovations are complete that this hotel will have the facelift it needs. However, it is a strange Residence Inn considering it is almost like a motel given the fact that all the doors to the rooms are exposed to outdoors. The only difference in "security" is that there is a retractable barrier that requires a room key to gain access to the parking lot. However, anyone can just walk around and gain access to the hotel hallways in any of the buildings by claiming stairs or taking an elevator. 
+Additionally, the...I usually really like Residence Inns, but this particular property was under renovation when we stayed there. The room had a large comfortable king bed, but our friend who slept on the pullout couch found the mattress to be rather gross. We had to call the front desk twice to have them deliver proper sheets and bedding for it because the room only had a very thin piece of fabric (twin size - that I'm assuming was supposed to be a mattress cover), thin fleeece blanket, and one small smashed pillow, without any sheets. The breakfast was better than your average hotel breakfast, but due to the renovations it was hosted in a hotel room that had all the furniture removed to make room for tables, chairs, and the buffet. This was how the makeshift fitness center and "lobby" was handled as well. I'm fairly certain that after the renovations are complete that this hotel will have the facelift it needs. However, it is a strange Residence Inn considering it is almost like a motel given the fact that all the doors to the rooms are exposed to outdoors. The only difference in "security" is that there is a retractable barrier that requires a room key to gain access to the parking lot. However, anyone can just walk around and gain access to the hotel hallways in any of the buildings by claiming stairs or taking an elevator. Additionally, the prices for the night we stayed was still around $160 per night, which I find interesting given that the hotel isn't running at its 100% best right now. However, we only chose to stay there because we managed to book a 10,000 point award night. The staff did recognize my husband's Marriott Gold status by delivering a snack to him in the room after we checked-in.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2015</t>
+  </si>
+  <si>
+    <t>I usually really like Residence Inns, but this particular property was under renovation when we stayed there. The room had a large comfortable king bed, but our friend who slept on the pullout couch found the mattress to be rather gross. We had to call the front desk twice to have them deliver proper sheets and bedding for it because the room only had a very thin piece of fabric (twin size - that I'm assuming was supposed to be a mattress cover), thin fleeece blanket, and one small smashed pillow, without any sheets. The breakfast was better than your average hotel breakfast, but due to the renovations it was hosted in a hotel room that had all the furniture removed to make room for tables, chairs, and the buffet. This was how the makeshift fitness center and "lobby" was handled as well. 
+I'm fairly certain that after the renovations are complete that this hotel will have the facelift it needs. However, it is a strange Residence Inn considering it is almost like a motel given the fact that all the doors to the rooms are exposed to outdoors. The only difference in "security" is that there is a retractable barrier that requires a room key to gain access to the parking lot. However, anyone can just walk around and gain access to the hotel hallways in any of the buildings by claiming stairs or taking an elevator. 
+Additionally, the...I usually really like Residence Inns, but this particular property was under renovation when we stayed there. The room had a large comfortable king bed, but our friend who slept on the pullout couch found the mattress to be rather gross. We had to call the front desk twice to have them deliver proper sheets and bedding for it because the room only had a very thin piece of fabric (twin size - that I'm assuming was supposed to be a mattress cover), thin fleeece blanket, and one small smashed pillow, without any sheets. The breakfast was better than your average hotel breakfast, but due to the renovations it was hosted in a hotel room that had all the furniture removed to make room for tables, chairs, and the buffet. This was how the makeshift fitness center and "lobby" was handled as well. I'm fairly certain that after the renovations are complete that this hotel will have the facelift it needs. However, it is a strange Residence Inn considering it is almost like a motel given the fact that all the doors to the rooms are exposed to outdoors. The only difference in "security" is that there is a retractable barrier that requires a room key to gain access to the parking lot. However, anyone can just walk around and gain access to the hotel hallways in any of the buildings by claiming stairs or taking an elevator. Additionally, the prices for the night we stayed was still around $160 per night, which I find interesting given that the hotel isn't running at its 100% best right now. However, we only chose to stay there because we managed to book a 10,000 point award night. The staff did recognize my husband's Marriott Gold status by delivering a snack to him in the room after we checked-in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r267761939-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>267761939</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>The hotel has great specious renovated suites equipped with a full kitchen and utensils. The staff from the lobby where super nice and helpful. The hotel is currently going through renovations so the lobby and breakfast areas are in a room and so is the gym. The only thing that upset me was that the hotel doesn't have any dining options for lunch and dinner. The closest thing was fast food about a 20 minute walk away and the shuttle doesn't operate on the weekends. Besides that the hotel has a good homey feeling and the staff takes good care of you. It is also really close to Love airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel has great specious renovated suites equipped with a full kitchen and utensils. The staff from the lobby where super nice and helpful. The hotel is currently going through renovations so the lobby and breakfast areas are in a room and so is the gym. The only thing that upset me was that the hotel doesn't have any dining options for lunch and dinner. The closest thing was fast food about a 20 minute walk away and the shuttle doesn't operate on the weekends. Besides that the hotel has a good homey feeling and the staff takes good care of you. It is also really close to Love airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r263993712-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>263993712</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>My daughters and I stayed at this hotel on a getaway to Dallas to celebrate my 75th birthday. Best service I have experienced in any hotel. All staff members were very courteous and went out of their way to make our stay special.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Traci R, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>My daughters and I stayed at this hotel on a getaway to Dallas to celebrate my 75th birthday. Best service I have experienced in any hotel. All staff members were very courteous and went out of their way to make our stay special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r255876151-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>255876151</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>a Jewel in the heart of Dallas</t>
+  </si>
+  <si>
+    <t>After reading a few reviews i was really mixed about staying here. I booked this through name your own price through priceline at nearly half of the cost of booking through the company. Upon arrival the staff was very nice and i was checked in within minutes. One this property is security gated which was very nice. parking was close but they did have traffic cones in alot of the spaces which was a pain at first but i manged to get a parking spot close. The room i had was a king suit and i was highly impressed it is older but very well keep. Very clean and very stocked and made me fill like i was home . The bed was very conformable and the tv's were a nice feature. The internet was super fast and i was highly impressed. Overall stay here if you can it close to the hospitals and love field and i highly recommend this hotel . Also for those who want to know the incidental charge it was only 20 bucks not bad when most charge 100. I hope to get to stay here again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>After reading a few reviews i was really mixed about staying here. I booked this through name your own price through priceline at nearly half of the cost of booking through the company. Upon arrival the staff was very nice and i was checked in within minutes. One this property is security gated which was very nice. parking was close but they did have traffic cones in alot of the spaces which was a pain at first but i manged to get a parking spot close. The room i had was a king suit and i was highly impressed it is older but very well keep. Very clean and very stocked and made me fill like i was home . The bed was very conformable and the tv's were a nice feature. The internet was super fast and i was highly impressed. Overall stay here if you can it close to the hospitals and love field and i highly recommend this hotel . Also for those who want to know the incidental charge it was only 20 bucks not bad when most charge 100. I hope to get to stay here again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r254661521-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>254661521</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Well past it's prime</t>
+  </si>
+  <si>
+    <t>This Residence Inn is one of the old style properties with separate 'blocks' of rooms. I stay at Marriots whenever I can for business and pleasure so when I booked a 2 bed suite for the family at $250/night I expected the usual spacious accommodation. Well, not here! The rooms are tiny compared to the newer ones (the 2nd bed bath was diminutive) and felt very cramped with 2 teenagers and 2 adults. The fitting and fixtures have been partially updated but not completely, so it still felt dated and dingy.On the plus side, the staff were very pleasant and the breakfast was better than others I've stayed at. Parking was free (as usual) but limited (some was blocked off for no apparent reason). Neighborhood was definitely not the best either. Overall, not good value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>This Residence Inn is one of the old style properties with separate 'blocks' of rooms. I stay at Marriots whenever I can for business and pleasure so when I booked a 2 bed suite for the family at $250/night I expected the usual spacious accommodation. Well, not here! The rooms are tiny compared to the newer ones (the 2nd bed bath was diminutive) and felt very cramped with 2 teenagers and 2 adults. The fitting and fixtures have been partially updated but not completely, so it still felt dated and dingy.On the plus side, the staff were very pleasant and the breakfast was better than others I've stayed at. Parking was free (as usual) but limited (some was blocked off for no apparent reason). Neighborhood was definitely not the best either. Overall, not good value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r252510861-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>252510861</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Great place, great staff!</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights, at first from outside it doesn't look all that fancy but once inside it was truly a great place. The lady at the front desk upgraded me to a quaint little suite at no extra cost, it was HUGE! A dining table, living area, separate bedroom...everything neat and tidy. They had breakfast &amp; happy hour with beer/wine &amp; simple dinner menu. I tried going back again later but the prices had gone up :-(The only issue I used to have was to get to the side road from the highway during evening peak traffic, had to go around a couple of times. Not sure about long term stay, but for a couple of days business trip it's perfect for those not having time to go out to check the Dallas nightlife.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights, at first from outside it doesn't look all that fancy but once inside it was truly a great place. The lady at the front desk upgraded me to a quaint little suite at no extra cost, it was HUGE! A dining table, living area, separate bedroom...everything neat and tidy. They had breakfast &amp; happy hour with beer/wine &amp; simple dinner menu. I tried going back again later but the prices had gone up :-(The only issue I used to have was to get to the side road from the highway during evening peak traffic, had to go around a couple of times. Not sure about long term stay, but for a couple of days business trip it's perfect for those not having time to go out to check the Dallas nightlife.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r250439024-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>250439024</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>This is an older property however staff makes-up for it. Everyone is helpful, smiling, and accommodating. Despite our early arrival,  they checked us in and upgraded to a suite at the same time. We stayed 4 days, and the location worked good for us. Yes, the location is no "Highland Park", it is close to Market Center, Love Field, etc, and in the center of a few attractions (Zoo, Lego Disc. Center)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>This is an older property however staff makes-up for it. Everyone is helpful, smiling, and accommodating. Despite our early arrival,  they checked us in and upgraded to a suite at the same time. We stayed 4 days, and the location worked good for us. Yes, the location is no "Highland Park", it is close to Market Center, Love Field, etc, and in the center of a few attractions (Zoo, Lego Disc. Center)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r249926069-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>249926069</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Semi-close to Love Airfield</t>
+  </si>
+  <si>
+    <t>I am a Marriott rewards member, so I look for Marriott hotels.  I have started flying Southwest, so wanted to find a Marriott hotel close to Love Airfield.  For the weekend price, this is what I found.  On the short-cut description, it stated that there was a shuttle to the airport.  So when I arrived at the hotel, I asked about the shuttle, as I would be flying out the next morning.  I was informed that there was no shuttle on weekends by the front desk.   I went to my room and drilled down.  Sure enough, if I would have drilled down, I would have found that there is no shuttle on the weekends.  The description also said that a taxi would cost about $40 one way to the airport.  
+The room itself was fine, and the fireplace was a nice touch.  It was brutal cold outside.  The downside of the Residence Inn is that you have to go outside the gatehouse to get to the living quarters.  When the weather is nice, no problem, when the wind is a humid cutting force, not so much fun.  
+I hopped a cab back to the airport and it was only $10, probably because it was a quiet Sunday with no traffic.  My cabbie was a talkative guy who was Polish who was a tennis coach and drove on the weekends to make ends.  All in all, a good place.  However, no...I am a Marriott rewards member, so I look for Marriott hotels.  I have started flying Southwest, so wanted to find a Marriott hotel close to Love Airfield.  For the weekend price, this is what I found.  On the short-cut description, it stated that there was a shuttle to the airport.  So when I arrived at the hotel, I asked about the shuttle, as I would be flying out the next morning.  I was informed that there was no shuttle on weekends by the front desk.   I went to my room and drilled down.  Sure enough, if I would have drilled down, I would have found that there is no shuttle on the weekends.  The description also said that a taxi would cost about $40 one way to the airport.  The room itself was fine, and the fireplace was a nice touch.  It was brutal cold outside.  The downside of the Residence Inn is that you have to go outside the gatehouse to get to the living quarters.  When the weather is nice, no problem, when the wind is a humid cutting force, not so much fun.  I hopped a cab back to the airport and it was only $10, probably because it was a quiet Sunday with no traffic.  My cabbie was a talkative guy who was Polish who was a tennis coach and drove on the weekends to make ends.  All in all, a good place.  However, no shuttle on the weekend.  On future flights into Love Airfield, I will stay at the Wyndam which is just off the airfield complex.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>I am a Marriott rewards member, so I look for Marriott hotels.  I have started flying Southwest, so wanted to find a Marriott hotel close to Love Airfield.  For the weekend price, this is what I found.  On the short-cut description, it stated that there was a shuttle to the airport.  So when I arrived at the hotel, I asked about the shuttle, as I would be flying out the next morning.  I was informed that there was no shuttle on weekends by the front desk.   I went to my room and drilled down.  Sure enough, if I would have drilled down, I would have found that there is no shuttle on the weekends.  The description also said that a taxi would cost about $40 one way to the airport.  
+The room itself was fine, and the fireplace was a nice touch.  It was brutal cold outside.  The downside of the Residence Inn is that you have to go outside the gatehouse to get to the living quarters.  When the weather is nice, no problem, when the wind is a humid cutting force, not so much fun.  
+I hopped a cab back to the airport and it was only $10, probably because it was a quiet Sunday with no traffic.  My cabbie was a talkative guy who was Polish who was a tennis coach and drove on the weekends to make ends.  All in all, a good place.  However, no...I am a Marriott rewards member, so I look for Marriott hotels.  I have started flying Southwest, so wanted to find a Marriott hotel close to Love Airfield.  For the weekend price, this is what I found.  On the short-cut description, it stated that there was a shuttle to the airport.  So when I arrived at the hotel, I asked about the shuttle, as I would be flying out the next morning.  I was informed that there was no shuttle on weekends by the front desk.   I went to my room and drilled down.  Sure enough, if I would have drilled down, I would have found that there is no shuttle on the weekends.  The description also said that a taxi would cost about $40 one way to the airport.  The room itself was fine, and the fireplace was a nice touch.  It was brutal cold outside.  The downside of the Residence Inn is that you have to go outside the gatehouse to get to the living quarters.  When the weather is nice, no problem, when the wind is a humid cutting force, not so much fun.  I hopped a cab back to the airport and it was only $10, probably because it was a quiet Sunday with no traffic.  My cabbie was a talkative guy who was Polish who was a tennis coach and drove on the weekends to make ends.  All in all, a good place.  However, no shuttle on the weekend.  On future flights into Love Airfield, I will stay at the Wyndam which is just off the airfield complex.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r248173543-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>248173543</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Decent place</t>
+  </si>
+  <si>
+    <t>Decent place with Decent Service! Needs more parking!Nice selection for breakfast with tons of choices! The rooms are nice and clean and comfie! I would recommend you trying this hotel if you are looking for a place in Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded January 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2015</t>
+  </si>
+  <si>
+    <t>Decent place with Decent Service! Needs more parking!Nice selection for breakfast with tons of choices! The rooms are nice and clean and comfie! I would recommend you trying this hotel if you are looking for a place in Dallas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r242532749-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>242532749</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Great place for business</t>
+  </si>
+  <si>
+    <t>I frequent Dallas and usually for long stays.  This hotel is in a great location and they have professional and courteous staff.  I am able to get on and off the freeway quickly and it has a lot of dining options.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded December 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2014</t>
+  </si>
+  <si>
+    <t>I frequent Dallas and usually for long stays.  This hotel is in a great location and they have professional and courteous staff.  I am able to get on and off the freeway quickly and it has a lot of dining options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r242495718-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>242495718</t>
+  </si>
+  <si>
+    <t>Nice Hotel and Staff</t>
+  </si>
+  <si>
+    <t>My family recently stayed for two nights at this Residence Inn. As a Residence Inn the property is quite consistent and familiar with other Residence Inns. Everything was very clean, organized, and tidy. Our room was pleasant and the bed was very comfortable. The breakfast area is open and inviting, and in my judgment the quality and selection of food at breakfast were above average. The lady taking care of breakfast, Aurelia (sp?), was just outstanding keeping everything fresh and replenished even with a large crowd. I was very impressed with how focused and attentive she was on doing a good job. The reception staff were all just great as well, and they were particularly concerned and helpful after we had a problem with our car in the parking lot after our first night. The location is convenient to the medical district and lots of restaurants. Downtown is just a short drive. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family recently stayed for two nights at this Residence Inn. As a Residence Inn the property is quite consistent and familiar with other Residence Inns. Everything was very clean, organized, and tidy. Our room was pleasant and the bed was very comfortable. The breakfast area is open and inviting, and in my judgment the quality and selection of food at breakfast were above average. The lady taking care of breakfast, Aurelia (sp?), was just outstanding keeping everything fresh and replenished even with a large crowd. I was very impressed with how focused and attentive she was on doing a good job. The reception staff were all just great as well, and they were particularly concerned and helpful after we had a problem with our car in the parking lot after our first night. The location is convenient to the medical district and lots of restaurants. Downtown is just a short drive. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r240158250-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>240158250</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Nothing Special</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights when Dallas was having a cold snap weatherwise.  We were glad the heater worked in our room.  Nice room, much like a studio apartment, small kitchen, living room area, bedroom and bathroom.  We didn't receive coffee the second day or enough washcloths so we had to ask the front desk for those items.  Also, its assumed you will put the dishes you used in the dishwasher and run it during your stay.  This is what I did when I noticed they were not replaced.  As other reviewers have said it is not located in the best neighborhood and you do need a car to get around. If you are sensitive to outside noise, ask for a room facing the pool or away from the freeway.  Also, free breakfast and evening snack though very nice beware of those taking advantage.   Staff was attentive and helpful and provided us with a free log for our fireplace.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, Front Office Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights when Dallas was having a cold snap weatherwise.  We were glad the heater worked in our room.  Nice room, much like a studio apartment, small kitchen, living room area, bedroom and bathroom.  We didn't receive coffee the second day or enough washcloths so we had to ask the front desk for those items.  Also, its assumed you will put the dishes you used in the dishwasher and run it during your stay.  This is what I did when I noticed they were not replaced.  As other reviewers have said it is not located in the best neighborhood and you do need a car to get around. If you are sensitive to outside noise, ask for a room facing the pool or away from the freeway.  Also, free breakfast and evening snack though very nice beware of those taking advantage.   Staff was attentive and helpful and provided us with a free log for our fireplace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r237557262-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>237557262</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Lots of good- but some bad.</t>
+  </si>
+  <si>
+    <t>I stayed here for a weekend in September. The good- big room, best continental breakfast I've ever had at a hotel, very friendly staff. The gym also looked great. I was bummed because I picked the hotel for the free shuttle service. I even called and spoke with someone and they confirmed it was not too good to be true. Unfortunately, it is not offered on the weekends. This place would be perfect to stay during the week- free breakfast and dinner, a shuttle downtown, etc. First, we were put in a room that smelled moldy and then the toilet overflowed- which means the toilet must have been leaking for a while. They were polite about it and got us set up in a new room that smelled much better. We also booked a second room for a relative and hers was nice, too. Overall, I recommend it and I would stay here again. It's a good bargain- but as another reviewer said, you need a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a weekend in September. The good- big room, best continental breakfast I've ever had at a hotel, very friendly staff. The gym also looked great. I was bummed because I picked the hotel for the free shuttle service. I even called and spoke with someone and they confirmed it was not too good to be true. Unfortunately, it is not offered on the weekends. This place would be perfect to stay during the week- free breakfast and dinner, a shuttle downtown, etc. First, we were put in a room that smelled moldy and then the toilet overflowed- which means the toilet must have been leaking for a while. They were polite about it and got us set up in a new room that smelled much better. We also booked a second room for a relative and hers was nice, too. Overall, I recommend it and I would stay here again. It's a good bargain- but as another reviewer said, you need a car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r237153398-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>237153398</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Stayed here around Halloween…and it was downright scary</t>
+  </si>
+  <si>
+    <t>First off, I’d like to say that the staff here was friendly and accommodating. But that’s about the only positive with my experience.
+You generally know what you’re getting with a Residence Inn. That’s why I stay at them frequently. I had never experienced anything like this one before. Inside the hotel it’s dated and dirty. Outside the hotel room it’s run down and pure ghetto.
+Many hotels are close to a freeway or interstate. This one is no exception. The difference: it’s like right there, right outside my window. It was very difficult to sleep at night due to the traffic. Moreover, sirens seemed to be going off constantly. I’ve attached a photo to show how close the freeway really is, and you can see an emergency vehicle with its lights and sirens blaring.
+I tried to go outside for a walk yesterday. Bad idea! Cop cars everywhere and the neighborhood didn’t seem very safe. I’m not sure what a Residence Inn is doing in this area, anyway. Seems like it needs to be torn down and built somewhere completely different.
+The inside of the room and the whole property are incredibly dated and dirty. Here are a few examples.
+See attached photo of a TV in the bedroom. It’s so small—basically the size of an average computer monitor. I haven’t seen a TV that small in a hotel room since the ‘80s.
+Another attached photo is of the...First off, I’d like to say that the staff here was friendly and accommodating. But that’s about the only positive with my experience.You generally know what you’re getting with a Residence Inn. That’s why I stay at them frequently. I had never experienced anything like this one before. Inside the hotel it’s dated and dirty. Outside the hotel room it’s run down and pure ghetto.Many hotels are close to a freeway or interstate. This one is no exception. The difference: it’s like right there, right outside my window. It was very difficult to sleep at night due to the traffic. Moreover, sirens seemed to be going off constantly. I’ve attached a photo to show how close the freeway really is, and you can see an emergency vehicle with its lights and sirens blaring.I tried to go outside for a walk yesterday. Bad idea! Cop cars everywhere and the neighborhood didn’t seem very safe. I’m not sure what a Residence Inn is doing in this area, anyway. Seems like it needs to be torn down and built somewhere completely different.The inside of the room and the whole property are incredibly dated and dirty. Here are a few examples.See attached photo of a TV in the bedroom. It’s so small—basically the size of an average computer monitor. I haven’t seen a TV that small in a hotel room since the ‘80s.Another attached photo is of the pillow case. Looks like there’s either blood or pizza sauce on it. I’m not sure which one, and I probably don’t want to know.Another attached photo shows just one area (the vent by the kitchen) and how dusty/dirty it is.These are just a few examples. Overall, I’m very disappointed and would never even consider staying here again. The worst part is, I traveled with some co-workers who are staying at a Homewood Suites down the road. I’m a Marriott guy so I went out of my way to stay here. Their hotel ended up being MUCH nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>First off, I’d like to say that the staff here was friendly and accommodating. But that’s about the only positive with my experience.
+You generally know what you’re getting with a Residence Inn. That’s why I stay at them frequently. I had never experienced anything like this one before. Inside the hotel it’s dated and dirty. Outside the hotel room it’s run down and pure ghetto.
+Many hotels are close to a freeway or interstate. This one is no exception. The difference: it’s like right there, right outside my window. It was very difficult to sleep at night due to the traffic. Moreover, sirens seemed to be going off constantly. I’ve attached a photo to show how close the freeway really is, and you can see an emergency vehicle with its lights and sirens blaring.
+I tried to go outside for a walk yesterday. Bad idea! Cop cars everywhere and the neighborhood didn’t seem very safe. I’m not sure what a Residence Inn is doing in this area, anyway. Seems like it needs to be torn down and built somewhere completely different.
+The inside of the room and the whole property are incredibly dated and dirty. Here are a few examples.
+See attached photo of a TV in the bedroom. It’s so small—basically the size of an average computer monitor. I haven’t seen a TV that small in a hotel room since the ‘80s.
+Another attached photo is of the...First off, I’d like to say that the staff here was friendly and accommodating. But that’s about the only positive with my experience.You generally know what you’re getting with a Residence Inn. That’s why I stay at them frequently. I had never experienced anything like this one before. Inside the hotel it’s dated and dirty. Outside the hotel room it’s run down and pure ghetto.Many hotels are close to a freeway or interstate. This one is no exception. The difference: it’s like right there, right outside my window. It was very difficult to sleep at night due to the traffic. Moreover, sirens seemed to be going off constantly. I’ve attached a photo to show how close the freeway really is, and you can see an emergency vehicle with its lights and sirens blaring.I tried to go outside for a walk yesterday. Bad idea! Cop cars everywhere and the neighborhood didn’t seem very safe. I’m not sure what a Residence Inn is doing in this area, anyway. Seems like it needs to be torn down and built somewhere completely different.The inside of the room and the whole property are incredibly dated and dirty. Here are a few examples.See attached photo of a TV in the bedroom. It’s so small—basically the size of an average computer monitor. I haven’t seen a TV that small in a hotel room since the ‘80s.Another attached photo is of the pillow case. Looks like there’s either blood or pizza sauce on it. I’m not sure which one, and I probably don’t want to know.Another attached photo shows just one area (the vent by the kitchen) and how dusty/dirty it is.These are just a few examples. Overall, I’m very disappointed and would never even consider staying here again. The worst part is, I traveled with some co-workers who are staying at a Homewood Suites down the road. I’m a Marriott guy so I went out of my way to stay here. Their hotel ended up being MUCH nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r234651009-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234651009</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Suite Hotel</t>
+  </si>
+  <si>
+    <t>The basics: Location very near Love Field and downtown Dallas.  They have complimentary airport shuttles.  Rooms are very nice suites with complete kitchens an separate living rooms and bedrooms.  Amenities: Breakfast is complimentary.  Secure, gated parking.  Pool and a basketball court!Great service.  A bit pricey (&gt;180) but I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2014</t>
+  </si>
+  <si>
+    <t>The basics: Location very near Love Field and downtown Dallas.  They have complimentary airport shuttles.  Rooms are very nice suites with complete kitchens an separate living rooms and bedrooms.  Amenities: Breakfast is complimentary.  Secure, gated parking.  Pool and a basketball court!Great service.  A bit pricey (&gt;180) but I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r230909478-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>230909478</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel for 11 nights and we were all very pleased with our stay.  The rooms were very clean, the staff were always friendly and  offering to help if we need anything.  The front office staff was great very nice and friendly.  The breakfast every morning was also great.  Not a continental breakfast it was way more than enough food and delicious.  The staff in the dining room were very courteous and fast.   For those who say  it's noisy what do you expect when a freeway is on the side of hotel.We had no problem.  We will definitely return again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel for 11 nights and we were all very pleased with our stay.  The rooms were very clean, the staff were always friendly and  offering to help if we need anything.  The front office staff was great very nice and friendly.  The breakfast every morning was also great.  Not a continental breakfast it was way more than enough food and delicious.  The staff in the dining room were very courteous and fast.   For those who say  it's noisy what do you expect when a freeway is on the side of hotel.We had no problem.  We will definitely return again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r220065971-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>220065971</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Noise and deception!!!</t>
+  </si>
+  <si>
+    <t>Booked a 2 bedroom suite and stayed 1 hour!!! That tells u the level of that hotel. We got welcomed by a not so happy or nice employee that put us in a room in the 7th building. It seemed charming except for the hostess. Got to the room... And biggest NOISE of traffic and train. You could hear it like it was in your room! That's the view from ur window.Kitchen was small. Bedrooms were inequal. One with bath and shower. Other one with shower only. My husband is 6 ft and couldn't even fit without crouching. So much noise that sleep would have been impossible. The pool pictures are deceptive. It's actually pretty small. We decided to go to a different hotel and we found way better and cheaper.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Booked a 2 bedroom suite and stayed 1 hour!!! That tells u the level of that hotel. We got welcomed by a not so happy or nice employee that put us in a room in the 7th building. It seemed charming except for the hostess. Got to the room... And biggest NOISE of traffic and train. You could hear it like it was in your room! That's the view from ur window.Kitchen was small. Bedrooms were inequal. One with bath and shower. Other one with shower only. My husband is 6 ft and couldn't even fit without crouching. So much noise that sleep would have been impossible. The pool pictures are deceptive. It's actually pretty small. We decided to go to a different hotel and we found way better and cheaper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r217625643-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>217625643</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Marriott should remove name association with this hotel location.</t>
+  </si>
+  <si>
+    <t>Hotel literally on route 35..translation. .hwy noise all night.Hotel location central to a lot of things.Hotel not maintained.  Not clean. No reinvestment in hotel updates. Kitchen chairs all ripped up. Need replacing.  Room furniture terrible , embarrassing shape. Afraid to sit in. Courtyard  is embarrassing.  Overall management does not care in running a clean , well maintained hotel. I am a lifetime gold Marriott member. Stay in 100 hotel nights per year. I checked out 3 days earlier and moved to Marriott courtyard. ..MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Hotel literally on route 35..translation. .hwy noise all night.Hotel location central to a lot of things.Hotel not maintained.  Not clean. No reinvestment in hotel updates. Kitchen chairs all ripped up. Need replacing.  Room furniture terrible , embarrassing shape. Afraid to sit in. Courtyard  is embarrassing.  Overall management does not care in running a clean , well maintained hotel. I am a lifetime gold Marriott member. Stay in 100 hotel nights per year. I checked out 3 days earlier and moved to Marriott courtyard. ..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r211269671-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>211269671</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Average or slightly below average Residence Inn</t>
+  </si>
+  <si>
+    <t>Have stayed here twice over the last month or two. Once with family and once for work. Rooms are pretty much Residence Inn standard. Breakfast area was clean and well stocked if a bit small. Outdoor public areas were dirty and showed a lot of wear and tear. Still, with all of that this place is not up to the level of quality i would expect from a Residence Inn. Burns on the bathtub (obviously from some goofball guest that couldn't poo without a cigarette) were poorly repaired. The dryer will take at least two cycles to actually dry your clothes. No restaurants within walking distance (they actually recommended that I go to the crown plaza next door). Biggest thing to know is that the van to the airport is extremely slow. Like :30 minutes from call to pickup slow AND it does not run on Saturdays or Sundays. Front desk staff is friendly and apologetic.There are better properties in the area. Would not choose this one unless you have no other options.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded June 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2014</t>
+  </si>
+  <si>
+    <t>Have stayed here twice over the last month or two. Once with family and once for work. Rooms are pretty much Residence Inn standard. Breakfast area was clean and well stocked if a bit small. Outdoor public areas were dirty and showed a lot of wear and tear. Still, with all of that this place is not up to the level of quality i would expect from a Residence Inn. Burns on the bathtub (obviously from some goofball guest that couldn't poo without a cigarette) were poorly repaired. The dryer will take at least two cycles to actually dry your clothes. No restaurants within walking distance (they actually recommended that I go to the crown plaza next door). Biggest thing to know is that the van to the airport is extremely slow. Like :30 minutes from call to pickup slow AND it does not run on Saturdays or Sundays. Front desk staff is friendly and apologetic.There are better properties in the area. Would not choose this one unless you have no other options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r208849390-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>208849390</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Staff and very pleasant stay!!!!!</t>
+  </si>
+  <si>
+    <t>This is a nice, tucked off hotel with every amenity you could hope for.  Security is wonderful, entrance by key card only.  Staff was warm and friendly not only at check-in but throughout my 4 night stay.  Breakfast was more than enough and the evening social was just as great!  Rooms were clean and spacious.  Kitchens are equipped with everything you need and grocery shopping service is available for guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a nice, tucked off hotel with every amenity you could hope for.  Security is wonderful, entrance by key card only.  Staff was warm and friendly not only at check-in but throughout my 4 night stay.  Breakfast was more than enough and the evening social was just as great!  Rooms were clean and spacious.  Kitchens are equipped with everything you need and grocery shopping service is available for guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r208579388-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>208579388</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>A very pleasant surprise</t>
+  </si>
+  <si>
+    <t>I had stayed all around this hotel in the past, but had never noticed this property tucked away.  It was very quiet, secure, and comfortable.  The room was very clean and nice, and the bed large and comfortable.  Plus, the hot breakfast was more than adequate.  Air temp control was pinpointed by a digital thermostat, which added to the comfort.  I will certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I had stayed all around this hotel in the past, but had never noticed this property tucked away.  It was very quiet, secure, and comfortable.  The room was very clean and nice, and the bed large and comfortable.  Plus, the hot breakfast was more than adequate.  Air temp control was pinpointed by a digital thermostat, which added to the comfort.  I will certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r205589916-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>205589916</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>Finding Balance</t>
+  </si>
+  <si>
+    <t>Somewhat sketchy neighborhood - the front desk insisted on driving us over to the convenience store, which was only across the street.  That was our first clue.  Our first 2 bedroom suite did not have a bedroom door on one of the bedrooms so the bed was open and facing the couch.  Nice front desk lady moved us to another room.  It was much better for our family... Well, other than a nasty burned up bathrobe on the back of the bathroom door, along with some miscellaneous trash in a couple of the rooms.   Nice pool area and fair "dinner" and drinks each evening.  In the end, we decided this must be a property that had not been included in any of the recent updates.   Next extended stay, we will look for another property but not necessarily steer away from Residence Inn, just this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded May 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2014</t>
+  </si>
+  <si>
+    <t>Somewhat sketchy neighborhood - the front desk insisted on driving us over to the convenience store, which was only across the street.  That was our first clue.  Our first 2 bedroom suite did not have a bedroom door on one of the bedrooms so the bed was open and facing the couch.  Nice front desk lady moved us to another room.  It was much better for our family... Well, other than a nasty burned up bathrobe on the back of the bathroom door, along with some miscellaneous trash in a couple of the rooms.   Nice pool area and fair "dinner" and drinks each evening.  In the end, we decided this must be a property that had not been included in any of the recent updates.   Next extended stay, we will look for another property but not necessarily steer away from Residence Inn, just this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r204976229-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>204976229</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>A bit dated, but staff tries their best</t>
+  </si>
+  <si>
+    <t>Very near I35E, this hotel makes for a pleasant stay when one has a relatively large family. The 2 room suite is smaller than other Residence Inn and a little bit dated. However, the staff tries their best, which makes this a 3 star property. MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Very near I35E, this hotel makes for a pleasant stay when one has a relatively large family. The 2 room suite is smaller than other Residence Inn and a little bit dated. However, the staff tries their best, which makes this a 3 star property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r203655443-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>203655443</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Great Location and Staff</t>
+  </si>
+  <si>
+    <t>Stopped in Dallas for one night on the way to San Antonio. This was a great location and price. The living room was a great size as was the kitchette. I was traveling with a group of women and all 8 of us gathered here at the end of our day for a glass of wine. There were wine glasses and a cork screw to our delight. All the basic needs were supplied with the kitchen. The bedroom had a king size bed and another television. The bed was very comfortable and the bathroom was very clean. The staff was wonderful and could not do enough to help us settle in. They set up the shuttle for us as soon as we arrived. We took the shuttle to the Book Depository and did the JFK Museum and walked around the corner to the grassy knoll. The shuttle came back that evening after dinner and picked us up. What a great service. In the morning there was a free buffet breakfast. Loved the waffle shaped like Texas. There were eggs both scrambled and hard boiled, bagels, english muffins, toast, sausages, yogurt, hot and cold cereals and breakfast pastries. Lots of choices to get the day started. I would definitely return to this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stopped in Dallas for one night on the way to San Antonio. This was a great location and price. The living room was a great size as was the kitchette. I was traveling with a group of women and all 8 of us gathered here at the end of our day for a glass of wine. There were wine glasses and a cork screw to our delight. All the basic needs were supplied with the kitchen. The bedroom had a king size bed and another television. The bed was very comfortable and the bathroom was very clean. The staff was wonderful and could not do enough to help us settle in. They set up the shuttle for us as soon as we arrived. We took the shuttle to the Book Depository and did the JFK Museum and walked around the corner to the grassy knoll. The shuttle came back that evening after dinner and picked us up. What a great service. In the morning there was a free buffet breakfast. Loved the waffle shaped like Texas. There were eggs both scrambled and hard boiled, bagels, english muffins, toast, sausages, yogurt, hot and cold cereals and breakfast pastries. Lots of choices to get the day started. I would definitely return to this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r199803371-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>199803371</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Great amenities and Staff</t>
+  </si>
+  <si>
+    <t>I have stayed here three years in a row and I surely will again..I can't say enough about the helpful staff here.Traci, Michelle and their staff, have got your covered..Just ask....They are extremely helpful, accommodating and just plain nice....The hotel has free parking, free breakfast, free internet. What more could you ask for..Great location to Dallas Love and Oak Lawn area..</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r199453102-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>199453102</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Room was very comfortable and clean. It was very spacious and our room was in excellent condition! We had a room in building 7 and you can barely hear the hwy noise from the bedroom area. If you are planning to sleep on the sofa bed, I would be more concerned about the noise. I would definitely stay here again!  It is very close to Dallas Lovefield airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded April 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2014</t>
+  </si>
+  <si>
+    <t>Room was very comfortable and clean. It was very spacious and our room was in excellent condition! We had a room in building 7 and you can barely hear the hwy noise from the bedroom area. If you are planning to sleep on the sofa bed, I would be more concerned about the noise. I would definitely stay here again!  It is very close to Dallas Lovefield airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r198519704-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>198519704</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>would not stay here again....</t>
+  </si>
+  <si>
+    <t>Room 711- This was a two night stay for a training session and upon checking in I discovered the desk chair was all ripped up (plether- plastic leather) missing from 1/3 of the seat, living room chair was used as a cat scratching post, stained &amp; dirty drapes, carpet-not vacuumed, no hot water in the tiny stand-up curtained shower-four mins into the shower-lather on hair and soap all over- (got points for my unfortunate experience). One of the bedroom doors (2 BR suite) had nail heads sticking out (discovered them when placing my hand there). Knowing that it was spring break week, I would think the staff was ready for the crowd- room was not serviced on day 2 of the stay until much later in the afternoon. Going back to Hilton.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Room 711- This was a two night stay for a training session and upon checking in I discovered the desk chair was all ripped up (plether- plastic leather) missing from 1/3 of the seat, living room chair was used as a cat scratching post, stained &amp; dirty drapes, carpet-not vacuumed, no hot water in the tiny stand-up curtained shower-four mins into the shower-lather on hair and soap all over- (got points for my unfortunate experience). One of the bedroom doors (2 BR suite) had nail heads sticking out (discovered them when placing my hand there). Knowing that it was spring break week, I would think the staff was ready for the crowd- room was not serviced on day 2 of the stay until much later in the afternoon. Going back to Hilton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r193386432-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>193386432</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>Stayed here overnight after picking my mother up from DFW. The staff on the front desk were very helpful when i needed directions to the grocery store and the next day when we left something behind in the room. I enjoyed the breakfast, just wish they had a grab and go as we had to be on the road early. The room was in excellent condition and both the sofa bed and king were incredibly comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded February 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here overnight after picking my mother up from DFW. The staff on the front desk were very helpful when i needed directions to the grocery store and the next day when we left something behind in the room. I enjoyed the breakfast, just wish they had a grab and go as we had to be on the road early. The room was in excellent condition and both the sofa bed and king were incredibly comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r193210440-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>193210440</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel stay for a very long time</t>
+  </si>
+  <si>
+    <t>This was by far the worst hotel stay for a very long time. Arrived in room - no cooking utensils, asked three times - gave up and went out to buy my own. This hotel does zero maintenance to it's facility. The refrigerator in the room was noisier than the train passing not 100 meters from my window, the microwave sounded as if it would self-destruct every time I used it, and room servicing is basically a lottery of what they will clean in your room, and what they will and will not leave for you - items such as tea towels / coffee... Needless to say - I will NOT be returning to that hotel during my next upcoming stay in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded February 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2014</t>
+  </si>
+  <si>
+    <t>This was by far the worst hotel stay for a very long time. Arrived in room - no cooking utensils, asked three times - gave up and went out to buy my own. This hotel does zero maintenance to it's facility. The refrigerator in the room was noisier than the train passing not 100 meters from my window, the microwave sounded as if it would self-destruct every time I used it, and room servicing is basically a lottery of what they will clean in your room, and what they will and will not leave for you - items such as tea towels / coffee... Needless to say - I will NOT be returning to that hotel during my next upcoming stay in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r190722405-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>190722405</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>nice surprise - short trip from Dallas Love</t>
+  </si>
+  <si>
+    <t>While this particular Residence Inn has been here a while they have updated the site and it is very nice. Clean - well maintained - comfortable rooms - suprisingly quiet considering it is close to several main highways - easy access - nice lite dinners each eveningMoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2014</t>
+  </si>
+  <si>
+    <t>While this particular Residence Inn has been here a while they have updated the site and it is very nice. Clean - well maintained - comfortable rooms - suprisingly quiet considering it is close to several main highways - easy access - nice lite dinners each eveningMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r174329178-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>174329178</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Underestimating the weather, we booked this hotel which is an hour drive away from work. The staff was more than helpful. Not only he welcomed us nicely, he even helped us moved our booking to more convenient Residence Inn. We have been using Marriott membership and staying in various Marriott hotels but have never tried Residence Inn. It was more than convenient here, we have a kitchen and the staff do the grocery shopping for us. Super awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded September 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2013</t>
+  </si>
+  <si>
+    <t>Underestimating the weather, we booked this hotel which is an hour drive away from work. The staff was more than helpful. Not only he welcomed us nicely, he even helped us moved our booking to more convenient Residence Inn. We have been using Marriott membership and staying in various Marriott hotels but have never tried Residence Inn. It was more than convenient here, we have a kitchen and the staff do the grocery shopping for us. Super awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r172740143-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>172740143</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>great staff</t>
+  </si>
+  <si>
+    <t>this Residence Inn is a nice place stay. I have stayed here the last two times I have went to the Europa and was very pleased. I will stay here again the next time i visit Dallas. The rooms are very cozy and the staff is very helpful. Lovis went out of his way to help me!!! I thought I left something in my room when I checked out, Lovis searched for my dvd player and called me back several times to update me on the situation. Meanwhile I looked through my luggage and realized my husband had packed it. The Residence Inn is a great place to stay, the only drawback for me is the ac only goes down to 65. for most iam sure that is fine, 62 would be alittle better but I always bring my fan anyway.  good breakfeast!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded August 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2013</t>
+  </si>
+  <si>
+    <t>this Residence Inn is a nice place stay. I have stayed here the last two times I have went to the Europa and was very pleased. I will stay here again the next time i visit Dallas. The rooms are very cozy and the staff is very helpful. Lovis went out of his way to help me!!! I thought I left something in my room when I checked out, Lovis searched for my dvd player and called me back several times to update me on the situation. Meanwhile I looked through my luggage and realized my husband had packed it. The Residence Inn is a great place to stay, the only drawback for me is the ac only goes down to 65. for most iam sure that is fine, 62 would be alittle better but I always bring my fan anyway.  good breakfeast!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r162134621-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>162134621</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>They still believe in service.</t>
+  </si>
+  <si>
+    <t>I stayed here with my sister and a friend for a girl's weekend. Fantastic location for getting around downtown, but hard to find off of I-35E in Dallas. It's called Market Center, but it's a mile or so north. Joseph welcomed us as we come flying into the lobby as a heavy rain had just begun. He helped us check in, then told us a way to get to the room without getting wet. The hotel seems to be built like it may have been apts. before? I dunno, but it works out great for an entire weekend. Only a "good" breakfast, but the staff was so kind, it really didn't matter! I lost a pair of sandals on this trip and they made several attempts to find them for me, but none were found. They seem to go out of their way to help and that's what a call service!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here with my sister and a friend for a girl's weekend. Fantastic location for getting around downtown, but hard to find off of I-35E in Dallas. It's called Market Center, but it's a mile or so north. Joseph welcomed us as we come flying into the lobby as a heavy rain had just begun. He helped us check in, then told us a way to get to the room without getting wet. The hotel seems to be built like it may have been apts. before? I dunno, but it works out great for an entire weekend. Only a "good" breakfast, but the staff was so kind, it really didn't matter! I lost a pair of sandals on this trip and they made several attempts to find them for me, but none were found. They seem to go out of their way to help and that's what a call service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r156419477-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>156419477</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>Pride weekend 2012</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and awesome.  Really enjoyed the room was perfect for roommates.  Getting cabs was very difficult as a lot of them did not know where this hotel was and kept going to the hotel that was a block away.  It is a little difficult to get to at first due to it being off the interstate but after driving around after checking in it's easy to get around once you know the exit and entrance ramps.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and awesome.  Really enjoyed the room was perfect for roommates.  Getting cabs was very difficult as a lot of them did not know where this hotel was and kept going to the hotel that was a block away.  It is a little difficult to get to at first due to it being off the interstate but after driving around after checking in it's easy to get around once you know the exit and entrance ramps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r152785072-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>152785072</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Good location, older style</t>
+  </si>
+  <si>
+    <t>We recently needed to make an unexpected trip to Dallas after my grandmother was put in the hospital at UT Southwestern.  This location is just a few blocks from the Parkland/UT/CMC area.  It is an older style RI with rooms laid out in different buildings in an apartment style.  It is a true suite with a divider between the living room and bedroom.  The bathroom also opens into both the kitchen area and the bedroom.  I actually like this style better than the newer rectangle ones they build now.  The finishes were not as upscale (granite, stainless) as the newer ones but it was well cared for.  
+There were two TVs, a big one in the living room and a laughably small one in the bedroom.  We don't watch TV in bed so no big deal to us.  Also the remotes would work either TV so i you pointed it at the one in the living room it would usually turn on the one in the bedroom too.  I loved the heat lamp in bathroom, you rarely see these anymore and I like them very much.  
+Breakfast was the standard RI fare, above average and good.  It is a fairly large facility with at least 10 separate buildings.  Easy on/easy off from I35E but nothing within walking distance of the property.  The residential area around the hotel is a bit run down.  Parking is key carded to a gate and...We recently needed to make an unexpected trip to Dallas after my grandmother was put in the hospital at UT Southwestern.  This location is just a few blocks from the Parkland/UT/CMC area.  It is an older style RI with rooms laid out in different buildings in an apartment style.  It is a true suite with a divider between the living room and bedroom.  The bathroom also opens into both the kitchen area and the bedroom.  I actually like this style better than the newer rectangle ones they build now.  The finishes were not as upscale (granite, stainless) as the newer ones but it was well cared for.  There were two TVs, a big one in the living room and a laughably small one in the bedroom.  We don't watch TV in bed so no big deal to us.  Also the remotes would work either TV so i you pointed it at the one in the living room it would usually turn on the one in the bedroom too.  I loved the heat lamp in bathroom, you rarely see these anymore and I like them very much.  Breakfast was the standard RI fare, above average and good.  It is a fairly large facility with at least 10 separate buildings.  Easy on/easy off from I35E but nothing within walking distance of the property.  The residential area around the hotel is a bit run down.  Parking is key carded to a gate and they give you a card to put in your windshield for security.  Overall would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>We recently needed to make an unexpected trip to Dallas after my grandmother was put in the hospital at UT Southwestern.  This location is just a few blocks from the Parkland/UT/CMC area.  It is an older style RI with rooms laid out in different buildings in an apartment style.  It is a true suite with a divider between the living room and bedroom.  The bathroom also opens into both the kitchen area and the bedroom.  I actually like this style better than the newer rectangle ones they build now.  The finishes were not as upscale (granite, stainless) as the newer ones but it was well cared for.  
+There were two TVs, a big one in the living room and a laughably small one in the bedroom.  We don't watch TV in bed so no big deal to us.  Also the remotes would work either TV so i you pointed it at the one in the living room it would usually turn on the one in the bedroom too.  I loved the heat lamp in bathroom, you rarely see these anymore and I like them very much.  
+Breakfast was the standard RI fare, above average and good.  It is a fairly large facility with at least 10 separate buildings.  Easy on/easy off from I35E but nothing within walking distance of the property.  The residential area around the hotel is a bit run down.  Parking is key carded to a gate and...We recently needed to make an unexpected trip to Dallas after my grandmother was put in the hospital at UT Southwestern.  This location is just a few blocks from the Parkland/UT/CMC area.  It is an older style RI with rooms laid out in different buildings in an apartment style.  It is a true suite with a divider between the living room and bedroom.  The bathroom also opens into both the kitchen area and the bedroom.  I actually like this style better than the newer rectangle ones they build now.  The finishes were not as upscale (granite, stainless) as the newer ones but it was well cared for.  There were two TVs, a big one in the living room and a laughably small one in the bedroom.  We don't watch TV in bed so no big deal to us.  Also the remotes would work either TV so i you pointed it at the one in the living room it would usually turn on the one in the bedroom too.  I loved the heat lamp in bathroom, you rarely see these anymore and I like them very much.  Breakfast was the standard RI fare, above average and good.  It is a fairly large facility with at least 10 separate buildings.  Easy on/easy off from I35E but nothing within walking distance of the property.  The residential area around the hotel is a bit run down.  Parking is key carded to a gate and they give you a card to put in your windshield for security.  Overall would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r152586300-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>152586300</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Avoid this very poor property, many better options</t>
+  </si>
+  <si>
+    <t>Where do I start? This place is a disaster - here is a partial list. First, they advertise a shuttle, but it stops super early. The front desk employee was unhelpful and short at check-in. I asked for food options and she rattled off three restaurants and then turned and walked away. The TV in bed room is smaller then my computer monitor, I literally think it is an 18in tv (who knew they even made those). My room faced a very noisy freeway and the windows are NOT soundproof. Asked about a shuttle ride back to the hotel, was told the driver was not available all morning. And I am a Marriott Gold Member who is supposed to get treated a little better, watch out if you are a regular guest. This place does not deserve any of our business.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Traci R, General Manager at Residence Inn by Marriott Dallas Market Center, responded to this reviewResponded February 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2013</t>
+  </si>
+  <si>
+    <t>Where do I start? This place is a disaster - here is a partial list. First, they advertise a shuttle, but it stops super early. The front desk employee was unhelpful and short at check-in. I asked for food options and she rattled off three restaurants and then turned and walked away. The TV in bed room is smaller then my computer monitor, I literally think it is an 18in tv (who knew they even made those). My room faced a very noisy freeway and the windows are NOT soundproof. Asked about a shuttle ride back to the hotel, was told the driver was not available all morning. And I am a Marriott Gold Member who is supposed to get treated a little better, watch out if you are a regular guest. This place does not deserve any of our business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r150182013-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>150182013</t>
+  </si>
+  <si>
+    <t>01/21/2013</t>
+  </si>
+  <si>
+    <t>Spacious 2BR 2BA Stay!</t>
+  </si>
+  <si>
+    <t>When traveling to TX Scottish Rite Hospital with my child and a friend, we booked at the Residence Inn Dallas Market Center. They were able to give us a medical discount and we booked a 2BR 2BA, full kitchen, and living area room. It was fantastic with  a lot of space for the kids. This is a great place to stay when you have a large family as well.Breakfast was a nice spred with eggs, egg mcmuffins, oatmeal, yogurt parfets, and so on. Staff was friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>When traveling to TX Scottish Rite Hospital with my child and a friend, we booked at the Residence Inn Dallas Market Center. They were able to give us a medical discount and we booked a 2BR 2BA, full kitchen, and living area room. It was fantastic with  a lot of space for the kids. This is a great place to stay when you have a large family as well.Breakfast was a nice spred with eggs, egg mcmuffins, oatmeal, yogurt parfets, and so on. Staff was friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r146593970-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>146593970</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Great holiday stay</t>
+  </si>
+  <si>
+    <t>Since my son's home was being renovated II decided to look for a hotel with a kitchenette for us. This hotel was perfect! My family and I had a memorable Christmas together. It was 5 of us and we were so happy to be in one place. We get together about every 3-4 years so this hotel was a great idea, the best!!! Nice floor plan on the 2 bedroom. I cooked and my sons were so happy to have a home cooked meal.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Since my son's home was being renovated II decided to look for a hotel with a kitchenette for us. This hotel was perfect! My family and I had a memorable Christmas together. It was 5 of us and we were so happy to be in one place. We get together about every 3-4 years so this hotel was a great idea, the best!!! Nice floor plan on the 2 bedroom. I cooked and my sons were so happy to have a home cooked meal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r146593180-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>146593180</t>
+  </si>
+  <si>
+    <t>Most wonderful staff! Felt like family</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 days when my son had surgery at Dallas Children's.  The room was clean and spacious.  Breakfast was perfect every day.  But the reason our stay was 5 star + was the staff.  Absolutely the nicest, most wonderful people I have ever met in any hotel. They took care of us as if we were family.  Not just one person, but every single person who worked there.  I have never ever had a relationship with the staff of a hotel, let alone at some big chain!  I could go on and on about all they did for us, but suffice it to say, this was the nicest place I have ever stayed- but not because of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 days when my son had surgery at Dallas Children's.  The room was clean and spacious.  Breakfast was perfect every day.  But the reason our stay was 5 star + was the staff.  Absolutely the nicest, most wonderful people I have ever met in any hotel. They took care of us as if we were family.  Not just one person, but every single person who worked there.  I have never ever had a relationship with the staff of a hotel, let alone at some big chain!  I could go on and on about all they did for us, but suffice it to say, this was the nicest place I have ever stayed- but not because of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r144562987-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>144562987</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Adequate, but dated</t>
+  </si>
+  <si>
+    <t>Very loud A/C, and the rooms feel pretty antiquated, although rather large.  The breakfast is above average.  The hotel is adequate in general - nothing especially great or offensive.  A little low on the value side, but very good location for traveling to the medical center.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r144270188-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>144270188</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>A nice, older Residence Inn</t>
+  </si>
+  <si>
+    <t>It's been there awhile, but it's well cared for. The floor plan is one that Marriott no longer uses, which is too bad. It allows someone on the sleeper sofa to enter the bathroom from the kitchen without coming through the separate bedroom. Noise from Stemmons is noticeable but it won't keep you awake at night. Central A/C is effective and quiet, which is not always the case at a RI. Breakfast is up to RI standards, which is excellent. Lots of variety. Good quality. I have stayed here multiple times over numerous years. I have never been disappointed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r143273891-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>143273891</t>
+  </si>
+  <si>
+    <t>10/20/2012</t>
+  </si>
+  <si>
+    <t>Fablous Room; Best Western Breakfast.</t>
+  </si>
+  <si>
+    <t>The room was great. All the things you need when you are away from home.Beds are comphy; and apperently nosey when you bounce on them as the neighbor demenstrated for us last night. Walls are not very sound proof.I have had better breakfasts at a Best Western than this place; but lots of choices.Location is okay; but bad to get to during rush hour traffic &amp; since LBJ freeway is underconstruction.But over all for the price is Great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r135743292-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>135743292</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Parking Lot UNSAFE!!!</t>
+  </si>
+  <si>
+    <t>We just spent 2 nights at this hotel and were not pleased.  We are long time Marriott customers and this hotel does not appear to meet typical standards.  When we got ready to leave this morning, we immediately became aware that our daughter's car had been vandalized!  Someone had sawed off her catalytic converter!!!  We filed a report with the Dallas Police Department and had to find a place to repair her car on a Sunday which is not an easy task.  The hotel staff were friendly but didn't seem to take much ownership.  The hotel is in disrepair with lots of temporary repairs and it is not in a very good neighborhood.  The rooms are cramped and the kitchen is teensie tiny.  The breakfast was good but the hostess started trying to take all of the food away at 10:00 even though there was a line of people trying to get food.  We will not stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We just spent 2 nights at this hotel and were not pleased.  We are long time Marriott customers and this hotel does not appear to meet typical standards.  When we got ready to leave this morning, we immediately became aware that our daughter's car had been vandalized!  Someone had sawed off her catalytic converter!!!  We filed a report with the Dallas Police Department and had to find a place to repair her car on a Sunday which is not an easy task.  The hotel staff were friendly but didn't seem to take much ownership.  The hotel is in disrepair with lots of temporary repairs and it is not in a very good neighborhood.  The rooms are cramped and the kitchen is teensie tiny.  The breakfast was good but the hostess started trying to take all of the food away at 10:00 even though there was a line of people trying to get food.  We will not stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r134644982-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>134644982</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Would not return</t>
+  </si>
+  <si>
+    <t>Centrally located, this property was a little run down and our king suite was cramped and not cleaned well.  We checked in late and the hotel was full, so could not switch rooms.  There were stains and spills on the floors, walls, and countertops.  The bathroom had hair and dirt on the floors, and the carpet and tile was threadbare and worn in places.  The refrigerator was dirty and had old food and spills caked on its shelves and door.  The staff is friendly and accommodating, though, especially at breakfast - which had a nice, well-stocked variety of hot and cold items.  Free, well-lit parking.  However, we would not return due to room cleanliness / sanitary issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>Centrally located, this property was a little run down and our king suite was cramped and not cleaned well.  We checked in late and the hotel was full, so could not switch rooms.  There were stains and spills on the floors, walls, and countertops.  The bathroom had hair and dirt on the floors, and the carpet and tile was threadbare and worn in places.  The refrigerator was dirty and had old food and spills caked on its shelves and door.  The staff is friendly and accommodating, though, especially at breakfast - which had a nice, well-stocked variety of hot and cold items.  Free, well-lit parking.  However, we would not return due to room cleanliness / sanitary issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r133937444-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>133937444</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Easy to find, great value for 2 bedroom suite.</t>
+  </si>
+  <si>
+    <t>We stayed here from San Antonio for the Dallas Rock-n-Roll marathon. Only about 10-15min. from downtown. We stayed in the 2 bedroom suite, it is like a small apartment with a bathroom in each bedroom &amp; bedrooms are closed off. Great for us &amp; 2 kids. Continental breakfast was pretty good. I recommend eating at nearby Dunstons Prime Steak House (open late &amp; $11 NY strips)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r130008480-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>130008480</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>Excellent service, very nice facility</t>
+  </si>
+  <si>
+    <t>Exceptionally friendly and helpful staff, a real pleasure to deal with.  Not a new facility, but beautifully maintained and in excellent condition.  Very easy access to the property from 183 or Stemmons.  Must drive through poorer area to get to highway downtown, but never felt uncomfortable.  Would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r127746025-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>127746025</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel and Staff</t>
+  </si>
+  <si>
+    <t>We stayed here for a week in March 2012. The room was one of the best I've ever stayed in for around $90/night. It had a separate living room, kitchen and bedroom. All of which seem to have recently been upgraded.  The pool and Jacuzzi are nice as well as the breakfast area. The included breakfast offered everything and was not continental. The staff are extremely friendly and helpful and go out of their way to address any questions/issues.  Only down side was the location next to a major loud highway (not heard in the room, just at pool). Surrounding area is a little depressed, but short drives to local attractions and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for a week in March 2012. The room was one of the best I've ever stayed in for around $90/night. It had a separate living room, kitchen and bedroom. All of which seem to have recently been upgraded.  The pool and Jacuzzi are nice as well as the breakfast area. The included breakfast offered everything and was not continental. The staff are extremely friendly and helpful and go out of their way to address any questions/issues.  Only down side was the location next to a major loud highway (not heard in the room, just at pool). Surrounding area is a little depressed, but short drives to local attractions and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r127050438-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>127050438</t>
+  </si>
+  <si>
+    <t>03/31/2012</t>
+  </si>
+  <si>
+    <t>Great hotel, and wonderful staff</t>
+  </si>
+  <si>
+    <t>I just want to say that I was tremendously impressed with the staff at this hotel. They bent over backwards to make sure that our stay was as comfortable as possible, and really went the extra mile to help myself and my family with everything we needed during our stay. The hotel itself was really nice as well. Would absolutely recommend this hotel to anyone, and I will certainly be staying there anytime I go to Dallas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r126053442-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>126053442</t>
+  </si>
+  <si>
+    <t>03/13/2012</t>
+  </si>
+  <si>
+    <t>An aging property supported by an excellent staff</t>
+  </si>
+  <si>
+    <t>A family suite of two bedrooms, two baths, a kitchen and living room- more than enough room for three adults and an infant. Property is starting to show its age and there is some remodeling underway. Location is very convenient to medical centers and Parkland Hospital.Free hotel shuttle to Love Field. Breakfast is included: scrambled eggs, sausage patties, toast, cereals, and the usual assortment of juices and coffee. Hotel also provides evening meals- taco salads, burgers on the grill, etc. All included in the room rate. But the staff is where the hotel shines. Aurelia, the morning kitchenmeister, offers a "good morning" to each guest, promptly cleans up, and restocks the buffet. Front desk folks call cabs, provide balls for kids on the mini basketball court, fax multi-page documents, and print out maps for directions. Housekeeping offers to clean your room on your schedule to avoid any time conflicts. Hotel is clean but the decor appears to have aged. Reasonable rates, friendly staff, and convenient location to the freeways and medical centers.MoreShow less</t>
+  </si>
+  <si>
+    <t>A family suite of two bedrooms, two baths, a kitchen and living room- more than enough room for three adults and an infant. Property is starting to show its age and there is some remodeling underway. Location is very convenient to medical centers and Parkland Hospital.Free hotel shuttle to Love Field. Breakfast is included: scrambled eggs, sausage patties, toast, cereals, and the usual assortment of juices and coffee. Hotel also provides evening meals- taco salads, burgers on the grill, etc. All included in the room rate. But the staff is where the hotel shines. Aurelia, the morning kitchenmeister, offers a "good morning" to each guest, promptly cleans up, and restocks the buffet. Front desk folks call cabs, provide balls for kids on the mini basketball court, fax multi-page documents, and print out maps for directions. Housekeeping offers to clean your room on your schedule to avoid any time conflicts. Hotel is clean but the decor appears to have aged. Reasonable rates, friendly staff, and convenient location to the freeways and medical centers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r125897908-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>125897908</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>long term stays</t>
+  </si>
+  <si>
+    <t>Excellent staff. Hotel needs renovation and updating. Evening snacks at Mgr hour poor compared to competetors</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r123666324-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>123666324</t>
+  </si>
+  <si>
+    <t>01/26/2012</t>
+  </si>
+  <si>
+    <t>Customer Service Beyond Amazing</t>
+  </si>
+  <si>
+    <t>Imagine a hotel staff member driving packages to you at an event 2 miles away? It happened here. First, in the morning when the shuttle was busy, she drove me in her car to my event. Then when my delayed (FedEx) trade show packages arrived at the hotel, she drove 4 large boxes to a loading dock for me! I should also mention that when I was first dropped off at the hotel late at night, and showed a bit of anxiety about walking around outside to my room (location seemed safe but I get nervous), the woman at the desk immediately requested a security escort, who came right away and walked me to my room. All truly amazing. One more thing to note: The "room" was actually 2 good sized bedrooms each with closing doors (!!) as well as a living room and kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Imagine a hotel staff member driving packages to you at an event 2 miles away? It happened here. First, in the morning when the shuttle was busy, she drove me in her car to my event. Then when my delayed (FedEx) trade show packages arrived at the hotel, she drove 4 large boxes to a loading dock for me! I should also mention that when I was first dropped off at the hotel late at night, and showed a bit of anxiety about walking around outside to my room (location seemed safe but I get nervous), the woman at the desk immediately requested a security escort, who came right away and walked me to my room. All truly amazing. One more thing to note: The "room" was actually 2 good sized bedrooms each with closing doors (!!) as well as a living room and kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r116678839-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>116678839</t>
+  </si>
+  <si>
+    <t>08/13/2011</t>
+  </si>
+  <si>
+    <t>Was a nice hotel, freindly, not overwhelmingly nice, but they make up for it with courtesy.</t>
+  </si>
+  <si>
+    <t>This was a nice hotel, spacious for family of 3 or maybe 4.  Went with my 5 year old for a daddy/daughter trip before kindergarten starts with mom away this weekend.  The extra room with the pullout couch allowed me to watch tv while little miss independance could watch her OWN tv in the other extension.  Pool was adequate, and hot tub next to it was nice as well.  Breakfast was really good, and the ladies who put out the breakfast were VERY friendly.  Front desk called my room within minutes of arrival to check to see if I needed anything.  It doesnt cost anything for good cutomer service, but it sure goes a long way!  They have that part figured out, and make you feel important.  Some places a lot more expensive seem snobby or stuffy, and you drop a lot of money and are left to wonder why you feel like you are being a pain in the butt.  Not this place.  I recommend this place without any reservations, no pun intended!  Only thing I could say bad is that they could take a few minutes to make some of the outside places on property to repair some loose things, ripped awnings, etc.  Not a big deal though.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>This was a nice hotel, spacious for family of 3 or maybe 4.  Went with my 5 year old for a daddy/daughter trip before kindergarten starts with mom away this weekend.  The extra room with the pullout couch allowed me to watch tv while little miss independance could watch her OWN tv in the other extension.  Pool was adequate, and hot tub next to it was nice as well.  Breakfast was really good, and the ladies who put out the breakfast were VERY friendly.  Front desk called my room within minutes of arrival to check to see if I needed anything.  It doesnt cost anything for good cutomer service, but it sure goes a long way!  They have that part figured out, and make you feel important.  Some places a lot more expensive seem snobby or stuffy, and you drop a lot of money and are left to wonder why you feel like you are being a pain in the butt.  Not this place.  I recommend this place without any reservations, no pun intended!  Only thing I could say bad is that they could take a few minutes to make some of the outside places on property to repair some loose things, ripped awnings, etc.  Not a big deal though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r110220019-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>110220019</t>
+  </si>
+  <si>
+    <t>05/28/2011</t>
+  </si>
+  <si>
+    <t>Ok place, but not up to normal Residence Inn standards</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel while visiting Dallas. We chose this location due to its quick access to midevil times and downtown Dallas. Also, we wanted a kitchen and two separate bedrooms. The location is not great because it is in a kind of dirty area. The hotel parking lot was dirty and had trash in it. The lobby was decent, but nothing special. The room was dated, but at least it had lots of room and a kitchenette. The hotel has a small pool and hot tub, which were too cold to try. We didn't spend too much time at the hotel as we were checking out the sights. PROS:-Lots of room-Great access to Dallas-Kitchenette-Good breakfastCONS:-Dated and not so clean-NoisyMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel while visiting Dallas. We chose this location due to its quick access to midevil times and downtown Dallas. Also, we wanted a kitchen and two separate bedrooms. The location is not great because it is in a kind of dirty area. The hotel parking lot was dirty and had trash in it. The lobby was decent, but nothing special. The room was dated, but at least it had lots of room and a kitchenette. The hotel has a small pool and hot tub, which were too cold to try. We didn't spend too much time at the hotel as we were checking out the sights. PROS:-Lots of room-Great access to Dallas-Kitchenette-Good breakfastCONS:-Dated and not so clean-NoisyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r93351266-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>93351266</t>
+  </si>
+  <si>
+    <t>01/17/2011</t>
+  </si>
+  <si>
+    <t>spacious rooms but noisy and not proper cleanliness</t>
+  </si>
+  <si>
+    <t>Rooms are very spacious and very confortable with a kitchenette, a dining room with a large LCD TV and separated bedroom.Unfortunately it is not sound proof and I could easily hear noise from the cars on the highway just next to the hotel.The place is organised in seven buildings and in winter time you need your coat and gants to go to the lobby for breakfast or any other need.There is nothing around in walking distance and even the McDonalds's on the other side of the highway is not accessible on foot, you do need a cab to cross it...The worst part was that when I checked in there were long black hair on the bathroom floor, clearly from the room service lady, and used coffee filter in the brewer machine. Even worse, on the second day both hair in the bathroom and used coffee filter were still there. And bed sheets were not even pulled straight, just the blanket was pulled over.Clearly the room service lady is not going into all her checklist. These were not details but basic cleaning items.I left the hotel one day earlier as luckly I found one room available elsewhere not far and at corporate rate.Anyway, the staff was very helpfull in providing all sort of information and directions to me when I asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>Rooms are very spacious and very confortable with a kitchenette, a dining room with a large LCD TV and separated bedroom.Unfortunately it is not sound proof and I could easily hear noise from the cars on the highway just next to the hotel.The place is organised in seven buildings and in winter time you need your coat and gants to go to the lobby for breakfast or any other need.There is nothing around in walking distance and even the McDonalds's on the other side of the highway is not accessible on foot, you do need a cab to cross it...The worst part was that when I checked in there were long black hair on the bathroom floor, clearly from the room service lady, and used coffee filter in the brewer machine. Even worse, on the second day both hair in the bathroom and used coffee filter were still there. And bed sheets were not even pulled straight, just the blanket was pulled over.Clearly the room service lady is not going into all her checklist. These were not details but basic cleaning items.I left the hotel one day earlier as luckly I found one room available elsewhere not far and at corporate rate.Anyway, the staff was very helpfull in providing all sort of information and directions to me when I asked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r57745995-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>57745995</t>
+  </si>
+  <si>
+    <t>03/04/2010</t>
+  </si>
+  <si>
+    <t>Fantastic Staff, beautiful rooms, love this home feeling</t>
+  </si>
+  <si>
+    <t>The staff was unreal so attentive, nice, and friendly.  Rooms are remodeled and very well appointed.  Service is outstanding.  Great place to live long term.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r45702853-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>45702853</t>
+  </si>
+  <si>
+    <t>10/02/2009</t>
+  </si>
+  <si>
+    <t>Ok hotel but not up to usual standards</t>
+  </si>
+  <si>
+    <t>Overall this was a good hotel.  Convenience to downtown and airports was very good.  Rooms were very nice and up to standards.  Breakfast was excellent and the evening reception was good as well.  Staff were extremely attentive and great to work with.Overall though the hotel in general and the grounds were not up to the standard of Residence Inn.  Grounds especially didn't seem to be kept up to very well.  Outside of my room the grass was dead, their was garbage on the sidewalks, 6 cigarette butts littered outside my door, and a nearby maintenance room was leaking water through the door the entire stay and made the nearby entrance to my room wet.  The other problem, which isn't the hotel's fault, but the hotel is right off the freeway and you can hear the cars all night long.  I was kept up half the night by the sound of vehicles and semis going past on the freeway.  Still a good hotel for the value but think twice if you are a light sleeper.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>Overall this was a good hotel.  Convenience to downtown and airports was very good.  Rooms were very nice and up to standards.  Breakfast was excellent and the evening reception was good as well.  Staff were extremely attentive and great to work with.Overall though the hotel in general and the grounds were not up to the standard of Residence Inn.  Grounds especially didn't seem to be kept up to very well.  Outside of my room the grass was dead, their was garbage on the sidewalks, 6 cigarette butts littered outside my door, and a nearby maintenance room was leaking water through the door the entire stay and made the nearby entrance to my room wet.  The other problem, which isn't the hotel's fault, but the hotel is right off the freeway and you can hear the cars all night long.  I was kept up half the night by the sound of vehicles and semis going past on the freeway.  Still a good hotel for the value but think twice if you are a light sleeper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r24847432-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>24847432</t>
+  </si>
+  <si>
+    <t>02/20/2009</t>
+  </si>
+  <si>
+    <t>Great for long term business travelers</t>
+  </si>
+  <si>
+    <t>Our team was on project for over a month in Dallas and I cannot say enough kind comments about the facilities and staff of the Residence Inn. One of the best experiences at a Residence Inn I have ever had. The front desk staff knew us by name and the sales staff really took the time to get to know our group and was always there if we had any questions.Very good value: you get what looks like a brand new room witch is Very spacious, breakfast, dinner and drinks at night. Food is nothing special, but with the free bud light, I can overlook it. If my work ever brings me back to the area, I look forward to staying at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>Our team was on project for over a month in Dallas and I cannot say enough kind comments about the facilities and staff of the Residence Inn. One of the best experiences at a Residence Inn I have ever had. The front desk staff knew us by name and the sales staff really took the time to get to know our group and was always there if we had any questions.Very good value: you get what looks like a brand new room witch is Very spacious, breakfast, dinner and drinks at night. Food is nothing special, but with the free bud light, I can overlook it. If my work ever brings me back to the area, I look forward to staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r6344547-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>6344547</t>
+  </si>
+  <si>
+    <t>12/06/2006</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>We stayed here to catch an early flight out of Lovefield. The staff was friendly and the suite we stayed in was nice. It is an old building and it shows but for the price we paid we are not complaining. The breakfast was the norm, nothing special. Will stay here for the location.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r5894308-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>5894308</t>
+  </si>
+  <si>
+    <t>09/29/2006</t>
+  </si>
+  <si>
+    <t>Two thumbs DOWN, from a Marriott SILVER Rewards Member</t>
+  </si>
+  <si>
+    <t>This is an older hotel which must have been a remodeled former hotel of another brand, and borders a very suspect part of town (I had my tailgate stolen in broad daylight from the nearby Sheraton Brookhollow).  The layout is very peculiar, with exterior (outside) entrances to many rooms.  These exterior entrances allowed unobserved access to guest rooms, which is a very poor security risk in this area - a total stranger could walk directly up to my door.   Additionally, the layout allows for several unlit potential hiding places for criminal activity.  When I arrived to check in, I noticed several rather unsavory-looking characters loitering in the area.  I always stay at Marriott, typically Residence Inn for the value and comfort.  This is definitely the worst of at least 15 Residence Inns I'm familiar with.  My room does not have basic silverware.  I'm sure I could get some if I called the front desk, but I shouldn't have to.  My neighbors are in an out of their room continually, and my whole room shudders as their door slams.  The kitchen is tiny, with a two-burner electric range, instead of the typical four burners.  If you need an extended stay hotel near the medical facilities, and take into account the security concerns, this place may serve you well.  As for me, I'd rather try a Fort Worth Motel 6 before I stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>This is an older hotel which must have been a remodeled former hotel of another brand, and borders a very suspect part of town (I had my tailgate stolen in broad daylight from the nearby Sheraton Brookhollow).  The layout is very peculiar, with exterior (outside) entrances to many rooms.  These exterior entrances allowed unobserved access to guest rooms, which is a very poor security risk in this area - a total stranger could walk directly up to my door.   Additionally, the layout allows for several unlit potential hiding places for criminal activity.  When I arrived to check in, I noticed several rather unsavory-looking characters loitering in the area.  I always stay at Marriott, typically Residence Inn for the value and comfort.  This is definitely the worst of at least 15 Residence Inns I'm familiar with.  My room does not have basic silverware.  I'm sure I could get some if I called the front desk, but I shouldn't have to.  My neighbors are in an out of their room continually, and my whole room shudders as their door slams.  The kitchen is tiny, with a two-burner electric range, instead of the typical four burners.  If you need an extended stay hotel near the medical facilities, and take into account the security concerns, this place may serve you well.  As for me, I'd rather try a Fort Worth Motel 6 before I stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r4465843-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>4465843</t>
+  </si>
+  <si>
+    <t>02/15/2006</t>
+  </si>
+  <si>
+    <t>Nice rooms, great location</t>
+  </si>
+  <si>
+    <t>The room looked brand new and it was spotless.  The $9.99 breakfast was very good and I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>February 2006</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3045,7177 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>186</v>
+      </c>
+      <c r="X21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>177</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>235</v>
+      </c>
+      <c r="X29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>243</v>
+      </c>
+      <c r="X30" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s">
+        <v>262</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" t="s">
+        <v>265</v>
+      </c>
+      <c r="K34" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s">
+        <v>267</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>273</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>274</v>
+      </c>
+      <c r="X35" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>278</v>
+      </c>
+      <c r="J36" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" t="s">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s">
+        <v>281</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s">
+        <v>129</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" t="s">
+        <v>290</v>
+      </c>
+      <c r="K38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>293</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>294</v>
+      </c>
+      <c r="X38" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>302</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>305</v>
+      </c>
+      <c r="J40" t="s">
+        <v>306</v>
+      </c>
+      <c r="K40" t="s">
+        <v>307</v>
+      </c>
+      <c r="L40" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>309</v>
+      </c>
+      <c r="O40" t="s">
+        <v>129</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" t="s">
+        <v>313</v>
+      </c>
+      <c r="K41" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" t="s">
+        <v>315</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O41" t="s">
+        <v>129</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" t="s">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s">
+        <v>320</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>321</v>
+      </c>
+      <c r="O42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>324</v>
+      </c>
+      <c r="J43" t="s">
+        <v>325</v>
+      </c>
+      <c r="K43" t="s">
+        <v>326</v>
+      </c>
+      <c r="L43" t="s">
+        <v>327</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" t="s">
+        <v>333</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>334</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>335</v>
+      </c>
+      <c r="X44" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>339</v>
+      </c>
+      <c r="J45" t="s">
+        <v>340</v>
+      </c>
+      <c r="K45" t="s">
+        <v>341</v>
+      </c>
+      <c r="L45" t="s">
+        <v>342</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>343</v>
+      </c>
+      <c r="X45" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s">
+        <v>221</v>
+      </c>
+      <c r="L46" t="s">
+        <v>349</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>334</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>352</v>
+      </c>
+      <c r="J47" t="s">
+        <v>353</v>
+      </c>
+      <c r="K47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s">
+        <v>355</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>334</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>334</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" t="s">
+        <v>372</v>
+      </c>
+      <c r="K50" t="s">
+        <v>373</v>
+      </c>
+      <c r="L50" t="s">
+        <v>374</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>375</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>376</v>
+      </c>
+      <c r="X50" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>379</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>380</v>
+      </c>
+      <c r="J51" t="s">
+        <v>381</v>
+      </c>
+      <c r="K51" t="s">
+        <v>382</v>
+      </c>
+      <c r="L51" t="s">
+        <v>383</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>368</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>384</v>
+      </c>
+      <c r="X51" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>387</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>388</v>
+      </c>
+      <c r="J52" t="s">
+        <v>389</v>
+      </c>
+      <c r="K52" t="s">
+        <v>390</v>
+      </c>
+      <c r="L52" t="s">
+        <v>391</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>392</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>393</v>
+      </c>
+      <c r="X52" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>397</v>
+      </c>
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" t="s">
+        <v>400</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>401</v>
+      </c>
+      <c r="O53" t="s">
+        <v>129</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>402</v>
+      </c>
+      <c r="X53" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>405</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>406</v>
+      </c>
+      <c r="J54" t="s">
+        <v>407</v>
+      </c>
+      <c r="K54" t="s">
+        <v>408</v>
+      </c>
+      <c r="L54" t="s">
+        <v>409</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>401</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>402</v>
+      </c>
+      <c r="X54" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>412</v>
+      </c>
+      <c r="J55" t="s">
+        <v>413</v>
+      </c>
+      <c r="K55" t="s">
+        <v>414</v>
+      </c>
+      <c r="L55" t="s">
+        <v>415</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>417</v>
+      </c>
+      <c r="X55" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>420</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>421</v>
+      </c>
+      <c r="J56" t="s">
+        <v>422</v>
+      </c>
+      <c r="K56" t="s">
+        <v>423</v>
+      </c>
+      <c r="L56" t="s">
+        <v>424</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>425</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>426</v>
+      </c>
+      <c r="X56" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>430</v>
+      </c>
+      <c r="J57" t="s">
+        <v>431</v>
+      </c>
+      <c r="K57" t="s">
+        <v>432</v>
+      </c>
+      <c r="L57" t="s">
+        <v>433</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>434</v>
+      </c>
+      <c r="X57" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>437</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>438</v>
+      </c>
+      <c r="J58" t="s">
+        <v>439</v>
+      </c>
+      <c r="K58" t="s">
+        <v>440</v>
+      </c>
+      <c r="L58" t="s">
+        <v>441</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>442</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>426</v>
+      </c>
+      <c r="X58" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>444</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>445</v>
+      </c>
+      <c r="J59" t="s">
+        <v>446</v>
+      </c>
+      <c r="K59" t="s">
+        <v>447</v>
+      </c>
+      <c r="L59" t="s">
+        <v>448</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>449</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>450</v>
+      </c>
+      <c r="X59" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>453</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>454</v>
+      </c>
+      <c r="J60" t="s">
+        <v>455</v>
+      </c>
+      <c r="K60" t="s">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s">
+        <v>457</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>449</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>458</v>
+      </c>
+      <c r="X60" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>461</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>462</v>
+      </c>
+      <c r="J61" t="s">
+        <v>463</v>
+      </c>
+      <c r="K61" t="s">
+        <v>464</v>
+      </c>
+      <c r="L61" t="s">
+        <v>465</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>466</v>
+      </c>
+      <c r="O61" t="s">
+        <v>467</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>468</v>
+      </c>
+      <c r="X61" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>471</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>472</v>
+      </c>
+      <c r="J62" t="s">
+        <v>473</v>
+      </c>
+      <c r="K62" t="s">
+        <v>474</v>
+      </c>
+      <c r="L62" t="s">
+        <v>475</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>476</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>477</v>
+      </c>
+      <c r="X62" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>480</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>481</v>
+      </c>
+      <c r="J63" t="s">
+        <v>473</v>
+      </c>
+      <c r="K63" t="s">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s">
+        <v>483</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>466</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>477</v>
+      </c>
+      <c r="X63" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>485</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>486</v>
+      </c>
+      <c r="J64" t="s">
+        <v>487</v>
+      </c>
+      <c r="K64" t="s">
+        <v>488</v>
+      </c>
+      <c r="L64" t="s">
+        <v>489</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>466</v>
+      </c>
+      <c r="O64" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>490</v>
+      </c>
+      <c r="X64" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>493</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>494</v>
+      </c>
+      <c r="J65" t="s">
+        <v>495</v>
+      </c>
+      <c r="K65" t="s">
+        <v>496</v>
+      </c>
+      <c r="L65" t="s">
+        <v>497</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>498</v>
+      </c>
+      <c r="O65" t="s">
+        <v>72</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>499</v>
+      </c>
+      <c r="X65" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>502</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>503</v>
+      </c>
+      <c r="J66" t="s">
+        <v>504</v>
+      </c>
+      <c r="K66" t="s">
+        <v>505</v>
+      </c>
+      <c r="L66" t="s">
+        <v>506</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>476</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>499</v>
+      </c>
+      <c r="X66" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>508</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>509</v>
+      </c>
+      <c r="J67" t="s">
+        <v>510</v>
+      </c>
+      <c r="K67" t="s">
+        <v>511</v>
+      </c>
+      <c r="L67" t="s">
+        <v>512</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>476</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>513</v>
+      </c>
+      <c r="X67" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>516</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>517</v>
+      </c>
+      <c r="J68" t="s">
+        <v>518</v>
+      </c>
+      <c r="K68" t="s">
+        <v>519</v>
+      </c>
+      <c r="L68" t="s">
+        <v>520</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>498</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>521</v>
+      </c>
+      <c r="X68" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>524</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>525</v>
+      </c>
+      <c r="J69" t="s">
+        <v>526</v>
+      </c>
+      <c r="K69" t="s">
+        <v>527</v>
+      </c>
+      <c r="L69" t="s">
+        <v>528</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>529</v>
+      </c>
+      <c r="X69" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>532</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>533</v>
+      </c>
+      <c r="J70" t="s">
+        <v>534</v>
+      </c>
+      <c r="K70" t="s">
+        <v>535</v>
+      </c>
+      <c r="L70" t="s">
+        <v>536</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>537</v>
+      </c>
+      <c r="X70" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>540</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>541</v>
+      </c>
+      <c r="J71" t="s">
+        <v>542</v>
+      </c>
+      <c r="K71" t="s">
+        <v>543</v>
+      </c>
+      <c r="L71" t="s">
+        <v>544</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>545</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>546</v>
+      </c>
+      <c r="X71" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>549</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>550</v>
+      </c>
+      <c r="J72" t="s">
+        <v>551</v>
+      </c>
+      <c r="K72" t="s">
+        <v>552</v>
+      </c>
+      <c r="L72" t="s">
+        <v>553</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>545</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>546</v>
+      </c>
+      <c r="X72" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>555</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>556</v>
+      </c>
+      <c r="J73" t="s">
+        <v>557</v>
+      </c>
+      <c r="K73" t="s">
+        <v>558</v>
+      </c>
+      <c r="L73" t="s">
+        <v>559</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>560</v>
+      </c>
+      <c r="O73" t="s">
+        <v>467</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>546</v>
+      </c>
+      <c r="X73" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>562</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>563</v>
+      </c>
+      <c r="J74" t="s">
+        <v>564</v>
+      </c>
+      <c r="K74" t="s">
+        <v>565</v>
+      </c>
+      <c r="L74" t="s">
+        <v>566</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>567</v>
+      </c>
+      <c r="O74" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>568</v>
+      </c>
+      <c r="X74" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>571</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>572</v>
+      </c>
+      <c r="J75" t="s">
+        <v>573</v>
+      </c>
+      <c r="K75" t="s">
+        <v>574</v>
+      </c>
+      <c r="L75" t="s">
+        <v>575</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>560</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>576</v>
+      </c>
+      <c r="X75" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>579</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>580</v>
+      </c>
+      <c r="J76" t="s">
+        <v>581</v>
+      </c>
+      <c r="K76" t="s">
+        <v>582</v>
+      </c>
+      <c r="L76" t="s">
+        <v>583</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>567</v>
+      </c>
+      <c r="O76" t="s">
+        <v>129</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>576</v>
+      </c>
+      <c r="X76" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>585</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>586</v>
+      </c>
+      <c r="J77" t="s">
+        <v>587</v>
+      </c>
+      <c r="K77" t="s">
+        <v>588</v>
+      </c>
+      <c r="L77" t="s">
+        <v>589</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>590</v>
+      </c>
+      <c r="O77" t="s">
+        <v>129</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>591</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>592</v>
+      </c>
+      <c r="J78" t="s">
+        <v>593</v>
+      </c>
+      <c r="K78" t="s">
+        <v>594</v>
+      </c>
+      <c r="L78" t="s">
+        <v>595</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>590</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>596</v>
+      </c>
+      <c r="X78" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>599</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>600</v>
+      </c>
+      <c r="J79" t="s">
+        <v>601</v>
+      </c>
+      <c r="K79" t="s">
+        <v>602</v>
+      </c>
+      <c r="L79" t="s">
+        <v>603</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>590</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>604</v>
+      </c>
+      <c r="X79" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>607</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>608</v>
+      </c>
+      <c r="J80" t="s">
+        <v>609</v>
+      </c>
+      <c r="K80" t="s">
+        <v>610</v>
+      </c>
+      <c r="L80" t="s">
+        <v>611</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>612</v>
+      </c>
+      <c r="O80" t="s">
+        <v>72</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>613</v>
+      </c>
+      <c r="X80" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>616</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>617</v>
+      </c>
+      <c r="J81" t="s">
+        <v>618</v>
+      </c>
+      <c r="K81" t="s">
+        <v>619</v>
+      </c>
+      <c r="L81" t="s">
+        <v>620</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>621</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>622</v>
+      </c>
+      <c r="X81" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>625</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>626</v>
+      </c>
+      <c r="J82" t="s">
+        <v>627</v>
+      </c>
+      <c r="K82" t="s">
+        <v>628</v>
+      </c>
+      <c r="L82" t="s">
+        <v>629</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>612</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>630</v>
+      </c>
+      <c r="X82" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>633</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>634</v>
+      </c>
+      <c r="J83" t="s">
+        <v>635</v>
+      </c>
+      <c r="K83" t="s">
+        <v>636</v>
+      </c>
+      <c r="L83" t="s">
+        <v>637</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>638</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>639</v>
+      </c>
+      <c r="X83" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>642</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>643</v>
+      </c>
+      <c r="J84" t="s">
+        <v>644</v>
+      </c>
+      <c r="K84" t="s">
+        <v>645</v>
+      </c>
+      <c r="L84" t="s">
+        <v>646</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>638</v>
+      </c>
+      <c r="O84" t="s">
+        <v>72</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>647</v>
+      </c>
+      <c r="X84" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>650</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>651</v>
+      </c>
+      <c r="J85" t="s">
+        <v>652</v>
+      </c>
+      <c r="K85" t="s">
+        <v>653</v>
+      </c>
+      <c r="L85" t="s">
+        <v>654</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>655</v>
+      </c>
+      <c r="O85" t="s">
+        <v>129</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>656</v>
+      </c>
+      <c r="X85" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>659</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>660</v>
+      </c>
+      <c r="J86" t="s">
+        <v>661</v>
+      </c>
+      <c r="K86" t="s">
+        <v>662</v>
+      </c>
+      <c r="L86" t="s">
+        <v>663</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>664</v>
+      </c>
+      <c r="O86" t="s">
+        <v>129</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>656</v>
+      </c>
+      <c r="X86" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>666</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>667</v>
+      </c>
+      <c r="J87" t="s">
+        <v>668</v>
+      </c>
+      <c r="K87" t="s">
+        <v>669</v>
+      </c>
+      <c r="L87" t="s">
+        <v>670</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>671</v>
+      </c>
+      <c r="O87" t="s">
+        <v>72</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>656</v>
+      </c>
+      <c r="X87" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>673</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>674</v>
+      </c>
+      <c r="J88" t="s">
+        <v>675</v>
+      </c>
+      <c r="K88" t="s">
+        <v>676</v>
+      </c>
+      <c r="L88" t="s">
+        <v>677</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>678</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>679</v>
+      </c>
+      <c r="X88" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>682</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>683</v>
+      </c>
+      <c r="J89" t="s">
+        <v>684</v>
+      </c>
+      <c r="K89" t="s">
+        <v>685</v>
+      </c>
+      <c r="L89" t="s">
+        <v>686</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>671</v>
+      </c>
+      <c r="O89" t="s">
+        <v>129</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>679</v>
+      </c>
+      <c r="X89" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>688</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>689</v>
+      </c>
+      <c r="J90" t="s">
+        <v>690</v>
+      </c>
+      <c r="K90" t="s">
+        <v>691</v>
+      </c>
+      <c r="L90" t="s">
+        <v>692</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>693</v>
+      </c>
+      <c r="O90" t="s">
+        <v>72</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>679</v>
+      </c>
+      <c r="X90" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>695</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>696</v>
+      </c>
+      <c r="J91" t="s">
+        <v>690</v>
+      </c>
+      <c r="K91" t="s">
+        <v>697</v>
+      </c>
+      <c r="L91" t="s">
+        <v>698</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>699</v>
+      </c>
+      <c r="O91" t="s">
+        <v>72</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>679</v>
+      </c>
+      <c r="X91" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>701</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>702</v>
+      </c>
+      <c r="J92" t="s">
+        <v>703</v>
+      </c>
+      <c r="K92" t="s">
+        <v>704</v>
+      </c>
+      <c r="L92" t="s">
+        <v>705</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>706</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>707</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>708</v>
+      </c>
+      <c r="J93" t="s">
+        <v>709</v>
+      </c>
+      <c r="K93" t="s">
+        <v>710</v>
+      </c>
+      <c r="L93" t="s">
+        <v>711</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>706</v>
+      </c>
+      <c r="O93" t="s">
+        <v>65</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>712</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>713</v>
+      </c>
+      <c r="J94" t="s">
+        <v>714</v>
+      </c>
+      <c r="K94" t="s">
+        <v>715</v>
+      </c>
+      <c r="L94" t="s">
+        <v>716</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>717</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>718</v>
+      </c>
+      <c r="J95" t="s">
+        <v>719</v>
+      </c>
+      <c r="K95" t="s">
+        <v>720</v>
+      </c>
+      <c r="L95" t="s">
+        <v>721</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>722</v>
+      </c>
+      <c r="O95" t="s">
+        <v>72</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>724</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>725</v>
+      </c>
+      <c r="J96" t="s">
+        <v>726</v>
+      </c>
+      <c r="K96" t="s">
+        <v>727</v>
+      </c>
+      <c r="L96" t="s">
+        <v>728</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>722</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>730</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>731</v>
+      </c>
+      <c r="J97" t="s">
+        <v>732</v>
+      </c>
+      <c r="K97" t="s">
+        <v>733</v>
+      </c>
+      <c r="L97" t="s">
+        <v>734</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>735</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>736</v>
+      </c>
+      <c r="J98" t="s">
+        <v>737</v>
+      </c>
+      <c r="K98" t="s">
+        <v>738</v>
+      </c>
+      <c r="L98" t="s">
+        <v>739</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>740</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>741</v>
+      </c>
+      <c r="J99" t="s">
+        <v>742</v>
+      </c>
+      <c r="K99" t="s">
+        <v>743</v>
+      </c>
+      <c r="L99" t="s">
+        <v>744</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>745</v>
+      </c>
+      <c r="O99" t="s">
+        <v>65</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>747</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>748</v>
+      </c>
+      <c r="J100" t="s">
+        <v>749</v>
+      </c>
+      <c r="K100" t="s">
+        <v>750</v>
+      </c>
+      <c r="L100" t="s">
+        <v>751</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>745</v>
+      </c>
+      <c r="O100" t="s">
+        <v>72</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>752</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>753</v>
+      </c>
+      <c r="J101" t="s">
+        <v>754</v>
+      </c>
+      <c r="K101" t="s">
+        <v>755</v>
+      </c>
+      <c r="L101" t="s">
+        <v>756</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>745</v>
+      </c>
+      <c r="O101" t="s">
+        <v>72</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>758</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>759</v>
+      </c>
+      <c r="J102" t="s">
+        <v>760</v>
+      </c>
+      <c r="K102" t="s">
+        <v>761</v>
+      </c>
+      <c r="L102" t="s">
+        <v>762</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>763</v>
+      </c>
+      <c r="O102" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>764</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>765</v>
+      </c>
+      <c r="J103" t="s">
+        <v>766</v>
+      </c>
+      <c r="K103" t="s">
+        <v>767</v>
+      </c>
+      <c r="L103" t="s">
+        <v>768</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>769</v>
+      </c>
+      <c r="O103" t="s">
+        <v>52</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>771</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>772</v>
+      </c>
+      <c r="J104" t="s">
+        <v>773</v>
+      </c>
+      <c r="K104" t="s">
+        <v>774</v>
+      </c>
+      <c r="L104" t="s">
+        <v>775</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>776</v>
+      </c>
+      <c r="O104" t="s">
+        <v>72</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>778</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>779</v>
+      </c>
+      <c r="J105" t="s">
+        <v>780</v>
+      </c>
+      <c r="K105" t="s">
+        <v>781</v>
+      </c>
+      <c r="L105" t="s">
+        <v>782</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>783</v>
+      </c>
+      <c r="O105" t="s">
+        <v>72</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>785</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>786</v>
+      </c>
+      <c r="J106" t="s">
+        <v>787</v>
+      </c>
+      <c r="K106" t="s">
+        <v>788</v>
+      </c>
+      <c r="L106" t="s">
+        <v>789</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>790</v>
+      </c>
+      <c r="O106" t="s">
+        <v>52</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>792</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>793</v>
+      </c>
+      <c r="J107" t="s">
+        <v>794</v>
+      </c>
+      <c r="K107" t="s">
+        <v>795</v>
+      </c>
+      <c r="L107" t="s">
+        <v>796</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>797</v>
+      </c>
+      <c r="O107" t="s">
+        <v>52</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>798</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>799</v>
+      </c>
+      <c r="J108" t="s">
+        <v>800</v>
+      </c>
+      <c r="K108" t="s">
+        <v>801</v>
+      </c>
+      <c r="L108" t="s">
+        <v>802</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>803</v>
+      </c>
+      <c r="O108" t="s">
+        <v>52</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>805</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>806</v>
+      </c>
+      <c r="J109" t="s">
+        <v>807</v>
+      </c>
+      <c r="K109" t="s">
+        <v>808</v>
+      </c>
+      <c r="L109" t="s">
+        <v>809</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>810</v>
+      </c>
+      <c r="O109" t="s">
+        <v>52</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>812</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>813</v>
+      </c>
+      <c r="J110" t="s">
+        <v>814</v>
+      </c>
+      <c r="K110" t="s">
+        <v>815</v>
+      </c>
+      <c r="L110" t="s">
+        <v>816</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>817</v>
+      </c>
+      <c r="O110" t="s">
+        <v>65</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>818</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>819</v>
+      </c>
+      <c r="J111" t="s">
+        <v>820</v>
+      </c>
+      <c r="K111" t="s">
+        <v>821</v>
+      </c>
+      <c r="L111" t="s">
+        <v>822</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>823</v>
+      </c>
+      <c r="O111" t="s">
+        <v>52</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>2</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>22120</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>825</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>826</v>
+      </c>
+      <c r="J112" t="s">
+        <v>827</v>
+      </c>
+      <c r="K112" t="s">
+        <v>828</v>
+      </c>
+      <c r="L112" t="s">
+        <v>829</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>830</v>
+      </c>
+      <c r="O112" t="s">
+        <v>52</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="s"/>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>829</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_657.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_657.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="942">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>SeaRover1</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>I recently completed a 10 week working stay at this property. I was put here by my company with a large group, and we had no option to choose our lodging. -The upside to this hotel is it's proximity to Love Field and Downtown. And the rooms were large, clean, and well suited to a long term business stay.-The downside is it is a bit noisy being so close to the freeway, and there's no restaurant or bar. However, they do put out a good breakfast every morning, and a few days a week they they serve up evening nosh with beer and wine. The reason I'm giving this place 5 stars is the staff. ALL of the employees working there are fantastic!  I'm a light sleeper and asked to be moved to a more quiet part of the hotel. Crystal at the front desk did her best to move me to a quiet room and even arranged to have my luggage moved for me while I was at work.One particular standout was Stephanie. We became fast friends and she was fantastic in helping me and our crew with requests, and making sure that my stay was as enjoyable as possible.I do apologize for not mentioning everyone's names here, but again ALL of the staff were friendly and accommodating. I would recommend this hotel for business travel, as the staff made all the difference.More</t>
   </si>
   <si>
+    <t>suzanne9209</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r564723995-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>We had an early flight to Love Field and this property was fine for our needs. It is the old style where rooms are grouped in pods and separate from each other. You have to walk outside to get to the lobby. We were surprised to see the pool cleaned out and ready to go in early March. It was too cold to swim, but lovely to see outside poolside. Though the highway runs right next to the building, I did not think it was too noisy. We had to leave at 5 a.m., so we didn't get to try the breakfast. I was a little disappointed that they didn't have any kind of light to go breakfast for early travelers. I would expect that at an airport location. The coffee was not good. All in all, I would stay here again.More</t>
   </si>
   <si>
+    <t>Charlet E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r559797604-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Michelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r551772873-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Sandy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r541198189-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Odcoyote5456</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r536048434-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>The room was nice and so were the staff. The continental breakfast was good. There was a dance troupe there, but still plenty of food. The negatives are that we were on the third floor and the elevator never worked. We had to carry all of our suitcases up and down plus coming and going. There was no lotion in our room and the hotel didn't have any. They had to go across to their other hotel, to get some.More</t>
   </si>
   <si>
+    <t>NeilRocks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r505992425-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>mgfendley2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r503330478-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>We stayed with you from June 19 to June 24 we had a wonderful time at your hotel,your staff was wonderful starting with Valerie at the front desk and Silas at the front desk both went out of there way to help us with all our questions. Avrelia greeted us every morning with a smile and did a great job with breakfast which was terrific, then there was Jose the maintence man who went out of his way when the TV would not work. you should be proud of your lovely hotel and the people who work for the hotel,thanks Hank and Michelle you both made Mary and I feel at home looking forward to seeing everyone in January. We looked forward every night to getting into the pool and relaxing and enjoy the other people around the pool, very convenient to the hwy if you had to go anywhere. Glenn and MaryMore</t>
   </si>
   <si>
+    <t>sjwright</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r492330663-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>I stayed at this hotel for four weeks.  It is an older extended stay hotel near the medical district.   The unit was average one bedroom, living room, kitchen and bathroom.  The appliances nice and the kitchen was stocked with everything I needed.   The staff are very friendly and helpful.  The hotel is located near the medical district and major highways which attracts homeless people.  The hotel has done a good job keeping the area safe with gated parking.  The pool was nice.  I sat by the pool while waiting for my laundry.   For a quiet room request a room far from the freeway.   There were plenty restaurants within 10 minutes.More</t>
   </si>
   <si>
+    <t>henry c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r483623871-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t xml:space="preserve">I would like to personally thank the lady who makes the breakfast, she is so polite and makes a very nice and fresh variety of different types of food and fresh fruit to choose from. We come back to this establishment 2-3 times a year to take my father in law to UT Southwestern and the location is perfect to avoid the traffic congestion. The rooms are comfortable and equipped with the amenities for extended stay. </t>
   </si>
   <si>
+    <t>MisterGrace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r480349684-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>Pros: Convenient if you are working or need to be in that particular area; comfortable rooms; elevators...however...Cons:* Rooms open to the outside* There are eight or so buildings and each building has a courtyard of sorts in the center with all of the rooms opening to the outside. Although there is only one entryway to each building, safety is a concern because this hotel is located in not-so-safe part of the city* If you are on the side of I-35 be prepared for noise* The TV in the bedroom was preposterously small (~17")* Breakfast was just okayI cannot recommend this hotel.More</t>
   </si>
   <si>
+    <t>Samantha S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r477479297-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>The location was right off 35 which made it super easy to get places. The property was up to par overall, but no safe in the rooms which made me hesitant. Overall the stay and the venue was really nice. I could not find an elevator to get to the higher floors.More</t>
   </si>
   <si>
+    <t>Christine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r468158243-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>This hotel is located right on the highway and the traffic is so loud. We were put on the side that sits facing highway it was so loud you could hear inside the room. Didn't get much sleep between the traffic  noise and sirens!  I did request early check-in and did get that . I asked if I could switch rooms away from highway thinking early enough in the day to get that. They told me sold out hotel already at 1:45 pm.  Rooms were a mix of updates and old furniture. The hotel was not completely remodeled in 2015 as it stated. We had the oldest dishwasher in our room and old cabinets. Not a complete remodel, but some updates. Walls dirty and could use a good deep cleaning !! The TV's were tiny! The breakfast was good a nice variety! 3 hot items to choose from. Your  typical oatmeal, cereals, waffles, bagels, wheat bread, English muffins, yogurt. No muffins or doughnuts. I liked that they offered soy milk since I don't drink milk. All in all okay for a 1 night stay. You'd be sleep deprived if you stayed longer!! Pool is not heated so I doubt it gets used at all!More</t>
   </si>
   <si>
+    <t>bt70nyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r465183597-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -459,6 +501,9 @@
     <t>I have stayed at quite a few Residences. This one is well kept,clean and has a nice decor in the rooms. No over powering cleaners or odors. The happy hour is a little strange. Red beans and rice, French bread, cheese, taco chips and beer!!  Parking is all around the buildings making it difficult to find the suite.  All in all a decent hotel.</t>
   </si>
   <si>
+    <t>LittleIsland2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r461429053-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -486,6 +531,9 @@
     <t>Check in was easy. Arrived in the room and after 30 minutes found ants in the kitchen and bathroom. Front desk moved us to a room next door. No mentioned of reducing the price for the one night stay. Room was located opposite a highway so did not have a good night sleep on account of truck traffic.More</t>
   </si>
   <si>
+    <t>Joel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r444918068-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +552,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>gisjac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r442923680-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -522,6 +573,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>LisaWyatt1269</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r442887506-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -534,6 +588,9 @@
     <t>The hotel staff was friendly especially the woman who maintained the breakfast.  They were working on/painting stairs by my room outside and it smelled really bad whenever I opened my door.  I was not a fan of the location but as I said the staff was very nice.</t>
   </si>
   <si>
+    <t>TinkerWinker2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r420621210-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -561,6 +618,9 @@
     <t>They first tried to put me in an "outside" room, but the area seemed kinda sketchy and I didn't feel safe as there wasn't much security to speak of so I requested a room inside the building.  They acted kind of snooty about it as "the inside rooms are reserved for long-term guests only" but miraculously they had ONE (handi-capped accessible) room left that I could have inside.  I took this room and it was fine, but not up to the standards of any of the other Marriott Residence Inn properties I have experienced.  This is one of my favorite hotel chains, but this particular hotel seems more in line with Super 8 or Motel 6.  If you are searching based only on price, it is a decent value compared to other Dallas-area hotels, but if you are used to the nicer versions of Marriott Residence Inn properties, you will not be satisfied with this Motel.More</t>
   </si>
   <si>
+    <t>Waxwing54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r420156765-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -582,6 +642,9 @@
     <t>Although conveniently located, this hotel sits aside a very busy highway, and is somewhat difficult to negotiate due to the one-way roadway that runs along the side of the highway. If you are unlucky enough to get a room near this highway, the traffic noise is at best annoying, at worse enough to keep you awake.The exterior is somewhat rundown, the pool is ok; clean but worn, and although breakfast is included it is not a bargain in any way.The food served or breakfast is sub-par; what tastes like powdered eggs, canned fruit (some fresh cantaloupe, but only one out of three days) mealy croissants, and greasy sausages. There were also cereals, cheeses (only one day) a limited assortment of yogurts, waffles and breakfast meats. This breakfast paled in comparison with other Marriott breakfasts that are included in the stay - by a long shot. Our room was clean, the space was acceptable, all of the appliances worked, the shower was good, the bed very comfortable. House keeping was swift. We had a very small issue with our door not opening easily, and that was fixed immediately. More</t>
   </si>
   <si>
+    <t>Sony_Baio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r418156670-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -597,6 +660,9 @@
     <t>You can fell like home here. People very kind and warm. Good meals and comfortable suites. Parking near your building. Pool, gym and other amenities. Rooms have their own equiped kitchen with fridge,microwave, coffee maker. You can cook and save meals money.</t>
   </si>
   <si>
+    <t>dancingvolleyballmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r414979953-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -612,6 +678,9 @@
     <t xml:space="preserve">This is a nice hotel with multiple low rise buildings. The staff here could not be more accommodating.  Very helpful and friendly. Clean, close to DFW AND LOVE field. We went to football game in ATT stadium and its a bit of a drive but there is not much in Arlington. As we know from experience. Anyway I recommend the hotel highly </t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r414371420-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -633,6 +702,9 @@
     <t>I was in the Dallas area for business and stayed at this hotel.  Checkin was easy with the new app.  I showed up and my key was waiting for me. Room was clean and nicely cooled. The next day I let the front desk know the tub was slowly draining during she wear, the staff apologized and later that night when I returned it was fixed.  While I was there, the hotel was changing out / upgrading the wireless internet .  My room was not connecting, so after an have ur of working out n the problem, they quickly moved me to another room and assisted in My  all my items.  The morning and evening food service was good, plenty and tasty. The staff was a pleasure to talk with especially the Engineer Manager.  If I am back in the area again, I will return.More</t>
   </si>
   <si>
+    <t>Andrew G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r413886792-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,6 +729,9 @@
     <t>This motel is ok.  The staff are super nice and the place is relatively clean.  It's very dated though, and in a mediocre location.  I generally like places where I can get out and walk- not recommended here unless you do laps around the motel.  It's located on a one way frontage road near the interstate, so a pain to get to if coming from the wrong direction.  The room itself was clean, but dated.  I would've had a nice view of the pool area except the seal on the window was bad, so all I saw was condensation.  The remote in the living area turns on the tv in the bedroom as well, so make sure and mute that or you'll be listening to both TVs.  I don't see any good way to get by without a car here.  It wasn't terrible, but I'll probably look for a place in a bit better area next time.More</t>
   </si>
   <si>
+    <t>157terrybrown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r407597860-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,6 +747,9 @@
     <t>I stayed at this location for two and half weeks and the staff here was great in helping with any thing that I needed.  They went over and above to ensure that all needs were met and that the group I was with had everything needed for working on the projects that we needed to accomplish.</t>
   </si>
   <si>
+    <t>dcoello53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r406403114-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -690,6 +768,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>olivia91711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r404353534-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -708,6 +789,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>monica_k840</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r384067676-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -732,6 +816,9 @@
     <t>I stayed here because of the very good reviews.  But, my room was smelly of cigarette smoke (non-smoking room) and mildew/moisture. When I finally lied down to sleep, I kept getting wafts of mildewy, sour aroma.Another feature that was not readily apparent from the description or the reviews,  is that this complex is made up of numerous "apartment " buildings,  instead of being all one structure.  This makes it seem more like an apartment complex instead of a hotel. For long stays, this is probably an added feature.  Hopefully  other patrons have nicer rooms. More</t>
   </si>
   <si>
+    <t>Baggio F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r379517149-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -756,6 +843,9 @@
     <t>I am a government employee and went for a symposium in UT Southwestern and was amazed by the excellent service of the staff at the hotel! I especially would like to acknowledge that Laneysa and Ling went above and beyond in making myself and my family feel right at home the entire time! have never met hotel staff like the two of them. Thank you both so much for everything!  I will definitely come back again.More</t>
   </si>
   <si>
+    <t>ALAMOCITYBOY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r373209683-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -774,6 +864,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Tergopol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r369065410-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -792,6 +885,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>91th0masa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r368867996-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -807,6 +903,9 @@
     <t>Easily booked with my Marriott Rewards account IPhone app. Hotel the airline gave voucher for was full. Quick Uber ride from airport and smooth checkin. Rooms large, clean and comfortable. Staff was friendly and helpful.  I would suggest this hotel for business or family!</t>
   </si>
   <si>
+    <t>LostTxAggie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r368569740-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -822,6 +921,9 @@
     <t xml:space="preserve">We had a medical appointment at UT Southwestern. This was convenient to the doctor and easy access to restaurants. I wish the handicap Suite had a way to block the bedroom from the rest of the suite, but the handicap features were very accommodating. </t>
   </si>
   <si>
+    <t>Tyler M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r357836880-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -849,6 +951,9 @@
     <t>Amazing!! Friendly staff, great WARM breakfast every morning, free happy hour Monday-Wednesday, close to downtown.. It was perfect for my two week business trip!Would definitely stay again! Can't beat it!!More</t>
   </si>
   <si>
+    <t>Thom P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r356920203-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -862,6 +967,9 @@
   </si>
   <si>
     <t>Always has been and still is a great place to stay.  Tucked in by the freeway.  Hard to see coming from the airport.  Lots of free parking.  Best to have a car of your own as there is not a lot in the immediate area.  However, they have good manager evening events (Monday to Wednesday) and breakfast daily.  Also have good shuttle service to restaurants and other sites.  I have always gotten a quiet and nicely appointed room on an upstairs floor.</t>
+  </si>
+  <si>
+    <t>StefanTC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r356618264-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -890,6 +998,9 @@
 While getting ready Saturday morning, I found several strands of hair on the floor, in the corner by the tub. I figured with the shade of brown it was difficult to see but I figured housekeeping would have at least cleaned/mopped the floor when they refreshed the room. I came back later that day after the refresh and the hair was in the same spot....I spent last weekend at this property. The first thing that struck me is how friendly, polite and professional everyone is. Check in was quick and I'd requested some extra towels since it was three of us and they gave me fresh towels from the dryer so I wouldn't have to call.The room was standard for Residence Inn but fully updated with decor and appliances. The room was clean and refreshed and the bathroom also (so I thought, more on that later). The bed was super comfortable and I also opened the sofa bed and tried it out. It was remarkably comfortable also. I requested a room in the back of the property, away from 35 so I wouldn't have to deal with the noise. The rooms are all exterior doors but you must have key access to get into the parking lot. That extra level of security was appreciated. Breakfast was your standard breakfast - eggs, sausage, waffles, fruit, different breads and pastries. The breakfast attendant both morning was so friendly and hospitable. While getting ready Saturday morning, I found several strands of hair on the floor, in the corner by the tub. I figured with the shade of brown it was difficult to see but I figured housekeeping would have at least cleaned/mopped the floor when they refreshed the room. I came back later that day after the refresh and the hair was in the same spot. Housekeeping didn't do a good job on two occasions. Despite that, this is a great property and a good location if you need to be between downtown Dallas and NW Dallas. There are several restaurants just to the north and south of the hotel off I35.More</t>
   </si>
   <si>
+    <t>pikake1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r352507459-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1028,9 @@
     <t>We have stayed in many different types of Marriott Hotels. This was the first time in a Residence Inn. Rooms were comfortable, clean and well stocked with toiletries. We really liked it because it had a full kitchen which was very convenient. It even had a many dishwasher.There was a fireplace which was a nice touch although we didn't use it.Check in and out was smooth. Front desk staff were extremely helpful with suggestions on restaurants, shopping, and attractions. They even printed out a map for us. Breakfast in the morning was delicious. They even had waffles shaped like the state of Texas. More</t>
   </si>
   <si>
+    <t>SoloTrav W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r337007329-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -938,6 +1052,9 @@
     <t>The property is well maintained and pet-friendly. The room is spacious and clean with new appliances. The staff are friendly, very accommodating and helpful. The only problem I encountered during multiple week-long stays at this hotel was noise from the highway during one stay but you can request room away from highway if you're a light sleeper. Breakfast is good and the lady in breakfast room greets you very cheerfully every morning, makes your dull work days a little better :) I think if they switch the breakfast menu around a little bit, that would be nice because I had the same food every morning for 8 days each stay.More</t>
   </si>
   <si>
+    <t>amberr327</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r335974063-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -959,6 +1076,9 @@
     <t>We stayed here over the Thanksgiving holiday with our two dogs. I am a Marriott rewards member, and try to stay Residence Inn everytime I travel with my dogs. The room was clean and as expected with all Residence Inns. The perk to this location is that they do offer king size beds. The location of this place is convenient, but tricky to get to if you are coming from the opposite side of I35. The breakfast was good, but unfortunately they ran out 2 of the days I was there due to all of the people staying. The housekeepers only cleaned our room once when I asked her to (this might have been our fault, I'm unsure if it is serviced by request only). You can hear some traffic noise, but it wasn't overwhelming. We would definitely stay here again because of the king bed and location!More</t>
   </si>
   <si>
+    <t>Peggles1954</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r325531713-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -974,6 +1094,9 @@
     <t>Great clean spacious room. Breakfast was different and wonderful every morning. The staff was the BEST. We stayed three nights and it was like leaving new friends. Will would use this location again if in the Dallas area.   THANKS to Caz, William, Tracy and Michelle for making our stay a true family friendly experience.</t>
   </si>
   <si>
+    <t>Debra-Lynne T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r324399166-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -995,6 +1118,9 @@
     <t>The most positive aspect of our stay was the friendly, welcoming staff.  The manager circulated through the breakfast area each morning to greet guests, as well as ask if there were any problems to be addressed.  We had a problem with insect bites from our room stay the night before and she sent out the staff with insecticide right away.   There is standing water in close proximity to the property which is attractive to mosquitoes.  The property is also pet-friendly so we may have also been bitten by some fleas.  The bites subsided after the room was sprayed.  Although we weren't thrilled with the bites, the quick response by management was appreciated.   We were also given bonus Hilton Honors points for the inconvenience.More</t>
   </si>
   <si>
+    <t>bradyduo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r318382583-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1013,6 +1139,9 @@
     <t>I always choose the Residence Inn of all Marriott brands because of the convenience of a roomier accommodation, a kitchenette and a living room with a pull-out couch. But this one is tops! Everyone in the hotel are so friendly and would go out of their way to help you with your needs: from the front desk to the dining room attendants, to the guys who drive the shuttle, all the way to the cleaning people. They do it with a smile and grace that they make you feel so welcome, it is such a home away from home.  The place is pristine, clean without the nasty smell of cleaning supplies- I do not know how they do it. My room seems all brand new, the bathroom shower curtains even smell and feel like they just changed it the day I arrived. Since I am such a Marriott fan, I am hoping to have the same experience in my next travel- wherever that might be. Kudos to everyone in this hotel!More</t>
   </si>
   <si>
+    <t>R S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r304114905-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1169,9 @@
     <t>This is the typical Residence Inn, that is multi-buildings spread out. The hotel was clean and the staff was friendly and helpful. Biggest problem with this hotel is the surrounding area. This hotel is not in the best area, anything you may need (groceries, personal items, food, beverages) you should bring with you as there is not a lot in this area. You don't want to venture around this area at night. Pool was clean and well kept, breakfast was good. Breakfast staff was really the shining star for this property.More</t>
   </si>
   <si>
+    <t>AP_Hyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r303832058-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1196,9 @@
     <t>Just as every Residence Inn it is has all basic stuff.As soon as I got in half the utensils were missing. Had to ask them which was delivered quite late.Ants did trouble us a bit. Kitchen for a 1 Bedroom Suite was way too small.We asked for Dishwasher Liquid, answer was they don't have. Microwave bowls they don't have.We had to ask the Cleaners to refill our stocks like soap, shampoo each time, they never did it.In all other Marriotts, they give you extra so that you needn't ask them. Noise level is too High as it too near to highway and not sure there is  train station or not, but could hear loud sound of trains more than often.Only good thing is they do shuttle service to Downtown even though it is more than 5 milesMore</t>
   </si>
   <si>
+    <t>Brittany T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r302699220-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1214,9 @@
     <t>Went to visit family for a few days. Location wise it was close to the DFW Airport which was convenient. Parking lot was kind of small though. Room was great and spacious. Loved that there was a divider from the bedroom and living space and that there were 2 TV's instead of 1. Had a Jack &amp; Jill door for the bathroom which was nice. Ice machine in the freezer took awhile to produce ice, literally had to leave it on the entire stay so I had enough ice for drinks, no point in buying ice if there was an ice maker in the room. Breakfast set-up was organized and clean, breakfast attendant was sweet, kind and offered assistance with breakfast items. Front desk was helpful and loved that I was near the front desk and in the same building as breakfast. Top floor , near the elevator was convenient and loved that I didn't have any neighbors near me. A/C was on most of the time when I was in the room because TX heat is no joke. Had a huge window view of the pool area which was beautiful. Staff at the front desk were nice and friendly. In the room was a folder that was helpful if you're new to the area, things around you, how everything in the hotel works and if you needed anything front desk was always there to assist with my needs. Overall...Went to visit family for a few days. Location wise it was close to the DFW Airport which was convenient. Parking lot was kind of small though. Room was great and spacious. Loved that there was a divider from the bedroom and living space and that there were 2 TV's instead of 1. Had a Jack &amp; Jill door for the bathroom which was nice. Ice machine in the freezer took awhile to produce ice, literally had to leave it on the entire stay so I had enough ice for drinks, no point in buying ice if there was an ice maker in the room. Breakfast set-up was organized and clean, breakfast attendant was sweet, kind and offered assistance with breakfast items. Front desk was helpful and loved that I was near the front desk and in the same building as breakfast. Top floor , near the elevator was convenient and loved that I didn't have any neighbors near me. A/C was on most of the time when I was in the room because TX heat is no joke. Had a huge window view of the pool area which was beautiful. Staff at the front desk were nice and friendly. In the room was a folder that was helpful if you're new to the area, things around you, how everything in the hotel works and if you needed anything front desk was always there to assist with my needs. Overall a pleasant stay and I enjoyed every minute of it.More</t>
   </si>
   <si>
+    <t>Christine S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r301636068-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1097,6 +1235,9 @@
     <t>I was excited to find this hotel with a full kitchen and separate living/bedroom with a pull out couch. Then, I read some not so awesome reviews right before our trip and was worried. Let me tell you...they are either out of date or bogus! This has been an over the top spectacular experience for my family. Monday-Wednesday I was surprised by a free dinner/drinks that really cut down on costs for us, as well as added a little extra flare to the stay. The breakfasts are different every day and delicious!!  BUT, none of that compares to the outstanding customer service by all the staff, ranging from bringing fresh warm towels to my littles after a chilly morning swim to running to get bandages and ointment for one of mine who scrapes his knees on the parking lot after a fall, to simply asking what else they can do for us all the time. I feel like these people are family now. My kids keep calling the hotel "home." Lol needless to say, we'll be back!More</t>
   </si>
   <si>
+    <t>Robin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r298970864-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1254,9 @@
   </si>
   <si>
     <t>My husband was in town for a business trip and our 13-month-old twins and I tagged along to visit family.  We had requested 2 cribs in our reservation, and the staff upgraded us to a two bedroom unit to make sure we had enough room.  The set up was perfect for us.  We could put the girls down in their own room and still be up in the living area and other bedroom with the lights and TV without waking them.  The fridge and dishwasher were great for food and washing bottles and sippy cups.  I often had the girls by myself at breakfast, and a staff person would often entertain them so I could get us food.  One day I forgot to take the "do not disturb" sign off of the door.  I remembered late in the day and called to let them know.  Even though it was late, someone from housekeeping promptly cleaned our room.  The only negatives about the hotel were it was a strange part of town (which doesn't really matter if you have a car) and the wifi was spotty.  This hotel very much met our needs as a family with young kids, and I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>toniaconsole</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r297276844-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -1140,6 +1284,9 @@
 During my stay I ran into two issues: my ceiling leaked at one point, and I ended up with a roach in my room on one occasion. The hotel staff was VERY attentive to these issues and had the leak fixed and sprayed for insects shortly after both complaints. Also, it can be tough to get around without a car because the hotel isn't within walking distance of any real restaurants or other venues, but during the day you can sign up for a shuttle...I was in Texas for an internship this summer, and greatly enjoyed my stay. The staff were incredibly friendly (despite there being a lot of guests present at the time of my stay, they still were able to address me by name shortly after my arrival), and were very attentive to any requests or suggestions. Air conditioning worked great, bed was comfortable, and the amenities were solid (a full fridge, standard array of pots/pans/silverware, stove, microwave, and dishwasher make cooking a breeze - there wasn't an oven, but it's not hard to work around that). Lots of services like grocery store trips (or a "Fill My Fridge" service where they shop for you!) are available and very convenient. Gym is a little small, but the equipment they do have is very well kept, up-to-date, and clean. Lovely pool area with grills you can use and a half-basketball court are nice touches for evening entertainment too. During my stay I ran into two issues: my ceiling leaked at one point, and I ended up with a roach in my room on one occasion. The hotel staff was VERY attentive to these issues and had the leak fixed and sprayed for insects shortly after both complaints. Also, it can be tough to get around without a car because the hotel isn't within walking distance of any real restaurants or other venues, but during the day you can sign up for a shuttle to take you anywhere you need to go within 5 miles of the hotel - the van drivers are very friendly and are more than willing to help you figure out how to get to anywhere you need to go.Great stay overall - if I'm ever in the area and need a place to stay for an extended visit again, I know who to call.More</t>
   </si>
   <si>
+    <t>Ashkell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r292022900-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1314,9 @@
     <t>First, the hotel is more like a motel. The rooms are extremely noisy. Thin walls and windows. Every time someone walks by or closes a door you can here it. Also, it is right next to the highway that also creates a constant noise. Second, the hotel is not close to anything. No restaurants are within walking and the hotel does not have room service. There is no bar and the only option for food is the snack bar at the front desk or delivery. More</t>
   </si>
   <si>
+    <t>TravellingMom M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r283689338-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1341,9 @@
     <t>My family of five stayed here for four days while our son was in a debate tournament downtown. We had a two bedroom - each with a queen bed - and a pull out sofa. First, the staff is very nice and accommodating. Second, the room itself was very clean and a good size. Third, the location is only about a 5-10 minute drive to downtown. Those are the up sides. Down sides ... one of the bathrooms is VERY small. I mean SMALL. I have seen showers in motorhomes larger. And that is the truth. The other bathroom is a good size. The area is RIGHT off the freeway. The doors open to the outside - I am thinking this was an apartment complex? The grounds are all right, not exactly becoming. That's my balanced review. Just meh.More</t>
   </si>
   <si>
+    <t>mahler1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r277737621-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1369,9 @@
   </si>
   <si>
     <t>This property is being renovated and hopefully it will be a nicer place than we encountered. The rooms were on the small side and quite dark and dingy. Because of the renovations, facilities like the breakfast area and gym were quite rudimentary. The staff were all polite and helpful. You need a car to get to any dining facility.More</t>
+  </si>
+  <si>
+    <t>Kristina C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r268419620-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -1249,6 +1405,9 @@
 Additionally, the...I usually really like Residence Inns, but this particular property was under renovation when we stayed there. The room had a large comfortable king bed, but our friend who slept on the pullout couch found the mattress to be rather gross. We had to call the front desk twice to have them deliver proper sheets and bedding for it because the room only had a very thin piece of fabric (twin size - that I'm assuming was supposed to be a mattress cover), thin fleeece blanket, and one small smashed pillow, without any sheets. The breakfast was better than your average hotel breakfast, but due to the renovations it was hosted in a hotel room that had all the furniture removed to make room for tables, chairs, and the buffet. This was how the makeshift fitness center and "lobby" was handled as well. I'm fairly certain that after the renovations are complete that this hotel will have the facelift it needs. However, it is a strange Residence Inn considering it is almost like a motel given the fact that all the doors to the rooms are exposed to outdoors. The only difference in "security" is that there is a retractable barrier that requires a room key to gain access to the parking lot. However, anyone can just walk around and gain access to the hotel hallways in any of the buildings by claiming stairs or taking an elevator. Additionally, the prices for the night we stayed was still around $160 per night, which I find interesting given that the hotel isn't running at its 100% best right now. However, we only chose to stay there because we managed to book a 10,000 point award night. The staff did recognize my husband's Marriott Gold status by delivering a snack to him in the room after we checked-in.More</t>
   </si>
   <si>
+    <t>sebastian y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r267761939-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1267,6 +1426,9 @@
     <t>The hotel has great specious renovated suites equipped with a full kitchen and utensils. The staff from the lobby where super nice and helpful. The hotel is currently going through renovations so the lobby and breakfast areas are in a room and so is the gym. The only thing that upset me was that the hotel doesn't have any dining options for lunch and dinner. The closest thing was fast food about a 20 minute walk away and the shuttle doesn't operate on the weekends. Besides that the hotel has a good homey feeling and the staff takes good care of you. It is also really close to Love airport.More</t>
   </si>
   <si>
+    <t>181rose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r263993712-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1456,9 @@
     <t>My daughters and I stayed at this hotel on a getaway to Dallas to celebrate my 75th birthday. Best service I have experienced in any hotel. All staff members were very courteous and went out of their way to make our stay special.More</t>
   </si>
   <si>
+    <t>cwa8807</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r255876151-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1486,9 @@
     <t>After reading a few reviews i was really mixed about staying here. I booked this through name your own price through priceline at nearly half of the cost of booking through the company. Upon arrival the staff was very nice and i was checked in within minutes. One this property is security gated which was very nice. parking was close but they did have traffic cones in alot of the spaces which was a pain at first but i manged to get a parking spot close. The room i had was a king suit and i was highly impressed it is older but very well keep. Very clean and very stocked and made me fill like i was home . The bed was very conformable and the tv's were a nice feature. The internet was super fast and i was highly impressed. Overall stay here if you can it close to the hospitals and love field and i highly recommend this hotel . Also for those who want to know the incidental charge it was only 20 bucks not bad when most charge 100. I hope to get to stay here again soon.More</t>
   </si>
   <si>
+    <t>bermuda_fan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r254661521-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1513,9 @@
     <t>This Residence Inn is one of the old style properties with separate 'blocks' of rooms. I stay at Marriots whenever I can for business and pleasure so when I booked a 2 bed suite for the family at $250/night I expected the usual spacious accommodation. Well, not here! The rooms are tiny compared to the newer ones (the 2nd bed bath was diminutive) and felt very cramped with 2 teenagers and 2 adults. The fitting and fixtures have been partially updated but not completely, so it still felt dated and dingy.On the plus side, the staff were very pleasant and the breakfast was better than others I've stayed at. Parking was free (as usual) but limited (some was blocked off for no apparent reason). Neighborhood was definitely not the best either. Overall, not good value for money.More</t>
   </si>
   <si>
+    <t>usb_phx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r252510861-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1366,6 +1537,9 @@
     <t>Stayed for 3 nights, at first from outside it doesn't look all that fancy but once inside it was truly a great place. The lady at the front desk upgraded me to a quaint little suite at no extra cost, it was HUGE! A dining table, living area, separate bedroom...everything neat and tidy. They had breakfast &amp; happy hour with beer/wine &amp; simple dinner menu. I tried going back again later but the prices had gone up :-(The only issue I used to have was to get to the side road from the highway during evening peak traffic, had to go around a couple of times. Not sure about long term stay, but for a couple of days business trip it's perfect for those not having time to go out to check the Dallas nightlife.More</t>
   </si>
   <si>
+    <t>Nez_LR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r250439024-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1565,9 @@
   </si>
   <si>
     <t>This is an older property however staff makes-up for it. Everyone is helpful, smiling, and accommodating. Despite our early arrival,  they checked us in and upgraded to a suite at the same time. We stayed 4 days, and the location worked good for us. Yes, the location is no "Highland Park", it is close to Market Center, Love Field, etc, and in the center of a few attractions (Zoo, Lego Disc. Center)More</t>
+  </si>
+  <si>
+    <t>Kevin P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r249926069-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -1421,6 +1598,9 @@
 I hopped a cab back to the airport and it was only $10, probably because it was a quiet Sunday with no traffic.  My cabbie was a talkative guy who was Polish who was a tennis coach and drove on the weekends to make ends.  All in all, a good place.  However, no...I am a Marriott rewards member, so I look for Marriott hotels.  I have started flying Southwest, so wanted to find a Marriott hotel close to Love Airfield.  For the weekend price, this is what I found.  On the short-cut description, it stated that there was a shuttle to the airport.  So when I arrived at the hotel, I asked about the shuttle, as I would be flying out the next morning.  I was informed that there was no shuttle on weekends by the front desk.   I went to my room and drilled down.  Sure enough, if I would have drilled down, I would have found that there is no shuttle on the weekends.  The description also said that a taxi would cost about $40 one way to the airport.  The room itself was fine, and the fireplace was a nice touch.  It was brutal cold outside.  The downside of the Residence Inn is that you have to go outside the gatehouse to get to the living quarters.  When the weather is nice, no problem, when the wind is a humid cutting force, not so much fun.  I hopped a cab back to the airport and it was only $10, probably because it was a quiet Sunday with no traffic.  My cabbie was a talkative guy who was Polish who was a tennis coach and drove on the weekends to make ends.  All in all, a good place.  However, no shuttle on the weekend.  On future flights into Love Airfield, I will stay at the Wyndam which is just off the airfield complex.More</t>
   </si>
   <si>
+    <t>JC77098</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r248173543-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1451,6 +1631,9 @@
     <t>Decent place with Decent Service! Needs more parking!Nice selection for breakfast with tons of choices! The rooms are nice and clean and comfie! I would recommend you trying this hotel if you are looking for a place in Dallas!More</t>
   </si>
   <si>
+    <t>Jimski12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r242532749-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1478,6 +1661,9 @@
     <t>I frequent Dallas and usually for long stays.  This hotel is in a great location and they have professional and courteous staff.  I am able to get on and off the freeway quickly and it has a lot of dining options.More</t>
   </si>
   <si>
+    <t>Keith T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r242495718-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1679,9 @@
     <t>My family recently stayed for two nights at this Residence Inn. As a Residence Inn the property is quite consistent and familiar with other Residence Inns. Everything was very clean, organized, and tidy. Our room was pleasant and the bed was very comfortable. The breakfast area is open and inviting, and in my judgment the quality and selection of food at breakfast were above average. The lady taking care of breakfast, Aurelia (sp?), was just outstanding keeping everything fresh and replenished even with a large crowd. I was very impressed with how focused and attentive she was on doing a good job. The reception staff were all just great as well, and they were particularly concerned and helpful after we had a problem with our car in the parking lot after our first night. The location is convenient to the medical district and lots of restaurants. Downtown is just a short drive. I would stay here again.More</t>
   </si>
   <si>
+    <t>MGWTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r240158250-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1517,6 +1706,9 @@
     <t>We stayed here for three nights when Dallas was having a cold snap weatherwise.  We were glad the heater worked in our room.  Nice room, much like a studio apartment, small kitchen, living room area, bedroom and bathroom.  We didn't receive coffee the second day or enough washcloths so we had to ask the front desk for those items.  Also, its assumed you will put the dishes you used in the dishwasher and run it during your stay.  This is what I did when I noticed they were not replaced.  As other reviewers have said it is not located in the best neighborhood and you do need a car to get around. If you are sensitive to outside noise, ask for a room facing the pool or away from the freeway.  Also, free breakfast and evening snack though very nice beware of those taking advantage.   Staff was attentive and helpful and provided us with a free log for our fireplace.More</t>
   </si>
   <si>
+    <t>Laura4191</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r237557262-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1542,6 +1734,9 @@
   </si>
   <si>
     <t>I stayed here for a weekend in September. The good- big room, best continental breakfast I've ever had at a hotel, very friendly staff. The gym also looked great. I was bummed because I picked the hotel for the free shuttle service. I even called and spoke with someone and they confirmed it was not too good to be true. Unfortunately, it is not offered on the weekends. This place would be perfect to stay during the week- free breakfast and dinner, a shuttle downtown, etc. First, we were put in a room that smelled moldy and then the toilet overflowed- which means the toilet must have been leaking for a while. They were polite about it and got us set up in a new room that smelled much better. We also booked a second room for a relative and hers was nice, too. Overall, I recommend it and I would stay here again. It's a good bargain- but as another reviewer said, you need a car.More</t>
+  </si>
+  <si>
+    <t>Cbass200096</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r237153398-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -1574,6 +1769,9 @@
 Another attached photo is of the...First off, I’d like to say that the staff here was friendly and accommodating. But that’s about the only positive with my experience.You generally know what you’re getting with a Residence Inn. That’s why I stay at them frequently. I had never experienced anything like this one before. Inside the hotel it’s dated and dirty. Outside the hotel room it’s run down and pure ghetto.Many hotels are close to a freeway or interstate. This one is no exception. The difference: it’s like right there, right outside my window. It was very difficult to sleep at night due to the traffic. Moreover, sirens seemed to be going off constantly. I’ve attached a photo to show how close the freeway really is, and you can see an emergency vehicle with its lights and sirens blaring.I tried to go outside for a walk yesterday. Bad idea! Cop cars everywhere and the neighborhood didn’t seem very safe. I’m not sure what a Residence Inn is doing in this area, anyway. Seems like it needs to be torn down and built somewhere completely different.The inside of the room and the whole property are incredibly dated and dirty. Here are a few examples.See attached photo of a TV in the bedroom. It’s so small—basically the size of an average computer monitor. I haven’t seen a TV that small in a hotel room since the ‘80s.Another attached photo is of the pillow case. Looks like there’s either blood or pizza sauce on it. I’m not sure which one, and I probably don’t want to know.Another attached photo shows just one area (the vent by the kitchen) and how dusty/dirty it is.These are just a few examples. Overall, I’m very disappointed and would never even consider staying here again. The worst part is, I traveled with some co-workers who are staying at a Homewood Suites down the road. I’m a Marriott guy so I went out of my way to stay here. Their hotel ended up being MUCH nicer.More</t>
   </si>
   <si>
+    <t>g0lfnutt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r234651009-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1598,6 +1796,9 @@
     <t>The basics: Location very near Love Field and downtown Dallas.  They have complimentary airport shuttles.  Rooms are very nice suites with complete kitchens an separate living rooms and bedrooms.  Amenities: Breakfast is complimentary.  Secure, gated parking.  Pool and a basketball court!Great service.  A bit pricey (&gt;180) but I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>R s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r230909478-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1622,6 +1823,9 @@
     <t>My family and I stayed at this hotel for 11 nights and we were all very pleased with our stay.  The rooms were very clean, the staff were always friendly and  offering to help if we need anything.  The front office staff was great very nice and friendly.  The breakfast every morning was also great.  Not a continental breakfast it was way more than enough food and delicious.  The staff in the dining room were very courteous and fast.   For those who say  it's noisy what do you expect when a freeway is on the side of hotel.We had no problem.  We will definitely return again.  More</t>
   </si>
   <si>
+    <t>Aurelie Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r220065971-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1646,6 +1850,9 @@
     <t>Booked a 2 bedroom suite and stayed 1 hour!!! That tells u the level of that hotel. We got welcomed by a not so happy or nice employee that put us in a room in the 7th building. It seemed charming except for the hostess. Got to the room... And biggest NOISE of traffic and train. You could hear it like it was in your room! That's the view from ur window.Kitchen was small. Bedrooms were inequal. One with bath and shower. Other one with shower only. My husband is 6 ft and couldn't even fit without crouching. So much noise that sleep would have been impossible. The pool pictures are deceptive. It's actually pretty small. We decided to go to a different hotel and we found way better and cheaper.More</t>
   </si>
   <si>
+    <t>cdonnelly59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r217625643-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1670,6 +1877,9 @@
     <t>Hotel literally on route 35..translation. .hwy noise all night.Hotel location central to a lot of things.Hotel not maintained.  Not clean. No reinvestment in hotel updates. Kitchen chairs all ripped up. Need replacing.  Room furniture terrible , embarrassing shape. Afraid to sit in. Courtyard  is embarrassing.  Overall management does not care in running a clean , well maintained hotel. I am a lifetime gold Marriott member. Stay in 100 hotel nights per year. I checked out 3 days earlier and moved to Marriott courtyard. ..More</t>
   </si>
   <si>
+    <t>Mike W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r211269671-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +1907,9 @@
     <t>Have stayed here twice over the last month or two. Once with family and once for work. Rooms are pretty much Residence Inn standard. Breakfast area was clean and well stocked if a bit small. Outdoor public areas were dirty and showed a lot of wear and tear. Still, with all of that this place is not up to the level of quality i would expect from a Residence Inn. Burns on the bathtub (obviously from some goofball guest that couldn't poo without a cigarette) were poorly repaired. The dryer will take at least two cycles to actually dry your clothes. No restaurants within walking distance (they actually recommended that I go to the crown plaza next door). Biggest thing to know is that the van to the airport is extremely slow. Like :30 minutes from call to pickup slow AND it does not run on Saturdays or Sundays. Front desk staff is friendly and apologetic.There are better properties in the area. Would not choose this one unless you have no other options.More</t>
   </si>
   <si>
+    <t>Sheena R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r208849390-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1715,6 +1928,9 @@
     <t>This is a nice, tucked off hotel with every amenity you could hope for.  Security is wonderful, entrance by key card only.  Staff was warm and friendly not only at check-in but throughout my 4 night stay.  Breakfast was more than enough and the evening social was just as great!  Rooms were clean and spacious.  Kitchens are equipped with everything you need and grocery shopping service is available for guests.More</t>
   </si>
   <si>
+    <t>bcbennett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r208579388-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1736,6 +1952,9 @@
     <t>I had stayed all around this hotel in the past, but had never noticed this property tucked away.  It was very quiet, secure, and comfortable.  The room was very clean and nice, and the bed large and comfortable.  Plus, the hot breakfast was more than adequate.  Air temp control was pinpointed by a digital thermostat, which added to the comfort.  I will certainly stay here again.More</t>
   </si>
   <si>
+    <t>beenhereloveit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r205589916-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1763,6 +1982,9 @@
     <t>Somewhat sketchy neighborhood - the front desk insisted on driving us over to the convenience store, which was only across the street.  That was our first clue.  Our first 2 bedroom suite did not have a bedroom door on one of the bedrooms so the bed was open and facing the couch.  Nice front desk lady moved us to another room.  It was much better for our family... Well, other than a nasty burned up bathrobe on the back of the bathroom door, along with some miscellaneous trash in a couple of the rooms.   Nice pool area and fair "dinner" and drinks each evening.  In the end, we decided this must be a property that had not been included in any of the recent updates.   Next extended stay, we will look for another property but not necessarily steer away from Residence Inn, just this one.More</t>
   </si>
   <si>
+    <t>Houstonian88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r204976229-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1787,6 +2009,9 @@
     <t>Very near I35E, this hotel makes for a pleasant stay when one has a relatively large family. The 2 room suite is smaller than other Residence Inn and a little bit dated. However, the staff tries their best, which makes this a 3 star property. More</t>
   </si>
   <si>
+    <t>Freckles2212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r203655443-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1805,6 +2030,9 @@
     <t>Stopped in Dallas for one night on the way to San Antonio. This was a great location and price. The living room was a great size as was the kitchette. I was traveling with a group of women and all 8 of us gathered here at the end of our day for a glass of wine. There were wine glasses and a cork screw to our delight. All the basic needs were supplied with the kitchen. The bedroom had a king size bed and another television. The bed was very comfortable and the bathroom was very clean. The staff was wonderful and could not do enough to help us settle in. They set up the shuttle for us as soon as we arrived. We took the shuttle to the Book Depository and did the JFK Museum and walked around the corner to the grassy knoll. The shuttle came back that evening after dinner and picked us up. What a great service. In the morning there was a free buffet breakfast. Loved the waffle shaped like Texas. There were eggs both scrambled and hard boiled, bagels, english muffins, toast, sausages, yogurt, hot and cold cereals and breakfast pastries. Lots of choices to get the day started. I would definitely return to this hotel again.More</t>
   </si>
   <si>
+    <t>Buck B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r199803371-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1823,6 +2051,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>GenNy21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r199453102-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1847,6 +2078,9 @@
     <t>Room was very comfortable and clean. It was very spacious and our room was in excellent condition! We had a room in building 7 and you can barely hear the hwy noise from the bedroom area. If you are planning to sleep on the sofa bed, I would be more concerned about the noise. I would definitely stay here again!  It is very close to Dallas Lovefield airport.More</t>
   </si>
   <si>
+    <t>l0tusbl0ss0m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r198519704-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1871,6 +2105,9 @@
     <t>Room 711- This was a two night stay for a training session and upon checking in I discovered the desk chair was all ripped up (plether- plastic leather) missing from 1/3 of the seat, living room chair was used as a cat scratching post, stained &amp; dirty drapes, carpet-not vacuumed, no hot water in the tiny stand-up curtained shower-four mins into the shower-lather on hair and soap all over- (got points for my unfortunate experience). One of the bedroom doors (2 BR suite) had nail heads sticking out (discovered them when placing my hand there). Knowing that it was spring break week, I would think the staff was ready for the crowd- room was not serviced on day 2 of the stay until much later in the afternoon. Going back to Hilton.More</t>
   </si>
   <si>
+    <t>NatGW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r193386432-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1898,6 +2135,9 @@
     <t>Stayed here overnight after picking my mother up from DFW. The staff on the front desk were very helpful when i needed directions to the grocery store and the next day when we left something behind in the room. I enjoyed the breakfast, just wish they had a grab and go as we had to be on the road early. The room was in excellent condition and both the sofa bed and king were incredibly comfortable.More</t>
   </si>
   <si>
+    <t>Huwsie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r193210440-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1925,6 +2165,9 @@
     <t>This was by far the worst hotel stay for a very long time. Arrived in room - no cooking utensils, asked three times - gave up and went out to buy my own. This hotel does zero maintenance to it's facility. The refrigerator in the room was noisier than the train passing not 100 meters from my window, the microwave sounded as if it would self-destruct every time I used it, and room servicing is basically a lottery of what they will clean in your room, and what they will and will not leave for you - items such as tea towels / coffee... Needless to say - I will NOT be returning to that hotel during my next upcoming stay in Dallas.More</t>
   </si>
   <si>
+    <t>L G L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r190722405-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1949,6 +2192,9 @@
     <t>While this particular Residence Inn has been here a while they have updated the site and it is very nice. Clean - well maintained - comfortable rooms - suprisingly quiet considering it is close to several main highways - easy access - nice lite dinners each eveningMore</t>
   </si>
   <si>
+    <t>RHofLombard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r174329178-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1976,6 +2222,9 @@
     <t>Underestimating the weather, we booked this hotel which is an hour drive away from work. The staff was more than helpful. Not only he welcomed us nicely, he even helped us moved our booking to more convenient Residence Inn. We have been using Marriott membership and staying in various Marriott hotels but have never tried Residence Inn. It was more than convenient here, we have a kitchen and the staff do the grocery shopping for us. Super awesome!More</t>
   </si>
   <si>
+    <t>Paige_Fabela</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r172740143-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2000,6 +2249,9 @@
     <t>this Residence Inn is a nice place stay. I have stayed here the last two times I have went to the Europa and was very pleased. I will stay here again the next time i visit Dallas. The rooms are very cozy and the staff is very helpful. Lovis went out of his way to help me!!! I thought I left something in my room when I checked out, Lovis searched for my dvd player and called me back several times to update me on the situation. Meanwhile I looked through my luggage and realized my husband had packed it. The Residence Inn is a great place to stay, the only drawback for me is the ac only goes down to 65. for most iam sure that is fine, 62 would be alittle better but I always bring my fan anyway.  good breakfeast!!More</t>
   </si>
   <si>
+    <t>Brenda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r162134621-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2027,6 +2279,9 @@
     <t>I stayed here with my sister and a friend for a girl's weekend. Fantastic location for getting around downtown, but hard to find off of I-35E in Dallas. It's called Market Center, but it's a mile or so north. Joseph welcomed us as we come flying into the lobby as a heavy rain had just begun. He helped us check in, then told us a way to get to the room without getting wet. The hotel seems to be built like it may have been apts. before? I dunno, but it works out great for an entire weekend. Only a "good" breakfast, but the staff was so kind, it really didn't matter! I lost a pair of sandals on this trip and they made several attempts to find them for me, but none were found. They seem to go out of their way to help and that's what a call service!More</t>
   </si>
   <si>
+    <t>cpank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r156419477-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2046,6 +2301,9 @@
   </si>
   <si>
     <t>The hotel was very nice and awesome.  Really enjoyed the room was perfect for roommates.  Getting cabs was very difficult as a lot of them did not know where this hotel was and kept going to the hotel that was a block away.  It is a little difficult to get to at first due to it being off the interstate but after driving around after checking in it's easy to get around once you know the exit and entrance ramps.More</t>
+  </si>
+  <si>
+    <t>notyours</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r152785072-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -2073,6 +2331,9 @@
 Breakfast was the standard RI fare, above average and good.  It is a fairly large facility with at least 10 separate buildings.  Easy on/easy off from I35E but nothing within walking distance of the property.  The residential area around the hotel is a bit run down.  Parking is key carded to a gate and...We recently needed to make an unexpected trip to Dallas after my grandmother was put in the hospital at UT Southwestern.  This location is just a few blocks from the Parkland/UT/CMC area.  It is an older style RI with rooms laid out in different buildings in an apartment style.  It is a true suite with a divider between the living room and bedroom.  The bathroom also opens into both the kitchen area and the bedroom.  I actually like this style better than the newer rectangle ones they build now.  The finishes were not as upscale (granite, stainless) as the newer ones but it was well cared for.  There were two TVs, a big one in the living room and a laughably small one in the bedroom.  We don't watch TV in bed so no big deal to us.  Also the remotes would work either TV so i you pointed it at the one in the living room it would usually turn on the one in the bedroom too.  I loved the heat lamp in bathroom, you rarely see these anymore and I like them very much.  Breakfast was the standard RI fare, above average and good.  It is a fairly large facility with at least 10 separate buildings.  Easy on/easy off from I35E but nothing within walking distance of the property.  The residential area around the hotel is a bit run down.  Parking is key carded to a gate and they give you a card to put in your windshield for security.  Overall would stay here again.More</t>
   </si>
   <si>
+    <t>calbearfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r152586300-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2100,6 +2361,9 @@
     <t>Where do I start? This place is a disaster - here is a partial list. First, they advertise a shuttle, but it stops super early. The front desk employee was unhelpful and short at check-in. I asked for food options and she rattled off three restaurants and then turned and walked away. The TV in bed room is smaller then my computer monitor, I literally think it is an 18in tv (who knew they even made those). My room faced a very noisy freeway and the windows are NOT soundproof. Asked about a shuttle ride back to the hotel, was told the driver was not available all morning. And I am a Marriott Gold Member who is supposed to get treated a little better, watch out if you are a regular guest. This place does not deserve any of our business.More</t>
   </si>
   <si>
+    <t>twarpula</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r150182013-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2118,6 +2382,9 @@
     <t>When traveling to TX Scottish Rite Hospital with my child and a friend, we booked at the Residence Inn Dallas Market Center. They were able to give us a medical discount and we booked a 2BR 2BA, full kitchen, and living area room. It was fantastic with  a lot of space for the kids. This is a great place to stay when you have a large family as well.Breakfast was a nice spred with eggs, egg mcmuffins, oatmeal, yogurt parfets, and so on. Staff was friendly and helpful.More</t>
   </si>
   <si>
+    <t>Suebird631</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r146593970-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2139,6 +2406,9 @@
     <t>Since my son's home was being renovated II decided to look for a hotel with a kitchenette for us. This hotel was perfect! My family and I had a memorable Christmas together. It was 5 of us and we were so happy to be in one place. We get together about every 3-4 years so this hotel was a great idea, the best!!! Nice floor plan on the 2 bedroom. I cooked and my sons were so happy to have a home cooked meal.More</t>
   </si>
   <si>
+    <t>Sthelenaca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r146593180-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2157,6 +2427,9 @@
     <t>We stayed here for 5 days when my son had surgery at Dallas Children's.  The room was clean and spacious.  Breakfast was perfect every day.  But the reason our stay was 5 star + was the staff.  Absolutely the nicest, most wonderful people I have ever met in any hotel. They took care of us as if we were family.  Not just one person, but every single person who worked there.  I have never ever had a relationship with the staff of a hotel, let alone at some big chain!  I could go on and on about all they did for us, but suffice it to say, this was the nicest place I have ever stayed- but not because of the room.More</t>
   </si>
   <si>
+    <t>justicelive</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r144562987-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2175,6 +2448,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>dleedennis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r144270188-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2190,6 +2466,9 @@
     <t>It's been there awhile, but it's well cared for. The floor plan is one that Marriott no longer uses, which is too bad. It allows someone on the sleeper sofa to enter the bathroom from the kitchen without coming through the separate bedroom. Noise from Stemmons is noticeable but it won't keep you awake at night. Central A/C is effective and quiet, which is not always the case at a RI. Breakfast is up to RI standards, which is excellent. Lots of variety. Good quality. I have stayed here multiple times over numerous years. I have never been disappointed.</t>
   </si>
   <si>
+    <t>GorgeousGabiGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r143273891-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2205,6 +2484,9 @@
     <t>The room was great. All the things you need when you are away from home.Beds are comphy; and apperently nosey when you bounce on them as the neighbor demenstrated for us last night. Walls are not very sound proof.I have had better breakfasts at a Best Western than this place; but lots of choices.Location is okay; but bad to get to during rush hour traffic &amp; since LBJ freeway is underconstruction.But over all for the price is Great.</t>
   </si>
   <si>
+    <t>OKDianne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r135743292-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2226,6 +2508,9 @@
     <t>We just spent 2 nights at this hotel and were not pleased.  We are long time Marriott customers and this hotel does not appear to meet typical standards.  When we got ready to leave this morning, we immediately became aware that our daughter's car had been vandalized!  Someone had sawed off her catalytic converter!!!  We filed a report with the Dallas Police Department and had to find a place to repair her car on a Sunday which is not an easy task.  The hotel staff were friendly but didn't seem to take much ownership.  The hotel is in disrepair with lots of temporary repairs and it is not in a very good neighborhood.  The rooms are cramped and the kitchen is teensie tiny.  The breakfast was good but the hostess started trying to take all of the food away at 10:00 even though there was a line of people trying to get food.  We will not stay at this hotel again.More</t>
   </si>
   <si>
+    <t>M H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r134644982-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2244,6 +2529,9 @@
     <t>Centrally located, this property was a little run down and our king suite was cramped and not cleaned well.  We checked in late and the hotel was full, so could not switch rooms.  There were stains and spills on the floors, walls, and countertops.  The bathroom had hair and dirt on the floors, and the carpet and tile was threadbare and worn in places.  The refrigerator was dirty and had old food and spills caked on its shelves and door.  The staff is friendly and accommodating, though, especially at breakfast - which had a nice, well-stocked variety of hot and cold items.  Free, well-lit parking.  However, we would not return due to room cleanliness / sanitary issues.More</t>
   </si>
   <si>
+    <t>downtown1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r133937444-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2259,6 +2547,9 @@
     <t>We stayed here from San Antonio for the Dallas Rock-n-Roll marathon. Only about 10-15min. from downtown. We stayed in the 2 bedroom suite, it is like a small apartment with a bathroom in each bedroom &amp; bedrooms are closed off. Great for us &amp; 2 kids. Continental breakfast was pretty good. I recommend eating at nearby Dunstons Prime Steak House (open late &amp; $11 NY strips)</t>
   </si>
   <si>
+    <t>jt_home</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r130008480-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2274,6 +2565,9 @@
     <t>Exceptionally friendly and helpful staff, a real pleasure to deal with.  Not a new facility, but beautifully maintained and in excellent condition.  Very easy access to the property from 183 or Stemmons.  Must drive through poorer area to get to highway downtown, but never felt uncomfortable.  Would stay again.</t>
   </si>
   <si>
+    <t>mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r127746025-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2295,6 +2589,9 @@
     <t>We stayed here for a week in March 2012. The room was one of the best I've ever stayed in for around $90/night. It had a separate living room, kitchen and bedroom. All of which seem to have recently been upgraded.  The pool and Jacuzzi are nice as well as the breakfast area. The included breakfast offered everything and was not continental. The staff are extremely friendly and helpful and go out of their way to address any questions/issues.  Only down side was the location next to a major loud highway (not heard in the room, just at pool). Surrounding area is a little depressed, but short drives to local attractions and restaurants.More</t>
   </si>
   <si>
+    <t>megan b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r127050438-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2310,6 +2607,9 @@
     <t>I just want to say that I was tremendously impressed with the staff at this hotel. They bent over backwards to make sure that our stay was as comfortable as possible, and really went the extra mile to help myself and my family with everything we needed during our stay. The hotel itself was really nice as well. Would absolutely recommend this hotel to anyone, and I will certainly be staying there anytime I go to Dallas.</t>
   </si>
   <si>
+    <t>Oldbiker49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r126053442-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2328,6 +2628,9 @@
     <t>A family suite of two bedrooms, two baths, a kitchen and living room- more than enough room for three adults and an infant. Property is starting to show its age and there is some remodeling underway. Location is very convenient to medical centers and Parkland Hospital.Free hotel shuttle to Love Field. Breakfast is included: scrambled eggs, sausage patties, toast, cereals, and the usual assortment of juices and coffee. Hotel also provides evening meals- taco salads, burgers on the grill, etc. All included in the room rate. But the staff is where the hotel shines. Aurelia, the morning kitchenmeister, offers a "good morning" to each guest, promptly cleans up, and restocks the buffet. Front desk folks call cabs, provide balls for kids on the mini basketball court, fax multi-page documents, and print out maps for directions. Housekeeping offers to clean your room on your schedule to avoid any time conflicts. Hotel is clean but the decor appears to have aged. Reasonable rates, friendly staff, and convenient location to the freeways and medical centers.More</t>
   </si>
   <si>
+    <t>Joseph M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r125897908-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2346,6 +2649,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Jill R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r123666324-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2367,6 +2673,9 @@
     <t>Imagine a hotel staff member driving packages to you at an event 2 miles away? It happened here. First, in the morning when the shuttle was busy, she drove me in her car to my event. Then when my delayed (FedEx) trade show packages arrived at the hotel, she drove 4 large boxes to a loading dock for me! I should also mention that when I was first dropped off at the hotel late at night, and showed a bit of anxiety about walking around outside to my room (location seemed safe but I get nervous), the woman at the desk immediately requested a security escort, who came right away and walked me to my room. All truly amazing. One more thing to note: The "room" was actually 2 good sized bedrooms each with closing doors (!!) as well as a living room and kitchen.More</t>
   </si>
   <si>
+    <t>coachphlieg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r116678839-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2388,6 +2697,9 @@
     <t>This was a nice hotel, spacious for family of 3 or maybe 4.  Went with my 5 year old for a daddy/daughter trip before kindergarten starts with mom away this weekend.  The extra room with the pullout couch allowed me to watch tv while little miss independance could watch her OWN tv in the other extension.  Pool was adequate, and hot tub next to it was nice as well.  Breakfast was really good, and the ladies who put out the breakfast were VERY friendly.  Front desk called my room within minutes of arrival to check to see if I needed anything.  It doesnt cost anything for good cutomer service, but it sure goes a long way!  They have that part figured out, and make you feel important.  Some places a lot more expensive seem snobby or stuffy, and you drop a lot of money and are left to wonder why you feel like you are being a pain in the butt.  Not this place.  I recommend this place without any reservations, no pun intended!  Only thing I could say bad is that they could take a few minutes to make some of the outside places on property to repair some loose things, ripped awnings, etc.  Not a big deal though.More</t>
   </si>
   <si>
+    <t>sailor11101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r110220019-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2409,6 +2721,9 @@
     <t>My family and I stayed at this hotel while visiting Dallas. We chose this location due to its quick access to midevil times and downtown Dallas. Also, we wanted a kitchen and two separate bedrooms. The location is not great because it is in a kind of dirty area. The hotel parking lot was dirty and had trash in it. The lobby was decent, but nothing special. The room was dated, but at least it had lots of room and a kitchenette. The hotel has a small pool and hot tub, which were too cold to try. We didn't spend too much time at the hotel as we were checking out the sights. PROS:-Lots of room-Great access to Dallas-Kitchenette-Good breakfastCONS:-Dated and not so clean-NoisyMore</t>
   </si>
   <si>
+    <t>AGall0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r93351266-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2430,6 +2745,9 @@
     <t>Rooms are very spacious and very confortable with a kitchenette, a dining room with a large LCD TV and separated bedroom.Unfortunately it is not sound proof and I could easily hear noise from the cars on the highway just next to the hotel.The place is organised in seven buildings and in winter time you need your coat and gants to go to the lobby for breakfast or any other need.There is nothing around in walking distance and even the McDonalds's on the other side of the highway is not accessible on foot, you do need a cab to cross it...The worst part was that when I checked in there were long black hair on the bathroom floor, clearly from the room service lady, and used coffee filter in the brewer machine. Even worse, on the second day both hair in the bathroom and used coffee filter were still there. And bed sheets were not even pulled straight, just the blanket was pulled over.Clearly the room service lady is not going into all her checklist. These were not details but basic cleaning items.I left the hotel one day earlier as luckly I found one room available elsewhere not far and at corporate rate.Anyway, the staff was very helpfull in providing all sort of information and directions to me when I asked.More</t>
   </si>
   <si>
+    <t>Alaninfortcollins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r57745995-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2448,6 +2766,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>rimrocks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r45702853-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2469,6 +2790,9 @@
     <t>Overall this was a good hotel.  Convenience to downtown and airports was very good.  Rooms were very nice and up to standards.  Breakfast was excellent and the evening reception was good as well.  Staff were extremely attentive and great to work with.Overall though the hotel in general and the grounds were not up to the standard of Residence Inn.  Grounds especially didn't seem to be kept up to very well.  Outside of my room the grass was dead, their was garbage on the sidewalks, 6 cigarette butts littered outside my door, and a nearby maintenance room was leaking water through the door the entire stay and made the nearby entrance to my room wet.  The other problem, which isn't the hotel's fault, but the hotel is right off the freeway and you can hear the cars all night long.  I was kept up half the night by the sound of vehicles and semis going past on the freeway.  Still a good hotel for the value but think twice if you are a light sleeper.More</t>
   </si>
   <si>
+    <t>lbu1182</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r24847432-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2490,6 +2814,9 @@
     <t>Our team was on project for over a month in Dallas and I cannot say enough kind comments about the facilities and staff of the Residence Inn. One of the best experiences at a Residence Inn I have ever had. The front desk staff knew us by name and the sales staff really took the time to get to know our group and was always there if we had any questions.Very good value: you get what looks like a brand new room witch is Very spacious, breakfast, dinner and drinks at night. Food is nothing special, but with the free bud light, I can overlook it. If my work ever brings me back to the area, I look forward to staying at this hotel again.More</t>
   </si>
   <si>
+    <t>Algood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r6344547-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2508,6 +2835,9 @@
     <t>November 2006</t>
   </si>
   <si>
+    <t>tcm_crew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r5894308-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2527,6 +2857,9 @@
   </si>
   <si>
     <t>This is an older hotel which must have been a remodeled former hotel of another brand, and borders a very suspect part of town (I had my tailgate stolen in broad daylight from the nearby Sheraton Brookhollow).  The layout is very peculiar, with exterior (outside) entrances to many rooms.  These exterior entrances allowed unobserved access to guest rooms, which is a very poor security risk in this area - a total stranger could walk directly up to my door.   Additionally, the layout allows for several unlit potential hiding places for criminal activity.  When I arrived to check in, I noticed several rather unsavory-looking characters loitering in the area.  I always stay at Marriott, typically Residence Inn for the value and comfort.  This is definitely the worst of at least 15 Residence Inns I'm familiar with.  My room does not have basic silverware.  I'm sure I could get some if I called the front desk, but I shouldn't have to.  My neighbors are in an out of their room continually, and my whole room shudders as their door slams.  The kitchen is tiny, with a two-burner electric range, instead of the typical four burners.  If you need an extended stay hotel near the medical facilities, and take into account the security concerns, this place may serve you well.  As for me, I'd rather try a Fort Worth Motel 6 before I stay here again.More</t>
+  </si>
+  <si>
+    <t>GMStiles</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109374-r4465843-Residence_Inn_by_Marriott_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -3049,43 +3382,47 @@
       <c r="A2" t="n">
         <v>22120</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175752</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3103,41 +3440,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>22120</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175753</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
@@ -3156,50 +3497,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>22120</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175754</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -3217,50 +3562,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>22120</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>2710</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3274,50 +3623,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>22120</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>13104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3335,50 +3688,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>22120</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175755</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3390,56 +3747,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>22120</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175756</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3459,50 +3820,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>22120</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175757</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3520,50 +3885,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>22120</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175758</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3579,56 +3948,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>22120</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175759</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3642,50 +4015,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>22120</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175760</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3703,56 +4080,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>22120</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3770,56 +4151,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>22120</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>8871</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -3837,56 +4222,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>22120</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175761</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3900,50 +4289,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>22120</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175762</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3959,56 +4352,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>22120</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>48878</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4028,50 +4425,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>22120</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175763</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -4091,50 +4492,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>22120</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175764</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4152,50 +4557,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>22120</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175765</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -4213,56 +4622,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>22120</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175766</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4274,56 +4687,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>22120</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175767</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4343,50 +4760,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22120</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175768</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>196</v>
       </c>
-      <c r="L23" t="s">
-        <v>197</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>177</v>
-      </c>
       <c r="O23" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4400,50 +4821,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>22120</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>322</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4461,50 +4886,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>22120</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>4438</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4516,56 +4945,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="X25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>22120</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175769</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4583,50 +5016,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>22120</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175770</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4646,50 +5083,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>22120</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175771</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4703,50 +5144,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>22120</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>175772</v>
+      </c>
+      <c r="C29" t="s">
+        <v>257</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4758,56 +5203,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="X29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>22120</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175773</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4825,56 +5274,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="X30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="Y30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>22120</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>107683</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4888,50 +5341,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>22120</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175774</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4951,50 +5408,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>22120</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175775</v>
+      </c>
+      <c r="C33" t="s">
+        <v>289</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="J33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="K33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5008,50 +5469,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>22120</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175776</v>
+      </c>
+      <c r="C34" t="s">
+        <v>295</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="K34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5065,50 +5530,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>22120</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>11833</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="K35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5126,56 +5595,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="Y35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>22120</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175777</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5195,50 +5668,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>22120</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136778</v>
+      </c>
+      <c r="C37" t="s">
+        <v>317</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="O37" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5258,50 +5735,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>22120</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>175778</v>
+      </c>
+      <c r="C38" t="s">
+        <v>324</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5313,56 +5794,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="X38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="Y38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>22120</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>175779</v>
+      </c>
+      <c r="C39" t="s">
+        <v>334</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="J39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5382,50 +5867,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>22120</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>68779</v>
+      </c>
+      <c r="C40" t="s">
+        <v>342</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5439,50 +5928,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>22120</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175780</v>
+      </c>
+      <c r="C41" t="s">
+        <v>350</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="J41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="K41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5500,50 +5993,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>22120</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>43242</v>
+      </c>
+      <c r="C42" t="s">
+        <v>356</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="J42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="O42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5563,50 +6060,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>22120</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175781</v>
+      </c>
+      <c r="C43" t="s">
+        <v>364</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="J43" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5624,50 +6125,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>22120</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>16725</v>
+      </c>
+      <c r="C44" t="s">
+        <v>371</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="J44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="K44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5685,47 +6190,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="X44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="Y44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>22120</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175782</v>
+      </c>
+      <c r="C45" t="s">
+        <v>381</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="J45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="K45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="L45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
@@ -5742,56 +6251,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="X45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="Y45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>22120</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>17053</v>
+      </c>
+      <c r="C46" t="s">
+        <v>390</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5809,50 +6322,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>22120</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>19275</v>
+      </c>
+      <c r="C47" t="s">
+        <v>396</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5866,50 +6383,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>22120</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>23761</v>
+      </c>
+      <c r="C48" t="s">
+        <v>403</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="J48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="K48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5927,50 +6448,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>22120</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>175783</v>
+      </c>
+      <c r="C49" t="s">
+        <v>410</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="J49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="K49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="L49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5988,50 +6513,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>22120</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>175784</v>
+      </c>
+      <c r="C50" t="s">
+        <v>418</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="J50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="K50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="L50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6043,56 +6572,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="X50" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="Y50" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>22120</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>29896</v>
+      </c>
+      <c r="C51" t="s">
+        <v>428</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="J51" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="K51" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="L51" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -6108,56 +6641,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="X51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="Y51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>22120</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175785</v>
+      </c>
+      <c r="C52" t="s">
+        <v>437</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="J52" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="K52" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="L52" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6173,56 +6710,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="X52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="Y52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>22120</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>175786</v>
+      </c>
+      <c r="C53" t="s">
+        <v>447</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="O53" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -6240,56 +6781,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="X53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="Y53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>22120</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175787</v>
+      </c>
+      <c r="C54" t="s">
+        <v>457</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="J54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="K54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="L54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6305,56 +6850,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="X54" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="Y54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>22120</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>175788</v>
+      </c>
+      <c r="C55" t="s">
+        <v>464</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="J55" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6372,56 +6921,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="X55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="Y55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>22120</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>175789</v>
+      </c>
+      <c r="C56" t="s">
+        <v>474</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="J56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="K56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="L56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6439,47 +6992,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="X56" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="Y56" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>22120</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>175790</v>
+      </c>
+      <c r="C57" t="s">
+        <v>484</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="J57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="K57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="L57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
@@ -6496,56 +7053,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="X57" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="Y57" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>22120</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>175791</v>
+      </c>
+      <c r="C58" t="s">
+        <v>493</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="J58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="K58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="L58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6561,56 +7122,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="X58" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="Y58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>22120</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>175792</v>
+      </c>
+      <c r="C59" t="s">
+        <v>501</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="J59" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="K59" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="L59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6628,56 +7193,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="X59" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="Y59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>22120</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>575</v>
+      </c>
+      <c r="C60" t="s">
+        <v>511</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="J60" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="K60" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="L60" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6695,56 +7264,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="X60" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="Y60" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>22120</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>175793</v>
+      </c>
+      <c r="C61" t="s">
+        <v>520</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="J61" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="K61" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="L61" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="O61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6760,56 +7333,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="X61" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="Y61" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>22120</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>175794</v>
+      </c>
+      <c r="C62" t="s">
+        <v>531</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="J62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="K62" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="L62" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6825,56 +7402,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="X62" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="Y62" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>22120</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>35990</v>
+      </c>
+      <c r="C63" t="s">
+        <v>541</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="J63" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="K63" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="L63" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6892,56 +7473,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="X63" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="Y63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>22120</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>175795</v>
+      </c>
+      <c r="C64" t="s">
+        <v>547</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="J64" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="K64" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="L64" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="O64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6963,56 +7548,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="X64" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="Y64" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>22120</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175796</v>
+      </c>
+      <c r="C65" t="s">
+        <v>556</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="J65" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="K65" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="L65" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="O65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -7028,56 +7617,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="X65" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="Y65" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>22120</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>175797</v>
+      </c>
+      <c r="C66" t="s">
+        <v>566</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="J66" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="K66" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="L66" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7093,56 +7686,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="X66" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="Y66" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>22120</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>175798</v>
+      </c>
+      <c r="C67" t="s">
+        <v>573</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="J67" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="K67" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="L67" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7160,56 +7757,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="X67" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="Y67" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>22120</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>175799</v>
+      </c>
+      <c r="C68" t="s">
+        <v>582</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="J68" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="K68" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="L68" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="O68" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7221,47 +7822,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
       <c r="X68" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="Y68" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>22120</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>175800</v>
+      </c>
+      <c r="C69" t="s">
+        <v>591</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="J69" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="K69" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="L69" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -7288,47 +7893,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="X69" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="Y69" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>22120</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>175801</v>
+      </c>
+      <c r="C70" t="s">
+        <v>600</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="J70" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="K70" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="L70" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
@@ -7355,56 +7964,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="X70" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="Y70" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>22120</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C71" t="s">
+        <v>609</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
       <c r="J71" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="K71" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="L71" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="O71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7416,56 +8029,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="X71" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="Y71" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>22120</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>26650</v>
+      </c>
+      <c r="C72" t="s">
+        <v>619</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="J72" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="K72" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="L72" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="O72" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7487,56 +8104,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="X72" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="Y72" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>22120</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>175802</v>
+      </c>
+      <c r="C73" t="s">
+        <v>626</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="J73" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="K73" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="L73" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="O73" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7558,56 +8179,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="X73" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="Y73" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>22120</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>175803</v>
+      </c>
+      <c r="C74" t="s">
+        <v>634</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="J74" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="K74" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="L74" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7629,56 +8254,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="X74" t="s">
-        <v>569</v>
+        <v>642</v>
       </c>
       <c r="Y74" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>22120</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>8332</v>
+      </c>
+      <c r="C75" t="s">
+        <v>644</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="J75" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="K75" t="s">
-        <v>574</v>
+        <v>648</v>
       </c>
       <c r="L75" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="O75" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7690,56 +8319,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="X75" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="Y75" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>22120</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>175804</v>
+      </c>
+      <c r="C76" t="s">
+        <v>653</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>580</v>
+        <v>655</v>
       </c>
       <c r="J76" t="s">
-        <v>581</v>
+        <v>656</v>
       </c>
       <c r="K76" t="s">
-        <v>582</v>
+        <v>657</v>
       </c>
       <c r="L76" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="O76" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7761,56 +8394,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="X76" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="Y76" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>22120</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>175805</v>
+      </c>
+      <c r="C77" t="s">
+        <v>660</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>585</v>
+        <v>661</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>586</v>
+        <v>662</v>
       </c>
       <c r="J77" t="s">
-        <v>587</v>
+        <v>663</v>
       </c>
       <c r="K77" t="s">
-        <v>588</v>
+        <v>664</v>
       </c>
       <c r="L77" t="s">
-        <v>589</v>
+        <v>665</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="O77" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7834,50 +8471,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>589</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>22120</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>175806</v>
+      </c>
+      <c r="C78" t="s">
+        <v>667</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>592</v>
+        <v>669</v>
       </c>
       <c r="J78" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
       <c r="K78" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="L78" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="O78" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7899,56 +8540,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="X78" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="Y78" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>22120</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>65170</v>
+      </c>
+      <c r="C79" t="s">
+        <v>676</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>599</v>
+        <v>677</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>600</v>
+        <v>678</v>
       </c>
       <c r="J79" t="s">
-        <v>601</v>
+        <v>679</v>
       </c>
       <c r="K79" t="s">
-        <v>602</v>
+        <v>680</v>
       </c>
       <c r="L79" t="s">
-        <v>603</v>
+        <v>681</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="O79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -7970,56 +8615,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="X79" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="Y79" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>22120</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>175807</v>
+      </c>
+      <c r="C80" t="s">
+        <v>685</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>607</v>
+        <v>686</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>608</v>
+        <v>687</v>
       </c>
       <c r="J80" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="K80" t="s">
-        <v>610</v>
+        <v>689</v>
       </c>
       <c r="L80" t="s">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="O80" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8041,56 +8690,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="X80" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="Y80" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>22120</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>175808</v>
+      </c>
+      <c r="C81" t="s">
+        <v>695</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="J81" t="s">
-        <v>618</v>
+        <v>698</v>
       </c>
       <c r="K81" t="s">
-        <v>619</v>
+        <v>699</v>
       </c>
       <c r="L81" t="s">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -8112,56 +8765,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="X81" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="Y81" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>22120</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>156304</v>
+      </c>
+      <c r="C82" t="s">
+        <v>705</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="J82" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="K82" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="L82" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="O82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8183,56 +8840,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="X82" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="Y82" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>22120</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>175809</v>
+      </c>
+      <c r="C83" t="s">
+        <v>714</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="J83" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="K83" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="L83" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="O83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8254,56 +8915,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="X83" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="Y83" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>22120</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>175810</v>
+      </c>
+      <c r="C84" t="s">
+        <v>724</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="J84" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="K84" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="L84" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8325,56 +8990,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="X84" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
       <c r="Y84" t="s">
-        <v>649</v>
+        <v>732</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>22120</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>44348</v>
+      </c>
+      <c r="C85" t="s">
+        <v>733</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>650</v>
+        <v>734</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="J85" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
       <c r="K85" t="s">
-        <v>653</v>
+        <v>737</v>
       </c>
       <c r="L85" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="O85" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8396,56 +9065,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="X85" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="Y85" t="s">
-        <v>658</v>
+        <v>742</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>22120</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>68081</v>
+      </c>
+      <c r="C86" t="s">
+        <v>743</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>659</v>
+        <v>744</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>660</v>
+        <v>745</v>
       </c>
       <c r="J86" t="s">
-        <v>661</v>
+        <v>746</v>
       </c>
       <c r="K86" t="s">
-        <v>662</v>
+        <v>747</v>
       </c>
       <c r="L86" t="s">
-        <v>663</v>
+        <v>748</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>664</v>
+        <v>749</v>
       </c>
       <c r="O86" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8467,56 +9140,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="X86" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="Y86" t="s">
-        <v>665</v>
+        <v>750</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>22120</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>139572</v>
+      </c>
+      <c r="C87" t="s">
+        <v>751</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>666</v>
+        <v>752</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>667</v>
+        <v>753</v>
       </c>
       <c r="J87" t="s">
-        <v>668</v>
+        <v>754</v>
       </c>
       <c r="K87" t="s">
-        <v>669</v>
+        <v>755</v>
       </c>
       <c r="L87" t="s">
-        <v>670</v>
+        <v>756</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="O87" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8538,56 +9215,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="X87" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="Y87" t="s">
-        <v>672</v>
+        <v>758</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>22120</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>111940</v>
+      </c>
+      <c r="C88" t="s">
+        <v>759</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>673</v>
+        <v>760</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>674</v>
+        <v>761</v>
       </c>
       <c r="J88" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="K88" t="s">
-        <v>676</v>
+        <v>763</v>
       </c>
       <c r="L88" t="s">
-        <v>677</v>
+        <v>764</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="O88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P88" t="n">
         <v>2</v>
@@ -8609,56 +9290,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="X88" t="s">
-        <v>680</v>
+        <v>767</v>
       </c>
       <c r="Y88" t="s">
-        <v>681</v>
+        <v>768</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>22120</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>175811</v>
+      </c>
+      <c r="C89" t="s">
+        <v>769</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>682</v>
+        <v>770</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="J89" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
       <c r="K89" t="s">
-        <v>685</v>
+        <v>773</v>
       </c>
       <c r="L89" t="s">
-        <v>686</v>
+        <v>774</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="O89" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8680,56 +9365,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="X89" t="s">
-        <v>680</v>
+        <v>767</v>
       </c>
       <c r="Y89" t="s">
-        <v>687</v>
+        <v>775</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>22120</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>175812</v>
+      </c>
+      <c r="C90" t="s">
+        <v>776</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>688</v>
+        <v>777</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>689</v>
+        <v>778</v>
       </c>
       <c r="J90" t="s">
-        <v>690</v>
+        <v>779</v>
       </c>
       <c r="K90" t="s">
-        <v>691</v>
+        <v>780</v>
       </c>
       <c r="L90" t="s">
-        <v>692</v>
+        <v>781</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>693</v>
+        <v>782</v>
       </c>
       <c r="O90" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8751,56 +9440,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="X90" t="s">
-        <v>680</v>
+        <v>767</v>
       </c>
       <c r="Y90" t="s">
-        <v>694</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>22120</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>175813</v>
+      </c>
+      <c r="C91" t="s">
+        <v>784</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>696</v>
+        <v>786</v>
       </c>
       <c r="J91" t="s">
-        <v>690</v>
+        <v>779</v>
       </c>
       <c r="K91" t="s">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="L91" t="s">
-        <v>698</v>
+        <v>788</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>699</v>
+        <v>789</v>
       </c>
       <c r="O91" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8822,56 +9515,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="X91" t="s">
-        <v>680</v>
+        <v>767</v>
       </c>
       <c r="Y91" t="s">
-        <v>700</v>
+        <v>790</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>22120</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>175814</v>
+      </c>
+      <c r="C92" t="s">
+        <v>791</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>701</v>
+        <v>792</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>702</v>
+        <v>793</v>
       </c>
       <c r="J92" t="s">
-        <v>703</v>
+        <v>794</v>
       </c>
       <c r="K92" t="s">
-        <v>704</v>
+        <v>795</v>
       </c>
       <c r="L92" t="s">
-        <v>705</v>
+        <v>796</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>706</v>
+        <v>797</v>
       </c>
       <c r="O92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8895,50 +9592,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>705</v>
+        <v>796</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>22120</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>175815</v>
+      </c>
+      <c r="C93" t="s">
+        <v>798</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>707</v>
+        <v>799</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="J93" t="s">
-        <v>709</v>
+        <v>801</v>
       </c>
       <c r="K93" t="s">
-        <v>710</v>
+        <v>802</v>
       </c>
       <c r="L93" t="s">
-        <v>711</v>
+        <v>803</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>706</v>
+        <v>797</v>
       </c>
       <c r="O93" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8962,41 +9663,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>711</v>
+        <v>803</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>22120</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>175816</v>
+      </c>
+      <c r="C94" t="s">
+        <v>804</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>712</v>
+        <v>805</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>713</v>
+        <v>806</v>
       </c>
       <c r="J94" t="s">
-        <v>714</v>
+        <v>807</v>
       </c>
       <c r="K94" t="s">
-        <v>715</v>
+        <v>808</v>
       </c>
       <c r="L94" t="s">
-        <v>716</v>
+        <v>809</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -9025,50 +9730,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>716</v>
+        <v>809</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>22120</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>175817</v>
+      </c>
+      <c r="C95" t="s">
+        <v>810</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>717</v>
+        <v>811</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>718</v>
+        <v>812</v>
       </c>
       <c r="J95" t="s">
-        <v>719</v>
+        <v>813</v>
       </c>
       <c r="K95" t="s">
-        <v>720</v>
+        <v>814</v>
       </c>
       <c r="L95" t="s">
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>722</v>
+        <v>816</v>
       </c>
       <c r="O95" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -9092,50 +9801,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>723</v>
+        <v>817</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>22120</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>5084</v>
+      </c>
+      <c r="C96" t="s">
+        <v>818</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>724</v>
+        <v>819</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>725</v>
+        <v>820</v>
       </c>
       <c r="J96" t="s">
-        <v>726</v>
+        <v>821</v>
       </c>
       <c r="K96" t="s">
-        <v>727</v>
+        <v>822</v>
       </c>
       <c r="L96" t="s">
-        <v>728</v>
+        <v>823</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>722</v>
+        <v>816</v>
       </c>
       <c r="O96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -9159,41 +9872,45 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>729</v>
+        <v>824</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>22120</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>175818</v>
+      </c>
+      <c r="C97" t="s">
+        <v>825</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>730</v>
+        <v>826</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>731</v>
+        <v>827</v>
       </c>
       <c r="J97" t="s">
-        <v>732</v>
+        <v>828</v>
       </c>
       <c r="K97" t="s">
-        <v>733</v>
+        <v>829</v>
       </c>
       <c r="L97" t="s">
-        <v>734</v>
+        <v>830</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
@@ -9222,41 +9939,45 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>734</v>
+        <v>830</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>22120</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>175819</v>
+      </c>
+      <c r="C98" t="s">
+        <v>831</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>735</v>
+        <v>832</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="J98" t="s">
-        <v>737</v>
+        <v>834</v>
       </c>
       <c r="K98" t="s">
-        <v>738</v>
+        <v>835</v>
       </c>
       <c r="L98" t="s">
-        <v>739</v>
+        <v>836</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
@@ -9285,50 +10006,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>739</v>
+        <v>836</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>22120</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>175820</v>
+      </c>
+      <c r="C99" t="s">
+        <v>837</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="J99" t="s">
-        <v>742</v>
+        <v>840</v>
       </c>
       <c r="K99" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
       <c r="L99" t="s">
-        <v>744</v>
+        <v>842</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>745</v>
+        <v>843</v>
       </c>
       <c r="O99" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9352,50 +10077,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>746</v>
+        <v>844</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>22120</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>175821</v>
+      </c>
+      <c r="C100" t="s">
+        <v>845</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>747</v>
+        <v>846</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>748</v>
+        <v>847</v>
       </c>
       <c r="J100" t="s">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="K100" t="s">
-        <v>750</v>
+        <v>849</v>
       </c>
       <c r="L100" t="s">
-        <v>751</v>
+        <v>850</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>745</v>
+        <v>843</v>
       </c>
       <c r="O100" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9419,50 +10148,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>751</v>
+        <v>850</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>22120</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>175822</v>
+      </c>
+      <c r="C101" t="s">
+        <v>851</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>752</v>
+        <v>852</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>753</v>
+        <v>853</v>
       </c>
       <c r="J101" t="s">
-        <v>754</v>
+        <v>854</v>
       </c>
       <c r="K101" t="s">
-        <v>755</v>
+        <v>855</v>
       </c>
       <c r="L101" t="s">
-        <v>756</v>
+        <v>856</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>745</v>
+        <v>843</v>
       </c>
       <c r="O101" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9486,50 +10219,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>757</v>
+        <v>857</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>22120</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>14253</v>
+      </c>
+      <c r="C102" t="s">
+        <v>858</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>758</v>
+        <v>859</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>759</v>
+        <v>860</v>
       </c>
       <c r="J102" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
       <c r="K102" t="s">
-        <v>761</v>
+        <v>862</v>
       </c>
       <c r="L102" t="s">
-        <v>762</v>
+        <v>863</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c r="O102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9553,50 +10290,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>762</v>
+        <v>863</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>22120</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C103" t="s">
+        <v>865</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>764</v>
+        <v>866</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>765</v>
+        <v>867</v>
       </c>
       <c r="J103" t="s">
-        <v>766</v>
+        <v>868</v>
       </c>
       <c r="K103" t="s">
-        <v>767</v>
+        <v>869</v>
       </c>
       <c r="L103" t="s">
-        <v>768</v>
+        <v>870</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>769</v>
+        <v>871</v>
       </c>
       <c r="O103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9620,50 +10361,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>770</v>
+        <v>872</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>22120</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>175823</v>
+      </c>
+      <c r="C104" t="s">
+        <v>873</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>771</v>
+        <v>874</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>772</v>
+        <v>875</v>
       </c>
       <c r="J104" t="s">
-        <v>773</v>
+        <v>876</v>
       </c>
       <c r="K104" t="s">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="L104" t="s">
-        <v>775</v>
+        <v>878</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>776</v>
+        <v>879</v>
       </c>
       <c r="O104" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9683,50 +10428,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>777</v>
+        <v>880</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>22120</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>175824</v>
+      </c>
+      <c r="C105" t="s">
+        <v>881</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>778</v>
+        <v>882</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>779</v>
+        <v>883</v>
       </c>
       <c r="J105" t="s">
-        <v>780</v>
+        <v>884</v>
       </c>
       <c r="K105" t="s">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c r="L105" t="s">
-        <v>782</v>
+        <v>886</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>783</v>
+        <v>887</v>
       </c>
       <c r="O105" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -9750,50 +10499,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>784</v>
+        <v>888</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>22120</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>175825</v>
+      </c>
+      <c r="C106" t="s">
+        <v>889</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>785</v>
+        <v>890</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>786</v>
+        <v>891</v>
       </c>
       <c r="J106" t="s">
-        <v>787</v>
+        <v>892</v>
       </c>
       <c r="K106" t="s">
-        <v>788</v>
+        <v>893</v>
       </c>
       <c r="L106" t="s">
-        <v>789</v>
+        <v>894</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>790</v>
+        <v>895</v>
       </c>
       <c r="O106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9817,50 +10570,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>791</v>
+        <v>896</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>22120</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>175826</v>
+      </c>
+      <c r="C107" t="s">
+        <v>897</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>792</v>
+        <v>898</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>793</v>
+        <v>899</v>
       </c>
       <c r="J107" t="s">
-        <v>794</v>
+        <v>900</v>
       </c>
       <c r="K107" t="s">
-        <v>795</v>
+        <v>901</v>
       </c>
       <c r="L107" t="s">
-        <v>796</v>
+        <v>902</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>797</v>
+        <v>903</v>
       </c>
       <c r="O107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9884,50 +10641,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>796</v>
+        <v>902</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>22120</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>175827</v>
+      </c>
+      <c r="C108" t="s">
+        <v>904</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>798</v>
+        <v>905</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>799</v>
+        <v>906</v>
       </c>
       <c r="J108" t="s">
-        <v>800</v>
+        <v>907</v>
       </c>
       <c r="K108" t="s">
-        <v>801</v>
+        <v>908</v>
       </c>
       <c r="L108" t="s">
-        <v>802</v>
+        <v>909</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>803</v>
+        <v>910</v>
       </c>
       <c r="O108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -9951,50 +10712,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>804</v>
+        <v>911</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>22120</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>175828</v>
+      </c>
+      <c r="C109" t="s">
+        <v>912</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>805</v>
+        <v>913</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>806</v>
+        <v>914</v>
       </c>
       <c r="J109" t="s">
-        <v>807</v>
+        <v>915</v>
       </c>
       <c r="K109" t="s">
-        <v>808</v>
+        <v>916</v>
       </c>
       <c r="L109" t="s">
-        <v>809</v>
+        <v>917</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>810</v>
+        <v>918</v>
       </c>
       <c r="O109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10018,50 +10783,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>811</v>
+        <v>919</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>22120</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>175829</v>
+      </c>
+      <c r="C110" t="s">
+        <v>920</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>812</v>
+        <v>921</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>813</v>
+        <v>922</v>
       </c>
       <c r="J110" t="s">
-        <v>814</v>
+        <v>923</v>
       </c>
       <c r="K110" t="s">
-        <v>815</v>
+        <v>924</v>
       </c>
       <c r="L110" t="s">
-        <v>816</v>
+        <v>925</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>817</v>
+        <v>926</v>
       </c>
       <c r="O110" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10083,50 +10852,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>816</v>
+        <v>925</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>22120</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>124365</v>
+      </c>
+      <c r="C111" t="s">
+        <v>927</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>818</v>
+        <v>928</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>819</v>
+        <v>929</v>
       </c>
       <c r="J111" t="s">
-        <v>820</v>
+        <v>930</v>
       </c>
       <c r="K111" t="s">
-        <v>821</v>
+        <v>931</v>
       </c>
       <c r="L111" t="s">
-        <v>822</v>
+        <v>932</v>
       </c>
       <c r="M111" t="n">
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>823</v>
+        <v>933</v>
       </c>
       <c r="O111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P111" t="n">
         <v>2</v>
@@ -10150,50 +10923,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>824</v>
+        <v>934</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>22120</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>175830</v>
+      </c>
+      <c r="C112" t="s">
+        <v>935</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>825</v>
+        <v>936</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>826</v>
+        <v>937</v>
       </c>
       <c r="J112" t="s">
-        <v>827</v>
+        <v>938</v>
       </c>
       <c r="K112" t="s">
-        <v>828</v>
+        <v>939</v>
       </c>
       <c r="L112" t="s">
-        <v>829</v>
+        <v>940</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>830</v>
+        <v>941</v>
       </c>
       <c r="O112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -10213,7 +10990,7 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>829</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
